--- a/data/CED_focus_Sim.xlsx
+++ b/data/CED_focus_Sim.xlsx
@@ -810,223 +810,223 @@
         <v>0.5800000000000005</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5140518890387845</v>
+        <v>0.516364638233713</v>
       </c>
       <c r="C2" t="n">
-        <v>0.521204784584766</v>
+        <v>0.5163645733028454</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5099284227914063</v>
+        <v>0.516364508371992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5204579802379096</v>
+        <v>0.5163643785103028</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5154629080312196</v>
+        <v>0.5163642486486711</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5147568467177782</v>
+        <v>0.5163641187870972</v>
       </c>
       <c r="H2" t="n">
-        <v>0.50938193166164</v>
+        <v>0.5163628201745285</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5019359218976773</v>
+        <v>0.5163615215677247</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5312990058074858</v>
+        <v>0.5163602229666857</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5557637250897184</v>
+        <v>0.5163589243714114</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5106929517419797</v>
+        <v>0.5163459387357221</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5026371047851551</v>
+        <v>0.5163329536764669</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5162410931181197</v>
+        <v>0.5163199691936075</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5151303666964032</v>
+        <v>0.5163069852871048</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5211765468606567</v>
+        <v>0.5161771779132297</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.533572928791475</v>
+        <v>0.5160474281326368</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5270284141680214</v>
+        <v>0.5159177359067998</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5008077765916819</v>
+        <v>0.515788101197229</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5135151592841087</v>
+        <v>0.5144949090551408</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5062554516510858</v>
+        <v>0.5132074264545445</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5266590185530571</v>
+        <v>0.5119256154843184</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5143454671256977</v>
+        <v>0.5106494385653377</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4970930769410244</v>
+        <v>0.5093788584584991</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4956362449638382</v>
+        <v>0.4969729060583983</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.4896813719838091</v>
+        <v>0.4850880165371165</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4812575212075672</v>
+        <v>0.473691990782259</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.4687417837927715</v>
+        <v>0.4627552502730141</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4609401762761926</v>
+        <v>0.4522505915484066</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.4297289674929614</v>
+        <v>0.4265071676150413</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.4219167249879641</v>
+        <v>0.4031913605362891</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.4053271770409801</v>
+        <v>0.3987871311955163</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.4021804922977621</v>
+        <v>0.3944645397346319</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.3887043966217611</v>
+        <v>0.390221304733419</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.3814794327998188</v>
+        <v>0.3843843609974785</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.3872755446808051</v>
+        <v>0.3786932290523568</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.342262440760027</v>
+        <v>0.3578840015934184</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.3452861664384996</v>
+        <v>0.3389392953831803</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.3119938036184256</v>
+        <v>0.3216211326828174</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.3028099456696837</v>
+        <v>0.2874815228683992</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.2657029996868164</v>
+        <v>0.2587917540622136</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.2243605787565251</v>
+        <v>0.234465305259381</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.217965121839123</v>
+        <v>0.2136322663585873</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.18608768443983</v>
+        <v>0.1821480478260393</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.1473606630883992</v>
+        <v>0.1575112129946731</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.136368448296697</v>
+        <v>0.1377365810485476</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.1086626361581626</v>
+        <v>0.111893170125673</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.08816546559904559</v>
+        <v>0.0928891226753205</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.08884753707759838</v>
+        <v>0.07831968387440881</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.07346445261259681</v>
+        <v>0.06189595931924913</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.06775043058199268</v>
+        <v>0.05995753139768362</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.06302148907403586</v>
+        <v>0.05810455908892685</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.07245822160346682</v>
+        <v>0.05451575757467834</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.05617038737551804</v>
+        <v>0.05411820148180624</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.05761147491808254</v>
+        <v>0.05408876223253096</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.04631936693076542</v>
+        <v>0.05405934587189095</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.04629853592391957</v>
+        <v>0.05400613370145797</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.05145416068772056</v>
+        <v>0.05395299638181179</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0582068276294522</v>
+        <v>0.05389993377134131</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.07127132107469672</v>
+        <v>0.0533733874016229</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.06350868588869396</v>
+        <v>0.05285415761021382</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.04577817258495456</v>
+        <v>0.05234210940520555</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.06013628734199744</v>
+        <v>0.05183710992661727</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.06228587801164961</v>
+        <v>0.04714972856379417</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.05670569945401333</v>
+        <v>0.04304151457892525</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.03591471478806305</v>
+        <v>0.0394201725710986</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.04420854136494821</v>
+        <v>0.03621197724392756</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.04009006015961303</v>
+        <v>0.02716537794309039</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.01728104436291893</v>
+        <v>0.02088225338028646</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.009941843549980456</v>
+        <v>0.01638589114907618</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.01478460654775256</v>
+        <v>0.01311970952307851</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.006840384752470213</v>
+        <v>0.01022016970828443</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.006610457055943444</v>
+        <v>0.008123760049124431</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.02873144758421303</v>
+        <v>0.006890160659021298</v>
       </c>
     </row>
     <row r="3">
@@ -1034,223 +1034,223 @@
         <v>0.730754208939027</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2023079007884519</v>
+        <v>0.1948289622677543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2092684374981722</v>
+        <v>0.1948289865098802</v>
       </c>
       <c r="D3" t="n">
-        <v>0.216128809463982</v>
+        <v>0.1948290107519932</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1851305470661408</v>
+        <v>0.194829059236198</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2037338501018016</v>
+        <v>0.1948291077203518</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1902608915297811</v>
+        <v>0.1948291562044543</v>
       </c>
       <c r="H3" t="n">
-        <v>0.217339578186127</v>
+        <v>0.1948296410426696</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1875438993376193</v>
+        <v>0.1948301258757739</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2036319058431955</v>
+        <v>0.1948306107037675</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1874841953941733</v>
+        <v>0.1948310955266503</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1792914007740252</v>
+        <v>0.1948359434743974</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1943400449699683</v>
+        <v>0.1948407909111225</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2065312995982258</v>
+        <v>0.1948456378368741</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1801944011416755</v>
+        <v>0.1948504842517009</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1674553559853625</v>
+        <v>0.1948989203097819</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2014271077452188</v>
+        <v>0.1949473053287816</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1947107827812614</v>
+        <v>0.1949956393572005</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2004457601495634</v>
+        <v>0.1950439224434846</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1858215617384859</v>
+        <v>0.1955239621067441</v>
       </c>
       <c r="U3" t="n">
-        <v>0.176725313055164</v>
+        <v>0.1959989604543017</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1772024268757816</v>
+        <v>0.1964689650466885</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1882345646687432</v>
+        <v>0.1969340229308501</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1933194616555594</v>
+        <v>0.1973941806347608</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2051624974676293</v>
+        <v>0.2017361471592039</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2114964964164435</v>
+        <v>0.2056357095372033</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2152613812850883</v>
+        <v>0.2091318064474471</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2238004501040867</v>
+        <v>0.2122594952192269</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2001674155700145</v>
+        <v>0.2150503784092926</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.2258716678474391</v>
+        <v>0.2209799778111331</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.2431140901472645</v>
+        <v>0.2252034621960442</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.2378608704467116</v>
+        <v>0.2258768696259568</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.2243648790251298</v>
+        <v>0.226498130313782</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.2156580622670333</v>
+        <v>0.2270695209080852</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.2445547801803871</v>
+        <v>0.2277563333415695</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.2508049204941213</v>
+        <v>0.2283560848759494</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2317441851602014</v>
+        <v>0.2300984672067879</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.237926122778371</v>
+        <v>0.2308281345782704</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.2466538657850733</v>
+        <v>0.2307541303739685</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.2452560899524086</v>
+        <v>0.2282560320015389</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2262060264379745</v>
+        <v>0.2238788591908829</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.2253572161266862</v>
+        <v>0.2183543730059048</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2214957955905933</v>
+        <v>0.212175794918835</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.2103597529199778</v>
+        <v>0.2003364026769572</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.1931752267854613</v>
+        <v>0.188415607757979</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1679726103632401</v>
+        <v>0.1769826720897163</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.1566219787855974</v>
+        <v>0.1593470508855198</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1579496653257415</v>
+        <v>0.1438888812017064</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1198515830558852</v>
+        <v>0.1304531101385605</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1016363139743379</v>
+        <v>0.1133884057236696</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1090408596899284</v>
+        <v>0.1111863409773069</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.08911983494097202</v>
+        <v>0.1090467637503257</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.09176971332396842</v>
+        <v>0.1048375289472047</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.09170995429509007</v>
+        <v>0.1043613868040438</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.1004435548132388</v>
+        <v>0.1043261185060826</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.1115929057290202</v>
+        <v>0.1042908679803308</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.08568475631223595</v>
+        <v>0.1042270864197229</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.09937155247485445</v>
+        <v>0.104163363025509</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.1039842421662966</v>
+        <v>0.1040996977290316</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.1087615409102239</v>
+        <v>0.1034662262307309</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.08868715573601164</v>
+        <v>0.1028384888530794</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.1102978431984767</v>
+        <v>0.1022164191757388</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.1089447561383398</v>
+        <v>0.1015999508551863</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.09359646676659944</v>
+        <v>0.09573057685701582</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.09052810210726857</v>
+        <v>0.09035447784363837</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.1018315918044897</v>
+        <v>0.0854178506040433</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.0729922239987635</v>
+        <v>0.08087408850803202</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0721480007019705</v>
+        <v>0.06695706538912773</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.04681158858688922</v>
+        <v>0.05628217944807704</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.05155813113093235</v>
+        <v>0.04791511757566513</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.05581172478473458</v>
+        <v>0.04125638678609918</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.01990554301013798</v>
+        <v>0.03487856059762869</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.03363858808068091</v>
+        <v>0.02984636305977543</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.02509200701004068</v>
+        <v>0.02667047581994342</v>
       </c>
     </row>
     <row r="4">
@@ -1258,223 +1258,223 @@
         <v>0.9206926101415563</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1627553891864586</v>
+        <v>0.1654140272599602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1665454514567558</v>
+        <v>0.1654140513623062</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1449854040262006</v>
+        <v>0.16541407546465</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1852727500797128</v>
+        <v>0.1654141236693375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1721814307394024</v>
+        <v>0.1654141718740163</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1484792591271799</v>
+        <v>0.1654142200786863</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1627512588872755</v>
+        <v>0.1654147021249044</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1787935347987678</v>
+        <v>0.1654151841702465</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1687833945345826</v>
+        <v>0.1654156662147125</v>
       </c>
       <c r="K4" t="n">
-        <v>0.157492422913988</v>
+        <v>0.1654161482583025</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1652241434328395</v>
+        <v>0.1654209686460152</v>
       </c>
       <c r="M4" t="n">
-        <v>0.171342405017858</v>
+        <v>0.1654257889461089</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1566521257876988</v>
+        <v>0.1654306091585737</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1571925076922674</v>
+        <v>0.1654354292833995</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1691255819121538</v>
+        <v>0.1654836257093266</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1653834122847275</v>
+        <v>0.1655318133604176</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1437048110866386</v>
+        <v>0.165579992226745</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1822507257771574</v>
+        <v>0.1656281622984042</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1630815805809251</v>
+        <v>0.1661093771450249</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1671455012541175</v>
+        <v>0.1665897017914159</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1596909438969899</v>
+        <v>0.1670691266920661</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1764580903539857</v>
+        <v>0.1675476425132099</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1776408997079421</v>
+        <v>0.1680252401305034</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1821515971621491</v>
+        <v>0.1727488463976636</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1862479868639408</v>
+        <v>0.1773720157975162</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1783740686285903</v>
+        <v>0.1818885803247394</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1853588338324363</v>
+        <v>0.1862938112984311</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1923316132299377</v>
+        <v>0.1905842001910504</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1979851725900313</v>
+        <v>0.2013065942282097</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.2147757472846778</v>
+        <v>0.2111995840875139</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.1986347885571269</v>
+        <v>0.2130792847704118</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.2220280208670093</v>
+        <v>0.2149262247407051</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.2153710218568216</v>
+        <v>0.2167405770014605</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.2199989788022021</v>
+        <v>0.2192367035873461</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.2294833407910847</v>
+        <v>0.2216685045567572</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.229594652518482</v>
+        <v>0.2305253643847896</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.2356875571203429</v>
+        <v>0.2384851153275379</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.2483028070421332</v>
+        <v>0.2456009473185417</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.27644478513536</v>
+        <v>0.258868802846156</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.2604767303103853</v>
+        <v>0.2687631594001911</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.2767464707209205</v>
+        <v>0.2758210813009236</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.2789934632658238</v>
+        <v>0.2805417847761214</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.271378405465333</v>
+        <v>0.2847447170275964</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.2844843697533996</v>
+        <v>0.284722554378074</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.2904132322119031</v>
+        <v>0.2823021037246694</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.286033050238237</v>
+        <v>0.2752717660535848</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2623615697612332</v>
+        <v>0.2660508855540092</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.2633492793319879</v>
+        <v>0.2559328379703641</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.2478864829770067</v>
+        <v>0.240402381535998</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.2561896745616262</v>
+        <v>0.238126176535583</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.2524063966986994</v>
+        <v>0.2358649843540223</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.2249661718418007</v>
+        <v>0.2313223707545657</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.2208819480217353</v>
+        <v>0.2307944478528775</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.2376173510359577</v>
+        <v>0.2307553301824155</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.223146638233882</v>
+        <v>0.2307162183562837</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.233561221651131</v>
+        <v>0.2306454275462554</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.2316484012441109</v>
+        <v>0.2305746559344578</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.22173280657228</v>
+        <v>0.2305039035559835</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.229676912555664</v>
+        <v>0.2297974454991745</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.2330278363478238</v>
+        <v>0.2290929478453048</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.2306534833760791</v>
+        <v>0.2283904431367904</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.2175350367917971</v>
+        <v>0.2276899620422479</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.2415820440299884</v>
+        <v>0.2208022284017841</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.2188377625357648</v>
+        <v>0.2141407996252109</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.2065159320190763</v>
+        <v>0.2077170953640176</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.1852301120189897</v>
+        <v>0.201535291830005</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.1865082388466555</v>
+        <v>0.1807679962832011</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.174921371317955</v>
+        <v>0.1629591333130933</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.1293030006333534</v>
+        <v>0.1476490840946461</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.1318923605309738</v>
+        <v>0.1344303529732585</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.1122328905279362</v>
+        <v>0.1208529116262875</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.1156507075198816</v>
+        <v>0.1093052947438788</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.1033574405201725</v>
+        <v>0.1015726822556133</v>
       </c>
     </row>
     <row r="5">
@@ -1482,223 +1482,223 @@
         <v>1.160000000000001</v>
       </c>
       <c r="B5" t="n">
-        <v>0.09626189574964604</v>
+        <v>0.09563389520078631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09638025567900195</v>
+        <v>0.09563390787951391</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09060359339338822</v>
+        <v>0.09563392055824194</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0788533556381677</v>
+        <v>0.09563394591570112</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09670055289002309</v>
+        <v>0.09563397127316203</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1041183309835959</v>
+        <v>0.09563399663062468</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09989872746631084</v>
+        <v>0.09563425020534665</v>
       </c>
       <c r="I5" t="n">
-        <v>0.10463454837959</v>
+        <v>0.09563450378024227</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1066693239652045</v>
+        <v>0.09563475735531153</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09252774739573302</v>
+        <v>0.0956350109305544</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09480473176343482</v>
+        <v>0.09563754669253303</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09471164874435051</v>
+        <v>0.09564008247187485</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1127674119915148</v>
+        <v>0.09564261826857974</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09951454876525111</v>
+        <v>0.09564515408264754</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09594708737941077</v>
+        <v>0.09567051317826047</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.11001147596363</v>
+        <v>0.09569587401003331</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09520718607854248</v>
+        <v>0.09572123657784118</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09796442627765645</v>
+        <v>0.09574660088155597</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09654186657202887</v>
+        <v>0.09600033936299401</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08434626765940464</v>
+        <v>0.09625425127096572</v>
       </c>
       <c r="V5" t="n">
-        <v>0.09988888581629868</v>
+        <v>0.09650833642503376</v>
       </c>
       <c r="W5" t="n">
-        <v>0.09696720435441929</v>
+        <v>0.09676259461492544</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1057418705232783</v>
+        <v>0.09701702560039829</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1060638696912192</v>
+        <v>0.0995707679686056</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1013563480196618</v>
+        <v>0.1021413308703528</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1140165946148403</v>
+        <v>0.1047280756026933</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.09601333720444158</v>
+        <v>0.1073301898884261</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1184840530898691</v>
+        <v>0.1099467264341954</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1130866673261044</v>
+        <v>0.116890742148038</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1411384127518996</v>
+        <v>0.1239060200905981</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1161832261683629</v>
+        <v>0.1253158261506676</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.1331929334431451</v>
+        <v>0.1267274120225876</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1429718487470328</v>
+        <v>0.1281406058615247</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.1263784967511485</v>
+        <v>0.1301575079051211</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1241172296197378</v>
+        <v>0.1321767981745169</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1319626157180765</v>
+        <v>0.1399138307669387</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.1524918067638082</v>
+        <v>0.1476518995371724</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1640899446340669</v>
+        <v>0.1553668974241637</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.1725901854127747</v>
+        <v>0.1727414613271789</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.1869059753247139</v>
+        <v>0.1896929717698775</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.1951086775859292</v>
+        <v>0.2060565157784204</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.2244505636800246</v>
+        <v>0.2217254367417165</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.2431917393071937</v>
+        <v>0.2483505418518765</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.2600882221182884</v>
+        <v>0.2718058566816181</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.2765625884898787</v>
+        <v>0.2915978000423583</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.302190021861932</v>
+        <v>0.3176709674717753</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.3257156639670087</v>
+        <v>0.336082691106245</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.3526516477917233</v>
+        <v>0.3486495720593404</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.3485924298811279</v>
+        <v>0.3595397010073877</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.3662226173239514</v>
+        <v>0.3603738783083483</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.3565425601010536</v>
+        <v>0.3610700290844827</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.3554988119218924</v>
+        <v>0.3622177943698462</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.3543434593310389</v>
+        <v>0.3623143151886289</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.3631168057940313</v>
+        <v>0.3623214309302114</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.3542041109297269</v>
+        <v>0.3623285095295747</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.3497426897058607</v>
+        <v>0.3623412624663606</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.361541606050549</v>
+        <v>0.3623538939406803</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.3638636436789833</v>
+        <v>0.3623664041694379</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.3532892869247052</v>
+        <v>0.3624848832991215</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.3684296735003784</v>
+        <v>0.3625914750477813</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.3669823065058208</v>
+        <v>0.3626863886569817</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.3753742025504405</v>
+        <v>0.3627698311004841</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.3735256047287566</v>
+        <v>0.3630138791649937</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.3597947646106438</v>
+        <v>0.3623138133962212</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.3603197857869455</v>
+        <v>0.3608262658178363</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.3619276164814133</v>
+        <v>0.358759280526766</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.3327732803276612</v>
+        <v>0.3481046295634261</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.3265660957144831</v>
+        <v>0.3358842650817885</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.3222759030262818</v>
+        <v>0.3228419346744427</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.3077659270532568</v>
+        <v>0.3096670993139226</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.2826173589187238</v>
+        <v>0.2943901262444168</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.2892836343049655</v>
+        <v>0.2798081755010635</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.275815166531116</v>
+        <v>0.269180388443067</v>
       </c>
     </row>
     <row r="6">
@@ -1706,223 +1706,223 @@
         <v>1.461508417878054</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01970639540422316</v>
+        <v>0.02597681856347882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03479879087153014</v>
+        <v>0.02597682216232362</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05165897030638788</v>
+        <v>0.02597682576116853</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02809381846693073</v>
+        <v>0.02597683295885919</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0275512871453025</v>
+        <v>0.02597684015655025</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007607485428030039</v>
+        <v>0.02597684735424172</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01275595637810897</v>
+        <v>0.02597691933117856</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02967312405295256</v>
+        <v>0.02597699130815573</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03467130970147536</v>
+        <v>0.02597706328517323</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03159209492378834</v>
+        <v>0.02597713526223106</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02108811675741292</v>
+        <v>0.0259778550350275</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03255101651788751</v>
+        <v>0.025978574811857</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01108418060468841</v>
+        <v>0.02597929459271963</v>
       </c>
       <c r="O6" t="n">
-        <v>0.008526401447545455</v>
+        <v>0.02598001437761547</v>
       </c>
       <c r="P6" t="n">
-        <v>0.044886598402009</v>
+        <v>0.02598721244841658</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01162812770630253</v>
+        <v>0.02599441092262016</v>
       </c>
       <c r="R6" t="n">
-        <v>0.008769640772837241</v>
+        <v>0.02600160980030048</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02369668505720042</v>
+        <v>0.02600880908153175</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02440866233466346</v>
+        <v>0.02608082410541418</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01362980987083967</v>
+        <v>0.02615287956574317</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02165257056976468</v>
+        <v>0.02622497553587141</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02129848606876988</v>
+        <v>0.02629711208881564</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03495195189974877</v>
+        <v>0.02636928929709007</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03824710672676206</v>
+        <v>0.02709331323910425</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02949450226816723</v>
+        <v>0.02782147910889964</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01954962710923396</v>
+        <v>0.02855385080863112</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.04714005474251134</v>
+        <v>0.02929048719587451</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.04009945586911005</v>
+        <v>0.03003144167610816</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01258090432275488</v>
+        <v>0.03200154285483885</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.04538843871013327</v>
+        <v>0.03400248971985562</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.04509696075949814</v>
+        <v>0.03440647854528862</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.01207245161493602</v>
+        <v>0.03481172236064942</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.03312428128510975</v>
+        <v>0.03521822420812942</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.03807677170772663</v>
+        <v>0.03580082866843618</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.05632635310846415</v>
+        <v>0.03638612473323064</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.03871982497419903</v>
+        <v>0.03864507698456519</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.03313569271372158</v>
+        <v>0.04094118616280092</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.04463382766805934</v>
+        <v>0.04327422297742531</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.03832886825407426</v>
+        <v>0.04872220012889171</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.0563145479136065</v>
+        <v>0.05435681727039787</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.07933664113717266</v>
+        <v>0.06016034647814383</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.06303194493045064</v>
+        <v>0.06611640767729432</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0679665607614406</v>
+        <v>0.07729634081449288</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.07547181197387379</v>
+        <v>0.08897003315970486</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.0995443755772172</v>
+        <v>0.1012162555967315</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.1227033455165922</v>
+        <v>0.1226617791342327</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.1481538424317253</v>
+        <v>0.1445426286062829</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.1676404626377808</v>
+        <v>0.1663125949792592</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.2003592288014258</v>
+        <v>0.1980519076231445</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.2027995927224386</v>
+        <v>0.2026040680191569</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.1948326482525201</v>
+        <v>0.2071138202693652</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.2266107327925519</v>
+        <v>0.2161516530085528</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.2215986471586824</v>
+        <v>0.2171988174010206</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.2208977593500858</v>
+        <v>0.2172764065857403</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.2187364887167842</v>
+        <v>0.2173539813255718</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.2103645961895317</v>
+        <v>0.2174943837768183</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.2156805713657877</v>
+        <v>0.2176347388392701</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.2114823936639521</v>
+        <v>0.2177750464799134</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.2119992743168674</v>
+        <v>0.2191755066039754</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.2328327069802764</v>
+        <v>0.2205711898538974</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.2100242612514818</v>
+        <v>0.2219620646436309</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.2073577227547286</v>
+        <v>0.2233481012966275</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.2544754451247108</v>
+        <v>0.2369359225484154</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.2412111413738922</v>
+        <v>0.2500152681909948</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.2678361049657481</v>
+        <v>0.262572993278134</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.281618303093616</v>
+        <v>0.2744875506935714</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.311316971540232</v>
+        <v>0.3121138181151633</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.3462050388275263</v>
+        <v>0.3399989788366687</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.3584838028686668</v>
+        <v>0.3607970035661452</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.3795607057620476</v>
+        <v>0.3759253262750816</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.3904404563496921</v>
+        <v>0.3884006485421179</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.3749420577847472</v>
+        <v>0.3959159997604628</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.4011998605613317</v>
+        <v>0.3990532524242476</v>
       </c>
     </row>
     <row r="7">
@@ -1930,223 +1930,223 @@
         <v>1.841385220283113</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.001870771974429223</v>
+        <v>0.001770978033502794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01423445160651707</v>
+        <v>0.001770978337348828</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0103523828123282</v>
+        <v>0.001770978641194882</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02236441873807576</v>
+        <v>0.001770979248887082</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01693695625344244</v>
+        <v>0.00177097985657936</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01123570200968404</v>
+        <v>0.001770980464271715</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001520367156384578</v>
+        <v>0.00177098654119954</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006831160925603546</v>
+        <v>0.00177099261813513</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0241751800931734</v>
+        <v>0.001770998695078486</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00175929427427291</v>
+        <v>0.001771004772029607</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00458820241497725</v>
+        <v>0.001771065541967926</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01283672419858196</v>
+        <v>0.001771126312682802</v>
       </c>
       <c r="N7" t="n">
-        <v>0.007897807415882677</v>
+        <v>0.001771187084174238</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01766344712031032</v>
+        <v>0.001771247856442237</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01138679390271218</v>
+        <v>0.00177185562183388</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.008867849986303501</v>
+        <v>0.001772463464885257</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.01877790781046832</v>
+        <v>0.001773071385599477</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01301883655719373</v>
+        <v>0.001773679383979651</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001589940246100126</v>
+        <v>0.0017797636400915</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.007795895778521366</v>
+        <v>0.001785855666225959</v>
       </c>
       <c r="V7" t="n">
-        <v>0.005326373513318436</v>
+        <v>0.001791955465491137</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.0004521234844395358</v>
+        <v>0.001798063041006853</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.01113202464018208</v>
+        <v>0.001804178395893635</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01243528626812407</v>
+        <v>0.001865760513263057</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01072896925814786</v>
+        <v>0.001928124039688327</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.007753261394785285</v>
+        <v>0.001991272117798022</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.004822350912204587</v>
+        <v>0.002055207933280739</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.005944752192044973</v>
+        <v>0.002119934690961359</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.006448009546475977</v>
+        <v>0.002294007294609927</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.005917069676246309</v>
+        <v>0.002473631676986559</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02999824996811017</v>
+        <v>0.002510231895595674</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.01481175881120661</v>
+        <v>0.002547057046717499</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.004079534687171284</v>
+        <v>0.002584107676780359</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.009434014578567972</v>
+        <v>0.002637516021559256</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.01058022683615577</v>
+        <v>0.002691398708353429</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.005585993892294644</v>
+        <v>0.002901001832072455</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.009719600976878882</v>
+        <v>0.003117414251203934</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.02172374777996156</v>
+        <v>0.003340712156968877</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.02723887723860009</v>
+        <v>0.003875457229631878</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.009439611238567333</v>
+        <v>0.004447670131834265</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.004164145775827362</v>
+        <v>0.005057627435518556</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.01475267848026915</v>
+        <v>0.005705772109637112</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.01506394206461212</v>
+        <v>0.006984219113868337</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.007601006960250059</v>
+        <v>0.00839121663022542</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.02007521700642152</v>
+        <v>0.009930234894961891</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.01319043177416319</v>
+        <v>0.01281840397655647</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.01070344271561987</v>
+        <v>0.01608318830668679</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.00640990801954909</v>
+        <v>0.01971846529387756</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.01701459071118076</v>
+        <v>0.02582906078469532</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.03370712387289408</v>
+        <v>0.02681144257480072</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.04719570294282806</v>
+        <v>0.02780973079237306</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.02376513041222463</v>
+        <v>0.02986130743968401</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.01085729668127051</v>
+        <v>0.03010662813759085</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.01592531733454613</v>
+        <v>0.03012481304300252</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.04614500869023818</v>
+        <v>0.03014300253811251</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.04520990007359842</v>
+        <v>0.03017593675404861</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.03658940564900599</v>
+        <v>0.03020888599275568</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.04022820827508167</v>
+        <v>0.03024185024496902</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.02433140403126606</v>
+        <v>0.03057231641119735</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.03596962696127354</v>
+        <v>0.03090427376242773</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0296991210234073</v>
+        <v>0.03123771297183915</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0260012432094966</v>
+        <v>0.0315726247379829</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.03084221238363221</v>
+        <v>0.03500058643472929</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.04293504454669455</v>
+        <v>0.03856552683900382</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05140677347986221</v>
+        <v>0.04225817028462938</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.05617195669746849</v>
+        <v>0.04610768846734821</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.07027219660535788</v>
+        <v>0.0618275474730029</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.06934638770229233</v>
+        <v>0.07960998747123879</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.1148885925591746</v>
+        <v>0.09840773794750352</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.112255407776091</v>
+        <v>0.1176737036284569</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.1381066407439569</v>
+        <v>0.1406548468259756</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1714063398368747</v>
+        <v>0.1633083687998531</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.1796380157464934</v>
+        <v>0.1802944308039117</v>
       </c>
     </row>
     <row r="8">
@@ -2154,223 +2154,223 @@
         <v>2.320000000000002</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.007175261347947578</v>
+        <v>1.068044080460094e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.008663153449978698</v>
+        <v>1.068044577192823e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.005428965598374694</v>
+        <v>1.068045073925636e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004041250238891844</v>
+        <v>1.068046067391521e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.005217309523074175</v>
+        <v>1.068047060857744e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0007516105952723898</v>
+        <v>1.068048054324307e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.002207114806171466</v>
+        <v>1.068057989008594e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.004158149731426673</v>
+        <v>1.068067923726806e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006532320351762715</v>
+        <v>1.068077858478943e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01001182379790373</v>
+        <v>1.068087793265004e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002784090456381919</v>
+        <v>1.06818714299147e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.004281245550720798</v>
+        <v>1.068286496110403e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.00770686780395135</v>
+        <v>1.068385852621811e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.00492768819883005</v>
+        <v>1.068485212525702e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001835312161142779</v>
+        <v>1.069478998152683e-05</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.009268879310406807</v>
+        <v>1.070473123035712e-05</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.02095842678555826</v>
+        <v>1.071467587181929e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.0004912072835234983</v>
+        <v>1.072462390598488e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.01035944701515602</v>
+        <v>1.082429086212884e-05</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001220266560160551</v>
+        <v>1.092429716811009e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0138587439777292</v>
+        <v>1.102464289717576e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.005195362367412244</v>
+        <v>1.112532812369113e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002320158899750474</v>
+        <v>1.122635292306298e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.003981994888405162</v>
+        <v>1.225529485074521e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.005689088093101541</v>
+        <v>1.331828470799304e-05</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.008561731002004339</v>
+        <v>1.441541406303784e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.006354592921697326</v>
+        <v>1.554678368868729e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.007655814433876771</v>
+        <v>1.671250284946426e-05</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.002439346344146435</v>
+        <v>1.994408753807216e-05</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.01572938776924978</v>
+        <v>2.341656539173473e-05</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.001427437441564021</v>
+        <v>2.414023673472684e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.01286382355840857</v>
+        <v>2.487367370003368e-05</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.006011264274434756</v>
+        <v>2.561690029429445e-05</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.02250137476208846</v>
+        <v>2.670284700834493e-05</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.004736921551574286</v>
+        <v>2.780918472444458e-05</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.006063366698279154</v>
+        <v>3.218970718333149e-05</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.009775877340540577</v>
+        <v>3.686795831483911e-05</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.00386181111463053</v>
+        <v>4.184839263150793e-05</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.01515424153159594</v>
+        <v>5.435467378171653e-05</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.003804419515913022</v>
+        <v>6.852328529351308e-05</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.01602557531030504</v>
+        <v>8.441263152605094e-05</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0.003674421419239605</v>
+        <v>0.000102087249855729</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.003033521045204969</v>
+        <v>0.0001390231734514085</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.004130097961569095</v>
+        <v>0.0001824760205898428</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0.01666761153467687</v>
+        <v>0.0002328873737806251</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.007398453728264982</v>
+        <v>0.0003344580138044401</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.003117357491404293</v>
+        <v>0.0004589257095376071</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0.005529157275111079</v>
+        <v>0.0006083940202082371</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.004663208931012289</v>
+        <v>0.0008838671998731798</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.006175646622920443</v>
+        <v>0.0009312277124164014</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0001445466207084537</v>
+        <v>0.0009801309012329332</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.008017225231617908</v>
+        <v>0.001082235012830786</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.001207740081966862</v>
+        <v>0.001094680253354929</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0.00227798416787959</v>
+        <v>0.001095603032182978</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.006006322349813027</v>
+        <v>0.001096526293619934</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.004012399791419017</v>
+        <v>0.001098198375997446</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.004063435407784236</v>
+        <v>0.001099872039894397</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.005568481202368919</v>
+        <v>0.001101547285836372</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.01153736148817743</v>
+        <v>0.001118386869365631</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.004266452711056302</v>
+        <v>0.001135385234504536</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0.007734889881634062</v>
+        <v>0.001152542896775048</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.0194354433704525</v>
+        <v>0.001169860369564988</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.002019617387197923</v>
+        <v>0.001351929042907144</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.006361720893930852</v>
+        <v>0.001550508760109361</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.01775353258409967</v>
+        <v>0.001766040532291804</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0.003683486777314145</v>
+        <v>0.001998984498408964</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.001796581870688924</v>
+        <v>0.003020631989375796</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.007951527948357937</v>
+        <v>0.004315035166446832</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.008962818132365531</v>
+        <v>0.005900910734125768</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.01985160757185699</v>
+        <v>0.007780459233528094</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.02052560021796821</v>
+        <v>0.01038694182166607</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.002812950867588088</v>
+        <v>0.01338806978863534</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.01586345086801079</v>
+        <v>0.01595230442099238</v>
       </c>
     </row>
     <row r="9">
@@ -2381,220 +2381,220 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02549822323720781</v>
+        <v>1.009267909577752e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01092709770787214</v>
+        <v>2.018536338409323e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0005046591651931562</v>
+        <v>4.037074413730788e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003192124445285261</v>
+        <v>6.055614566068232e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01004276571014142</v>
+        <v>8.074156795422226e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00524252799937212</v>
+        <v>2.825969332499726e-13</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005639264512970065</v>
+        <v>4.844543755685584e-13</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.001310109039683461</v>
+        <v>6.863138949156621e-13</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.005097531199737544</v>
+        <v>8.8817549129698e-13</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01617327807324766</v>
+        <v>2.90690569324453e-12</v>
       </c>
       <c r="M9" t="n">
-        <v>0.008432887885473805</v>
+        <v>4.925843604876988e-12</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01118141214924777</v>
+        <v>6.944989231888345e-12</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01397746097408842</v>
+        <v>8.964342579972641e-12</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.004076228811809191</v>
+        <v>2.916930197250001e-11</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01147733576904109</v>
+        <v>4.939503973536946e-11</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.00239749609922973</v>
+        <v>6.964156156176945e-11</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.002607006222963518</v>
+        <v>8.990887314440266e-11</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.0254318776983823</v>
+        <v>2.937266776198949e-10</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002146585831152819</v>
+        <v>4.996297160247919e-10</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.0002455877024125844</v>
+        <v>7.076236730687185e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>0.008837214879213672</v>
+        <v>9.177142285977968e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>0.009085110247418803</v>
+        <v>1.129907057728759e-09</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.004574774893995413</v>
+        <v>3.3687055872923e-09</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.01140485692934089</v>
+        <v>5.823940934146753e-09</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.004612012889087771</v>
+        <v>8.501218254158949e-09</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.03121147650681989</v>
+        <v>1.140610619924367e-08</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.009727343043199218</v>
+        <v>1.454414134159083e-08</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.01061014510141315</v>
+        <v>2.395356109576207e-08</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0002555185202051462</v>
+        <v>3.511411521506225e-08</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.0115948427145547</v>
+        <v>3.756510001055879e-08</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.01058809185273875</v>
+        <v>4.009087319427398e-08</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.01119267107704392</v>
+        <v>4.2692222708081e-08</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.008444492521300676</v>
+        <v>4.661062677959792e-08</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.01782650306718703</v>
+        <v>5.069024814886702e-08</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0.007183391209804768</v>
+        <v>6.748704144376164e-08</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.01375928784816415</v>
+        <v>8.674702604160796e-08</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.004549030891749198</v>
+        <v>1.085972486026447e-07</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.009752478115299786</v>
+        <v>1.687792757367872e-07</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.007550339637570811</v>
+        <v>2.446428827309618e-07</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0.009239726430251735</v>
+        <v>3.377232730462642e-07</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.00440544814767402</v>
+        <v>4.495940260987929e-07</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.00929195401961622</v>
+        <v>7.064553652019171e-07</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0006791524276344534</v>
+        <v>1.040599783363947e-06</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0.0003276981890862705</v>
+        <v>1.462448327993758e-06</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.003360288910115422</v>
+        <v>2.399048599755633e-06</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.009576394559381416</v>
+        <v>3.667729465716695e-06</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.0008737175000522543</v>
+        <v>5.327046096605444e-06</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.003828623685461089</v>
+        <v>8.689776345925593e-06</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0.008184886489237467</v>
+        <v>9.30502204814517e-06</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.007686632558885097</v>
+        <v>9.949727509055722e-06</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.001999727324590225</v>
+        <v>1.13153142560622e-05</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.001559025393297278</v>
+        <v>1.148460263194885e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.001867495746500693</v>
+        <v>1.14971578853378e-05</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.006462716621602528</v>
+        <v>1.150972271135781e-05</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.002112462711922501</v>
+        <v>1.153248329848262e-05</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.003985548761997019</v>
+        <v>1.155527527212217e-05</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.009348483528762027</v>
+        <v>1.157809865765392e-05</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.002691947574983302</v>
+        <v>1.180806566722894e-05</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.00113685979280029</v>
+        <v>1.204120188702352e-05</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.009010690707810807</v>
+        <v>1.227753271727171e-05</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.006194964716085345</v>
+        <v>1.251708367722798e-05</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.01085613420357783</v>
+        <v>1.509529452467617e-05</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0.003658445711254332</v>
+        <v>1.802393523672322e-05</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0.01484222017407526</v>
+        <v>2.132930498151284e-05</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.00674374722414943</v>
+        <v>2.503804993883945e-05</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.02928237246622444</v>
+        <v>4.274012541887584e-05</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0.009846733086956633</v>
+        <v>6.782735347078746e-05</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.006615959449886132</v>
+        <v>0.0001017613116771025</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.0130304661521612</v>
+        <v>0.0001460912769816349</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.004550264633518323</v>
+        <v>0.0002143974684744662</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.02622031630717728</v>
+        <v>0.0003018357347013674</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.00966612043373674</v>
+        <v>0.0003834355236327681</v>
       </c>
     </row>
     <row r="10">
@@ -2605,220 +2605,220 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005416741005638362</v>
+        <v>4.074854121473941e-24</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002096941019794008</v>
+        <v>1.22245644743484e-23</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006874880526262345</v>
+        <v>3.667370368377728e-23</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01203195132118896</v>
+        <v>7.742228689365616e-23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01384128455679612</v>
+        <v>1.34470330983401e-22</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004791611884482116</v>
+        <v>1.601424792747851e-21</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.00505341268783925</v>
+        <v>4.698343944040945e-21</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.03160148339505622</v>
+        <v>9.425244630154954e-21</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001832062789011127</v>
+        <v>1.57821437305724e-20</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03075708949366212</v>
+        <v>1.690047610209694e-19</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.01877719459116182</v>
+        <v>4.852457873552906e-19</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.01393737507432907</v>
+        <v>9.645221026268753e-19</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.01283865598106397</v>
+        <v>1.606850586975925e-18</v>
       </c>
       <c r="P10" t="n">
-        <v>0.008312076608870731</v>
+        <v>1.700171849481485e-17</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.003459438410062392</v>
+        <v>4.872037329398538e-17</v>
       </c>
       <c r="R10" t="n">
-        <v>0.006757792407858718</v>
+        <v>9.677969923366694e-17</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.0038951996816283</v>
+        <v>1.611965830310061e-16</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0119647170257602</v>
+        <v>1.708747934144871e-15</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00759646525084847</v>
+        <v>4.910648927074856e-15</v>
       </c>
       <c r="V10" t="n">
-        <v>0.006589578975649809</v>
+        <v>9.783827104824986e-15</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.01126368031937466</v>
+        <v>1.634523487173699e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.01071043489851771</v>
+        <v>2.461184933536689e-14</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001879699404395531</v>
+        <v>2.048171042146546e-13</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.003385823311315905</v>
+        <v>5.744007023702378e-13</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.009214656268851618</v>
+        <v>1.150743844625801e-12</v>
       </c>
       <c r="AB10" t="n">
-        <v>-6.647806164442995e-05</v>
+        <v>1.951470381877903e-12</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.002144344220728604</v>
+        <v>2.994444915120299e-12</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.005536779953351689</v>
+        <v>7.029259441591582e-12</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.002323468527620038</v>
+        <v>1.320416467010835e-11</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.01380880362353189</v>
+        <v>1.47266051798699e-11</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.007965535951415973</v>
+        <v>1.635141362360381e-11</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.007253757540237378</v>
+        <v>1.808145196639641e-11</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.01169610556041414</v>
+        <v>2.085141790198552e-11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.008375402029766159</v>
+        <v>2.385971217587396e-11</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.01304048955436546</v>
+        <v>3.71966475270557e-11</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.004928010143751124</v>
+        <v>5.44826138500347e-11</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.001829926897120945</v>
+        <v>7.621752235262571e-11</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.002963463086471166</v>
+        <v>1.451063767625339e-10</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.0068740822055016</v>
+        <v>2.463472392093277e-10</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.01060305603560014</v>
+        <v>3.867660827145074e-10</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0.01326788031068452</v>
+        <v>5.736892343878572e-10</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.003656136118803152</v>
+        <v>1.059831349119159e-09</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.01564215510536923</v>
+        <v>1.776350325524867e-09</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.00820525456418148</v>
+        <v>2.779151329566232e-09</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0.01879391305483865</v>
+        <v>5.28634810454724e-09</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.002564333311384042</v>
+        <v>9.103125392358617e-09</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.007431037468541463</v>
+        <v>1.460431921126174e-08</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.004945277446951194</v>
+        <v>2.700103826385982e-08</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.0009210733400522945</v>
+        <v>2.942092206655442e-08</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.002402605526830554</v>
+        <v>3.199663475420463e-08</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.002201143900058332</v>
+        <v>3.753583717479759e-08</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.005338469017569225</v>
+        <v>3.823454847803396e-08</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.001307392378230434</v>
+        <v>3.82863811302239e-08</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0.01638695246072122</v>
+        <v>3.833826609490503e-08</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.001097615846227398</v>
+        <v>3.843227421585386e-08</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.001423817691191082</v>
+        <v>3.852645393472239e-08</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.01609205594907787</v>
+        <v>3.862080546242881e-08</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0.00773668819786798</v>
+        <v>3.957381608000127e-08</v>
       </c>
       <c r="BI10" t="n">
-        <v>-0.007279359466251919</v>
+        <v>4.054424118253345e-08</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.02347078217108881</v>
+        <v>4.153229350377902e-08</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.01552254104995867</v>
+        <v>4.25381877303455e-08</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.02292269218749845</v>
+        <v>5.362663287929789e-08</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0.001222332467681319</v>
+        <v>6.674598653238858e-08</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.01051336787260468</v>
+        <v>8.213453800167115e-08</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.002384642281804736</v>
+        <v>1.000448756621747e-07</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.02348136474591229</v>
+        <v>1.928191819972747e-07</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.001081987479249033</v>
+        <v>3.393650310392261e-07</v>
       </c>
       <c r="BR10" t="n">
-        <v>-0.0131583486119333</v>
+        <v>5.578964019052473e-07</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0108303258827304</v>
+        <v>8.692170554757283e-07</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0.0004037323406844579</v>
+        <v>1.394064657235253e-06</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.007129773682419558</v>
+        <v>2.127449801915072e-06</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.01522847198745765</v>
+        <v>2.862386496620394e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2880,169 +2880,169 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.008584641237428437</v>
+        <v>2.257808510886843e-21</v>
       </c>
       <c r="U11" t="n">
-        <v>0.002062971008138031</v>
+        <v>1.351938043071984e-20</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.005004502532608146</v>
+        <v>3.889841620151293e-20</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.002693594940326424</v>
+        <v>8.443376365593486e-20</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02401283577358651</v>
+        <v>1.560652835986888e-19</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01094640805836146</v>
+        <v>3.658182917954122e-18</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.00988075364444148</v>
+        <v>1.672973857979808e-17</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.006189233580831116</v>
+        <v>4.622172811364835e-17</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.008635763232208835</v>
+        <v>9.952100807772865e-17</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.01222688649793462</v>
+        <v>1.845492368342321e-16</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0003513078902274491</v>
+        <v>6.238864296200601e-16</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.005174705143544213</v>
+        <v>1.514833092401469e-15</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.002063950534892627</v>
+        <v>1.764153797743467e-15</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.01027237829512118</v>
+        <v>2.041044803466776e-15</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.01890202451110784</v>
+        <v>2.347246365005143e-15</v>
       </c>
       <c r="AI11" t="n">
-        <v>-9.764491903434102e-05</v>
+        <v>2.873808302829531e-15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.001500810247630427</v>
+        <v>3.475019693682291e-15</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.01196017540715422</v>
+        <v>6.390901716408257e-15</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.01099052161822243</v>
+        <v>1.072860566829855e-14</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.004408448525143808</v>
+        <v>1.685414637279198e-14</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0.01063453725307037</v>
+        <v>3.961719089747739e-14</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.007639629488820676</v>
+        <v>7.940252102733681e-14</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.01053873032328537</v>
+        <v>1.427295960434022e-13</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.001485319659036783</v>
+        <v>2.372459127340894e-13</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.02132258945693906</v>
+        <v>5.213185464979152e-13</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.001996097839976156</v>
+        <v>1.001712286324897e-12</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0.00897054391535821</v>
+        <v>1.754499181357272e-12</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.004065258386403565</v>
+        <v>3.904547776360169e-12</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.008079188874368785</v>
+        <v>7.618137879199454e-12</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0.01017972001259558</v>
+        <v>1.356059818353786e-11</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.001586262717721319</v>
+        <v>2.85874364547042e-11</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.01957711823838574</v>
+        <v>3.172157847520807e-11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0.01869392190026944</v>
+        <v>3.511353843793854e-11</v>
       </c>
       <c r="BA11" t="n">
-        <v>-0.005011353450945451</v>
+        <v>4.252664166143782e-11</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.001189883399094776</v>
+        <v>4.347866367918826e-11</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0.01852844384424434</v>
+        <v>4.354930595897112e-11</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.008987823442556664</v>
+        <v>4.362003771025383e-11</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.004596087501542831</v>
+        <v>4.374822329801193e-11</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.01971574583589433</v>
+        <v>4.387670250662905e-11</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.01194762765188969</v>
+        <v>4.400547582470858e-11</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.003908724748262773</v>
+        <v>4.530949137310635e-11</v>
       </c>
       <c r="BI11" t="n">
-        <v>-0.01312108040743753</v>
+        <v>4.664346058042082e-11</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.000474020169705814</v>
+        <v>4.800787947642085e-11</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.003666683137490274</v>
+        <v>4.94032507098949e-11</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.01002147439140112</v>
+        <v>6.517430704749656e-11</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0.005074186339427826</v>
+        <v>8.463427587737604e-11</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.01047902432319895</v>
+        <v>1.083776762359108e-10</v>
       </c>
       <c r="BO11" t="n">
-        <v>-0.003644190827301354</v>
+        <v>1.370583306718945e-10</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.004696229995358648</v>
+        <v>2.988435631200901e-10</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0.004049206801545177</v>
+        <v>5.835339594512989e-10</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.006183417088261477</v>
+        <v>1.049598734521167e-09</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.007114136488902221</v>
+        <v>1.771227108645156e-09</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.009400049416285519</v>
+        <v>3.097993872332426e-09</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0007676055133459878</v>
+        <v>5.108261880979031e-09</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.01005137720524981</v>
+        <v>7.256424566094382e-09</v>
       </c>
     </row>
     <row r="12">
@@ -3143,130 +3143,130 @@
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.002317751582737345</v>
+        <v>7.669298398528332e-21</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.009484152745150631</v>
+        <v>2.423240847357925e-20</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.005621159114834017</v>
+        <v>5.521612379718966e-20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.002699438348131839</v>
+        <v>9.274732398233794e-20</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.001267111575876358</v>
+        <v>2.953642545055283e-19</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.007040787438060581</v>
+        <v>6.452955329225849e-19</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.004707497017528621</v>
+        <v>1.204629139921046e-18</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.009867517020368279</v>
+        <v>3.670925007418045e-18</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.005410608922082545</v>
+        <v>8.838565552069027e-18</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0.003594746925864378</v>
+        <v>1.83442848173752e-17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.01813906140921457</v>
+        <v>3.434150097825561e-17</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.002937689125891096</v>
+        <v>9.070166517640211e-17</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.01448740051176028</v>
+        <v>2.007376214422712e-16</v>
       </c>
       <c r="AT12" t="n">
-        <v>-0.01314033014613027</v>
+        <v>3.948090838052928e-16</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0.01151862601068894</v>
+        <v>1.034015454477643e-15</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.009868392356530633</v>
+        <v>2.292714922219918e-15</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.006854329041958134</v>
+        <v>4.538424936523599e-15</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.01172629333193532</v>
+        <v>1.095077927890147e-14</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.005108138473744278</v>
+        <v>1.238032553572062e-14</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0.005915192625264831</v>
+        <v>1.395453929457022e-14</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.009283712089909656</v>
+        <v>1.745323290999028e-14</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.02027938216054273</v>
+        <v>1.791080195126119e-14</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.001320878206662408</v>
+        <v>1.794476364796384e-14</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0.005584882995620304</v>
+        <v>1.797877730460446e-14</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.02581913416388758</v>
+        <v>1.804043416777484e-14</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.005665843236583879</v>
+        <v>1.810226162808051e-14</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.001275115255508891</v>
+        <v>1.816426004684908e-14</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0.01904081586833879</v>
+        <v>1.879372567323004e-14</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.02066514122261259</v>
+        <v>1.944068970633501e-14</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.005397486785958715</v>
+        <v>2.010552145542234e-14</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.001636992305311538</v>
+        <v>2.078859677023962e-14</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.003448066683393664</v>
+        <v>2.871034776761877e-14</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.004685523662568392</v>
+        <v>3.891320748692849e-14</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0.01174990018463382</v>
+        <v>5.187167847565808e-14</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.003359930627028232</v>
+        <v>6.812700177688576e-14</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.006514198262909388</v>
+        <v>1.68275039516382e-13</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0.0176336848967234</v>
+        <v>3.645981141013618e-13</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0.005669465361616916</v>
+        <v>7.172610399472605e-13</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.006221229122613887</v>
+        <v>1.309893640776061e-12</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.008482907461131997</v>
+        <v>2.496405467664903e-12</v>
       </c>
       <c r="BU12" t="n">
-        <v>-0.006312916236292519</v>
+        <v>4.439878818990227e-12</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0.00474073895496352</v>
+        <v>6.647028085510547e-12</v>
       </c>
     </row>
     <row r="13">
@@ -3436,61 +3436,61 @@
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.00143866799143698</v>
+        <v>5.5365255169918e-21</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.001480134244007536</v>
+        <v>1.557680842606138e-20</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.008791042000514622</v>
+        <v>2.565322427923695e-20</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.004204519885077786</v>
+        <v>3.576586543163266e-20</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0.005134581557308457</v>
+        <v>1.38904822901451e-19</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0.005146236414734522</v>
+        <v>2.457695321763902e-19</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.01522499400815793</v>
+        <v>3.564550853560328e-19</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0.01308907155832494</v>
+        <v>4.710586966710138e-19</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.001177103466102704</v>
+        <v>1.855721156388372e-18</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.006521219884262453</v>
+        <v>3.754023117591667e-18</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.001265149666698501</v>
+        <v>6.297525207408107e-18</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.003156333427497831</v>
+        <v>9.642107789140003e-18</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.002930232115274759</v>
+        <v>3.250497759413129e-17</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0.02011325217394151</v>
+        <v>8.283068645037903e-17</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.005981663487149457</v>
+        <v>1.822844478693601e-16</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.00164187818406364</v>
+        <v>3.637673757830635e-16</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.00571991535746755</v>
+        <v>7.596884406292455e-16</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0.01350948766024344</v>
+        <v>1.459812449454787e-15</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.007459281511018912</v>
+        <v>2.303313036593166e-15</v>
       </c>
     </row>
   </sheetData>

--- a/data/CED_focus_Sim.xlsx
+++ b/data/CED_focus_Sim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,7 @@
         <v>0.5800000000000005</v>
       </c>
       <c r="B2" t="n">
-        <v>0.516364638233713</v>
+        <v>0.1071396047968705</v>
       </c>
       <c r="C2" t="n">
         <v>0.1852054016283594</v>
@@ -509,28 +509,28 @@
         <v>0.1188084591456268</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08809555203574457</v>
+        <v>0.08809555203574458</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07040295059639676</v>
+        <v>0.07040295059639677</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05862341213308733</v>
+        <v>0.05862341213308732</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05001112374497394</v>
+        <v>0.05001112374497393</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04335183426440866</v>
+        <v>0.04335183426440865</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03796197208606431</v>
+        <v>0.0379619720860643</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03373034543788731</v>
+        <v>0.0337303454378873</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03025997510907662</v>
+        <v>0.03025997510907661</v>
       </c>
     </row>
     <row r="3">
@@ -538,19 +538,19 @@
         <v>0.730754208939027</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1948289622677543</v>
+        <v>0.1113559369394892</v>
       </c>
       <c r="C3" t="n">
         <v>0.1719222017804333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1256810218991107</v>
+        <v>0.1256810218991106</v>
       </c>
       <c r="E3" t="n">
         <v>0.09960695979092422</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08364051667504424</v>
+        <v>0.08364051667504423</v>
       </c>
       <c r="G3" t="n">
         <v>0.07280137061125416</v>
@@ -559,13 +559,13 @@
         <v>0.0648029996535453</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05854292798918889</v>
+        <v>0.05854292798918887</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05339025357248971</v>
+        <v>0.0533902535724897</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04928503536311957</v>
+        <v>0.04928503536311958</v>
       </c>
       <c r="L3" t="n">
         <v>0.04585227695670725</v>
@@ -576,37 +576,37 @@
         <v>0.8365047507782974</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1654140272599602</v>
+        <v>0.1070322863517678</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1815566265349877</v>
+        <v>0.05037400129946318</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1588195468507153</v>
+        <v>0.04034267433750023</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1415861916334119</v>
+        <v>0.02993013855789063</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1288777284260038</v>
+        <v>0.02241195159471512</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1191026551187092</v>
+        <v>0.01715398658423914</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1112956813348578</v>
+        <v>0.01340206863336163</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1048396865243938</v>
+        <v>0.01062766237460378</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0993236360226734</v>
+        <v>0.008487255435474532</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09468800085220215</v>
+        <v>0.006936027638838702</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09066288341056628</v>
+        <v>0.005755384950720658</v>
       </c>
     </row>
     <row r="5">
@@ -614,37 +614,37 @@
         <v>0.9206926101415563</v>
       </c>
       <c r="B5" t="n">
-        <v>0.09563389520078631</v>
+        <v>0.09989334709280633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1467785323498897</v>
+        <v>0.1815566265349877</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1571213796190668</v>
+        <v>0.1588195468507152</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1564833182989991</v>
+        <v>0.1415861916334119</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1523320270411103</v>
+        <v>0.1288777284260038</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1474394271713618</v>
+        <v>0.1191026551187092</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1426169329467474</v>
+        <v>0.1112956813348578</v>
       </c>
       <c r="I5" t="n">
-        <v>0.138076134900202</v>
+        <v>0.1048396865243938</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1338835283660403</v>
+        <v>0.09932363602267343</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1300589583029183</v>
+        <v>0.09468800085220212</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1265718613580846</v>
+        <v>0.09066288341056626</v>
       </c>
     </row>
     <row r="6">
@@ -652,37 +652,37 @@
         <v>0.9917860490724849</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02597681856347882</v>
+        <v>0.09192609475738937</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04882453772034091</v>
+        <v>0.05471172210786596</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07154313933477727</v>
+        <v>0.05480193634630503</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0906809484558961</v>
+        <v>0.0479299956592444</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1038574330262574</v>
+        <v>0.04095741739765096</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1119630750039944</v>
+        <v>0.03506502741983735</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1166898137840684</v>
+        <v>0.03027907282691343</v>
       </c>
       <c r="I6" t="n">
-        <v>0.119277649641478</v>
+        <v>0.02635594165074283</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1204921241725229</v>
+        <v>0.02308274178829818</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1205587238588858</v>
+        <v>0.02042607471318732</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1199035434928357</v>
+        <v>0.01821250424762853</v>
       </c>
     </row>
     <row r="7">
@@ -690,37 +690,37 @@
         <v>1.053929943842642</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001770978033502794</v>
+        <v>0.08396636681591547</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003945786430895459</v>
+        <v>0.03684531940073012</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007441287791339937</v>
+        <v>0.04602467186386544</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01406150594930414</v>
+        <v>0.04460434847603904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02381589468146702</v>
+        <v>0.04027970899917106</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0351409462438979</v>
+        <v>0.03564243802926764</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04681851887457859</v>
+        <v>0.03142962927101064</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05816800549055734</v>
+        <v>0.02774225077136945</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06873034891228375</v>
+        <v>0.02454838852592957</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07829176175326853</v>
+        <v>0.02183275489967899</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08686809729590131</v>
+        <v>0.01950678618428278</v>
       </c>
     </row>
     <row r="8">
@@ -728,37 +728,37 @@
         <v>1.160000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>1.068044080460094e-05</v>
+        <v>0.06933649909613061</v>
       </c>
       <c r="C8" t="n">
-        <v>5.064012154205384e-05</v>
+        <v>0.1467785323498897</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001090788310239986</v>
+        <v>0.1571213796190667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002615328373550179</v>
+        <v>0.1564833182989991</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006395953470087299</v>
+        <v>0.1523320270411104</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001387355455658469</v>
+        <v>0.1474394271713618</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002600385853743296</v>
+        <v>0.1426169329467474</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004375792289306677</v>
+        <v>0.138076134900202</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006819231835448108</v>
+        <v>0.1338835283660403</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00989333869472569</v>
+        <v>0.1300589583029183</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01351222839896367</v>
+        <v>0.1265718613580847</v>
       </c>
     </row>
     <row r="9">
@@ -766,37 +766,37 @@
         <v>1.206448617370105</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.0628739154497563</v>
       </c>
       <c r="C9" t="n">
-        <v>1.56627822327974e-07</v>
+        <v>0.03740045984109313</v>
       </c>
       <c r="D9" t="n">
-        <v>3.678310171543006e-07</v>
+        <v>0.04718936413994537</v>
       </c>
       <c r="E9" t="n">
-        <v>7.977225759683787e-07</v>
+        <v>0.04736534973288176</v>
       </c>
       <c r="F9" t="n">
-        <v>2.097325947235478e-06</v>
+        <v>0.04494856684001362</v>
       </c>
       <c r="G9" t="n">
-        <v>5.645419377218531e-06</v>
+        <v>0.04203703550331708</v>
       </c>
       <c r="H9" t="n">
-        <v>1.370009252882198e-05</v>
+        <v>0.03919190379166596</v>
       </c>
       <c r="I9" t="n">
-        <v>2.940230086841739e-05</v>
+        <v>0.03657171566714412</v>
       </c>
       <c r="J9" t="n">
-        <v>5.707366126727501e-05</v>
+        <v>0.03420708340623893</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001031625366383992</v>
+        <v>0.03210213638693168</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001760605710882128</v>
+        <v>0.03021824062596826</v>
       </c>
     </row>
     <row r="10">
@@ -804,37 +804,37 @@
         <v>1.249572120218493</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.05699528915956404</v>
       </c>
       <c r="C10" t="n">
-        <v>1.633617096323193e-10</v>
+        <v>0.02391680226584338</v>
       </c>
       <c r="D10" t="n">
-        <v>4.807139491488893e-10</v>
+        <v>0.03906697411536666</v>
       </c>
       <c r="E10" t="n">
-        <v>8.672619871245527e-10</v>
+        <v>0.04445886978949537</v>
       </c>
       <c r="F10" t="n">
-        <v>1.572821698150104e-09</v>
+        <v>0.04534501442132165</v>
       </c>
       <c r="G10" t="n">
-        <v>3.545209127115745e-09</v>
+        <v>0.04430704246011268</v>
       </c>
       <c r="H10" t="n">
-        <v>9.128348259972356e-09</v>
+        <v>0.04247320116418091</v>
       </c>
       <c r="I10" t="n">
-        <v>2.268475236769136e-08</v>
+        <v>0.04036794277620456</v>
       </c>
       <c r="J10" t="n">
-        <v>5.252911082665839e-08</v>
+        <v>0.03823599176330643</v>
       </c>
       <c r="K10" t="n">
-        <v>1.143546519294176e-07</v>
+        <v>0.0361433379518526</v>
       </c>
       <c r="L10" t="n">
-        <v>2.289973273808414e-07</v>
+        <v>0.03415946649814075</v>
       </c>
     </row>
     <row r="11">
@@ -842,37 +842,37 @@
         <v>1.327868521361866</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.04686818075198427</v>
       </c>
       <c r="C11" t="n">
-        <v>5.828677730110776e-14</v>
+        <v>0.02734001431021396</v>
       </c>
       <c r="D11" t="n">
-        <v>2.364712443802088e-13</v>
+        <v>0.05763013901646195</v>
       </c>
       <c r="E11" t="n">
-        <v>4.680510397727525e-13</v>
+        <v>0.07435522725634054</v>
       </c>
       <c r="F11" t="n">
-        <v>7.256659151499103e-13</v>
+        <v>0.08188423735534543</v>
       </c>
       <c r="G11" t="n">
-        <v>1.064977168482617e-12</v>
+        <v>0.08431448784180043</v>
       </c>
       <c r="H11" t="n">
-        <v>1.725093039432197e-12</v>
+        <v>0.08391787641342147</v>
       </c>
       <c r="I11" t="n">
-        <v>3.221420449163589e-12</v>
+        <v>0.08203427396189895</v>
       </c>
       <c r="J11" t="n">
-        <v>7.022536857979506e-12</v>
+        <v>0.07942351523416601</v>
       </c>
       <c r="K11" t="n">
-        <v>1.683416576536449e-11</v>
+        <v>0.07632227602901497</v>
       </c>
       <c r="L11" t="n">
-        <v>3.847947422748042e-11</v>
+        <v>0.07306028401880937</v>
       </c>
     </row>
     <row r="12">
@@ -880,37 +880,37 @@
         <v>1.461508417878054</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.03195132981715901</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05037400129946318</v>
+        <v>0.04882453772034091</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04034267433750021</v>
+        <v>0.07154313933477724</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02993013855789064</v>
+        <v>0.09068094845589605</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02241195159471512</v>
+        <v>0.1038574330262573</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01715398658423914</v>
+        <v>0.1119630750039944</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01340206863336162</v>
+        <v>0.1166898137840683</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01062766237460377</v>
+        <v>0.119277649641478</v>
       </c>
       <c r="J12" t="n">
-        <v>0.008487255435474531</v>
+        <v>0.1204921241725229</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006936027638838701</v>
+        <v>0.1205587238588858</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005755384950720657</v>
+        <v>0.1199035434928357</v>
       </c>
     </row>
     <row r="13">
@@ -918,37 +918,37 @@
         <v>1.491343322581777</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.02909565899033385</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05471172210786598</v>
+        <v>0.01048631884329868</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05480193634630503</v>
+        <v>0.01597092364748698</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04792999565924439</v>
+        <v>0.01823832689027475</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04095741739765096</v>
+        <v>0.01889775679005854</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03506502741983736</v>
+        <v>0.01887050623321372</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03027907282691344</v>
+        <v>0.01857726293023377</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02635594165074284</v>
+        <v>0.018179213001272</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02308274178829818</v>
+        <v>0.01774774168865982</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02042607471318732</v>
+        <v>0.01729420825874229</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01821250424762854</v>
+        <v>0.01685457826387705</v>
       </c>
     </row>
     <row r="14">
@@ -956,37 +956,37 @@
         <v>1.520030008641161</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.02651926460953703</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03740045984109312</v>
+        <v>0.00645747920168191</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04718936413994537</v>
+        <v>0.01303304756321103</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04736534973288174</v>
+        <v>0.01725033079419182</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04494856684001362</v>
+        <v>0.01954404727948071</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04203703550331709</v>
+        <v>0.02070317881260215</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03919190379166595</v>
+        <v>0.02122850068669103</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03657171566714412</v>
+        <v>0.0213907214684187</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03420708340623891</v>
+        <v>0.0213450288174725</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0321021363869317</v>
+        <v>0.02112076014195773</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03021824062596827</v>
+        <v>0.02080911660898803</v>
       </c>
     </row>
     <row r="15">
@@ -994,37 +994,37 @@
         <v>1.574362217625047</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.02209030444371321</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01048631884329868</v>
+        <v>0.007204967799003123</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01597092364748699</v>
+        <v>0.01945878435641016</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01823832689027474</v>
+        <v>0.02972848892643152</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01889775679005855</v>
+        <v>0.03710874565870419</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01887050623321371</v>
+        <v>0.04217181762768552</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01857726293023376</v>
+        <v>0.04556554336606419</v>
       </c>
       <c r="I15" t="n">
-        <v>0.018179213001272</v>
+        <v>0.04779476356708464</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01774774168865982</v>
+        <v>0.04921011468963787</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01729420825874229</v>
+        <v>0.04990160913872354</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01685457826387705</v>
+        <v>0.05013511561205473</v>
       </c>
     </row>
     <row r="16">
@@ -1032,37 +1032,37 @@
         <v>1.673009501556595</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.01548738713218903</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0008719519393399187</v>
+        <v>0.004470277595558605</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001573582863100397</v>
+        <v>0.01908727858479555</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001995844224678349</v>
+        <v>0.03967935517977774</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002229323260319632</v>
+        <v>0.05970150028434484</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002354053740753478</v>
+        <v>0.07681432658090356</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002417434496266421</v>
+        <v>0.09055493552844163</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002446548268856541</v>
+        <v>0.1011508578458776</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002458940735864622</v>
+        <v>0.1092125230993369</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002457516487880824</v>
+        <v>0.114980080895196</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002448090773030649</v>
+        <v>0.1190498004814716</v>
       </c>
     </row>
     <row r="17">
@@ -1070,37 +1070,37 @@
         <v>1.841385220283113</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.007893080516753592</v>
       </c>
       <c r="C17" t="n">
-        <v>1.612042551312835e-05</v>
+        <v>0.003945786430895461</v>
       </c>
       <c r="D17" t="n">
-        <v>3.776726990385377e-05</v>
+        <v>0.007441287791339936</v>
       </c>
       <c r="E17" t="n">
-        <v>5.48726396051557e-05</v>
+        <v>0.01406150594930414</v>
       </c>
       <c r="F17" t="n">
-        <v>6.705075970214286e-05</v>
+        <v>0.02381589468146701</v>
       </c>
       <c r="G17" t="n">
-        <v>7.560056309036926e-05</v>
+        <v>0.03514094624389791</v>
       </c>
       <c r="H17" t="n">
-        <v>8.166364642483453e-05</v>
+        <v>0.04681851887457859</v>
       </c>
       <c r="I17" t="n">
-        <v>8.605100666701372e-05</v>
+        <v>0.05816800549055732</v>
       </c>
       <c r="J17" t="n">
-        <v>8.932178904813492e-05</v>
+        <v>0.06873034891228377</v>
       </c>
       <c r="K17" t="n">
-        <v>9.158261488394785e-05</v>
+        <v>0.07829176175326849</v>
       </c>
       <c r="L17" t="n">
-        <v>9.320212564680266e-05</v>
+        <v>0.08686809729590128</v>
       </c>
     </row>
     <row r="18">
@@ -1108,37 +1108,37 @@
         <v>1.86036991139758</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.007276578703651538</v>
       </c>
       <c r="C18" t="n">
-        <v>7.637207325182889e-08</v>
+        <v>0.0008719519393399187</v>
       </c>
       <c r="D18" t="n">
-        <v>2.410529645401366e-07</v>
+        <v>0.001573582863100397</v>
       </c>
       <c r="E18" t="n">
-        <v>4.055853299625131e-07</v>
+        <v>0.00199584422467835</v>
       </c>
       <c r="F18" t="n">
-        <v>5.442605154630463e-07</v>
+        <v>0.002229323260319631</v>
       </c>
       <c r="G18" t="n">
-        <v>6.56191455399563e-07</v>
+        <v>0.002354053740753479</v>
       </c>
       <c r="H18" t="n">
-        <v>7.460717631317848e-07</v>
+        <v>0.00241743449626642</v>
       </c>
       <c r="I18" t="n">
-        <v>8.189320950425516e-07</v>
+        <v>0.00244654826885654</v>
       </c>
       <c r="J18" t="n">
-        <v>8.790351227043139e-07</v>
+        <v>0.002458940735864622</v>
       </c>
       <c r="K18" t="n">
-        <v>9.268649322859217e-07</v>
+        <v>0.002457516487880825</v>
       </c>
       <c r="L18" t="n">
-        <v>9.660140100105834e-07</v>
+        <v>0.002448090773030649</v>
       </c>
     </row>
     <row r="19">
@@ -1146,37 +1146,37 @@
         <v>1.878974844740942</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.006712113805401937</v>
       </c>
       <c r="C19" t="n">
-        <v>1.049677130329652e-10</v>
+        <v>0.0005311693792117944</v>
       </c>
       <c r="D19" t="n">
-        <v>4.556749162690171e-10</v>
+        <v>0.001301490485762642</v>
       </c>
       <c r="E19" t="n">
-        <v>8.941739299806492e-10</v>
+        <v>0.001939556892032081</v>
       </c>
       <c r="F19" t="n">
-        <v>1.32105790780941e-09</v>
+        <v>0.002392145422248646</v>
       </c>
       <c r="G19" t="n">
-        <v>1.704662633568152e-09</v>
+        <v>0.002697401186119726</v>
       </c>
       <c r="H19" t="n">
-        <v>2.040606884698267e-09</v>
+        <v>0.002899496211460622</v>
       </c>
       <c r="I19" t="n">
-        <v>2.333341327429554e-09</v>
+        <v>0.003032367434597534</v>
       </c>
       <c r="J19" t="n">
-        <v>2.589934777178259e-09</v>
+        <v>0.00312097735582262</v>
       </c>
       <c r="K19" t="n">
-        <v>2.808097064116576e-09</v>
+        <v>0.003176285097574942</v>
       </c>
       <c r="L19" t="n">
-        <v>2.996914092414178e-09</v>
+        <v>0.003209833658763013</v>
       </c>
     </row>
     <row r="20">
@@ -1184,37 +1184,37 @@
         <v>1.915117804358885</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.00572063660197129</v>
       </c>
       <c r="C20" t="n">
-        <v>4.617002683411485e-14</v>
+        <v>0.0006051961191863025</v>
       </c>
       <c r="D20" t="n">
-        <v>2.782850186447542e-13</v>
+        <v>0.00201977263550435</v>
       </c>
       <c r="E20" t="n">
-        <v>6.388343372132992e-13</v>
+        <v>0.003511482884441015</v>
       </c>
       <c r="F20" t="n">
-        <v>1.039977904976542e-12</v>
+        <v>0.004821350592302287</v>
       </c>
       <c r="G20" t="n">
-        <v>1.436512569111625e-12</v>
+        <v>0.005873812437784181</v>
       </c>
       <c r="H20" t="n">
-        <v>1.810427882719057e-12</v>
+        <v>0.00669011913982469</v>
       </c>
       <c r="I20" t="n">
-        <v>2.156206209394524e-12</v>
+        <v>0.007316986542881525</v>
       </c>
       <c r="J20" t="n">
-        <v>2.474519614188054e-12</v>
+        <v>0.00780361067886434</v>
       </c>
       <c r="K20" t="n">
-        <v>2.75842295435794e-12</v>
+        <v>0.008174195628499956</v>
       </c>
       <c r="L20" t="n">
-        <v>3.014049274081029e-12</v>
+        <v>0.008457948158253433</v>
       </c>
     </row>
     <row r="21">
@@ -1222,37 +1222,37 @@
         <v>1.98357209814497</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.004181049727467421</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03684531940073011</v>
+        <v>0.0003653058737120094</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04602467186386544</v>
+        <v>0.002066558569491105</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04460434847603906</v>
+        <v>0.005130320916380142</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04027970899917106</v>
+        <v>0.008656592244109015</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03564243802926765</v>
+        <v>0.01207287707485118</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03142962927101063</v>
+        <v>0.0150458609791349</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02774225077136945</v>
+        <v>0.01756904934114881</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02454838852592957</v>
+        <v>0.01981362864936526</v>
       </c>
       <c r="K21" t="n">
-        <v>0.021832754899679</v>
+        <v>0.02176439657366087</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01950678618428279</v>
+        <v>0.02343826797292665</v>
       </c>
     </row>
     <row r="22">
@@ -1260,37 +1260,37 @@
         <v>2.107859887685283</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.002281502019558357</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02391680226584338</v>
+        <v>8.545468327194784e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03906697411536665</v>
+        <v>0.0006837890110842804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04445886978949539</v>
+        <v>0.002538955371959631</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04534501442132167</v>
+        <v>0.006152758950347807</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04430704246011269</v>
+        <v>0.01161454867196528</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04247320116418091</v>
+        <v>0.01867079160698953</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04036794277620456</v>
+        <v>0.02676125007055268</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03823599176330644</v>
+        <v>0.03522885167443873</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03614333795185262</v>
+        <v>0.04371021012097211</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03415946649814074</v>
+        <v>0.05198281983563037</v>
       </c>
     </row>
     <row r="23">
@@ -1298,37 +1298,37 @@
         <v>2.320000000000002</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.0007260295496208387</v>
       </c>
       <c r="C23" t="n">
-        <v>0.006457479201681906</v>
+        <v>5.06401215420538e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01303304756321103</v>
+        <v>0.0001090788310239984</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01725033079419182</v>
+        <v>0.0002615328373550178</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01954404727948071</v>
+        <v>0.0006395953470087301</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02070317881260215</v>
+        <v>0.001387355455658469</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02122850068669104</v>
+        <v>0.002600385853743296</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02139072146841871</v>
+        <v>0.004375792289306677</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0213450288174725</v>
+        <v>0.006819231835448108</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02112076014195774</v>
+        <v>0.009893338694725693</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02080911660898803</v>
+        <v>0.01351222839896367</v>
       </c>
     </row>
     <row r="24">
@@ -1336,37 +1336,37 @@
         <v>2.332020939981656</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.0006775184608594209</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0005311693792117942</v>
+        <v>1.612042551312832e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001301490485762642</v>
+        <v>3.776726990385372e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001939556892032081</v>
+        <v>5.487263960515566e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>0.002392145422248647</v>
+        <v>6.705075970214286e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002697401186119726</v>
+        <v>7.560056309036923e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002899496211460621</v>
+        <v>8.166364642483444e-05</v>
       </c>
       <c r="I24" t="n">
-        <v>0.003032367434597533</v>
+        <v>8.605100666701365e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.003120977355822618</v>
+        <v>8.932178904813492e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00317628509757494</v>
+        <v>9.15826148839478e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.003209833658763012</v>
+        <v>9.320212564680267e-05</v>
       </c>
     </row>
     <row r="25">
@@ -1374,28 +1374,28 @@
         <v>2.343919211960872</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.0006324063843497768</v>
       </c>
       <c r="C25" t="n">
-        <v>1.049961913488801e-05</v>
+        <v>1.0499619134888e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>3.434757516378947e-05</v>
+        <v>3.434757516378943e-05</v>
       </c>
       <c r="E25" t="n">
-        <v>5.936039910407555e-05</v>
+        <v>5.936039910407549e-05</v>
       </c>
       <c r="F25" t="n">
         <v>8.068181863706869e-05</v>
       </c>
       <c r="G25" t="n">
-        <v>9.761649280252913e-05</v>
+        <v>9.761649280252898e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0001107513648317315</v>
+        <v>0.0001107513648317314</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001209222499296782</v>
+        <v>0.0001209222499296781</v>
       </c>
       <c r="J25" t="n">
         <v>0.0001288690312093513</v>
@@ -1404,7 +1404,7 @@
         <v>0.0001347814171378963</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001392676913980912</v>
+        <v>0.000139267691398091</v>
       </c>
     </row>
     <row r="26">
@@ -1412,37 +1412,37 @@
         <v>2.367359959112064</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.0005513955020720793</v>
       </c>
       <c r="C26" t="n">
-        <v>5.512271409007644e-08</v>
+        <v>1.288217828086514e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>2.496655885672714e-07</v>
+        <v>5.84279050961219e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>5.057327819048938e-07</v>
+        <v>0.0001191680194363477</v>
       </c>
       <c r="F26" t="n">
-        <v>7.60069221616215e-07</v>
+        <v>0.0001818058035901952</v>
       </c>
       <c r="G26" t="n">
-        <v>9.878726455072083e-07</v>
+        <v>0.000239031429167577</v>
       </c>
       <c r="H26" t="n">
-        <v>1.183755796668103e-06</v>
+        <v>0.000288565124352684</v>
       </c>
       <c r="I26" t="n">
-        <v>1.349872904053915e-06</v>
+        <v>0.0003304820587564417</v>
       </c>
       <c r="J26" t="n">
-        <v>1.490616797212143e-06</v>
+        <v>0.0003656821141409023</v>
       </c>
       <c r="K26" t="n">
-        <v>1.60619988575038e-06</v>
+        <v>0.0003942535301849126</v>
       </c>
       <c r="L26" t="n">
-        <v>1.702333749846501e-06</v>
+        <v>0.0004176136317986076</v>
       </c>
     </row>
     <row r="27">
@@ -1450,37 +1450,37 @@
         <v>2.41289723474021</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.0004203502983769394</v>
       </c>
       <c r="C27" t="n">
-        <v>8.551738086106651e-11</v>
+        <v>7.9438316783165e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>5.457856553851192e-10</v>
+        <v>6.756437074062996e-05</v>
       </c>
       <c r="E27" t="n">
-        <v>1.302340313644889e-09</v>
+        <v>0.000203736133430194</v>
       </c>
       <c r="F27" t="n">
-        <v>2.166153501605472e-09</v>
+        <v>0.0003864888513378014</v>
       </c>
       <c r="G27" t="n">
-        <v>3.023638096973178e-09</v>
+        <v>0.0005767239450116808</v>
       </c>
       <c r="H27" t="n">
-        <v>3.824794657284611e-09</v>
+        <v>0.0007507954266005179</v>
       </c>
       <c r="I27" t="n">
-        <v>4.553148619341753e-09</v>
+        <v>0.0009167363827812647</v>
       </c>
       <c r="J27" t="n">
-        <v>5.208639554882825e-09</v>
+        <v>0.001072269418572883</v>
       </c>
       <c r="K27" t="n">
-        <v>5.780729409656223e-09</v>
+        <v>0.001213994101747764</v>
       </c>
       <c r="L27" t="n">
-        <v>6.282882490546244e-09</v>
+        <v>0.001342100613774743</v>
       </c>
     </row>
     <row r="28">
@@ -1488,37 +1488,37 @@
         <v>2.499144240436987</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.0002468253542146418</v>
       </c>
       <c r="C28" t="n">
-        <v>4.256742480661355e-14</v>
+        <v>1.820234271012333e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>3.859788841513422e-13</v>
+        <v>2.234906025395544e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>1.086908587229708e-12</v>
+        <v>0.0001085428919640871</v>
       </c>
       <c r="F28" t="n">
-        <v>2.000758421411921e-12</v>
+        <v>0.0003144579185300874</v>
       </c>
       <c r="G28" t="n">
-        <v>2.998085348041074e-12</v>
+        <v>0.0006727304303984359</v>
       </c>
       <c r="H28" t="n">
-        <v>4.001253580270186e-12</v>
+        <v>0.001180139959549079</v>
       </c>
       <c r="I28" t="n">
-        <v>4.969700730638637e-12</v>
+        <v>0.001783297622249559</v>
       </c>
       <c r="J28" t="n">
-        <v>5.886824015726986e-12</v>
+        <v>0.002449228565145817</v>
       </c>
       <c r="K28" t="n">
-        <v>6.726035649779501e-12</v>
+        <v>0.003145458739162551</v>
       </c>
       <c r="L28" t="n">
-        <v>7.49346384538589e-12</v>
+        <v>0.003850772861034379</v>
       </c>
     </row>
     <row r="29">
@@ -1526,37 +1526,37 @@
         <v>2.655737042723731</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>8.819604290166186e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02734001431021396</v>
+        <v>1.419140231557492e-07</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05763013901646194</v>
+        <v>2.393808100160819e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.07435522725634053</v>
+        <v>1.474751258874016e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08188423735534545</v>
+        <v>5.560541112124905e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>0.08431448784180046</v>
+        <v>0.0001534612999755586</v>
       </c>
       <c r="H29" t="n">
-        <v>1.425773518734113e-15</v>
+        <v>0.0003460976665345106</v>
       </c>
       <c r="I29" t="n">
-        <v>1.848268571579752e-15</v>
+        <v>0.0006814713538225692</v>
       </c>
       <c r="J29" t="n">
-        <v>2.267093090820528e-15</v>
+        <v>0.001193577845038799</v>
       </c>
       <c r="K29" t="n">
-        <v>2.666212632137337e-15</v>
+        <v>0.001903253920278425</v>
       </c>
       <c r="L29" t="n">
-        <v>3.044133498891943e-15</v>
+        <v>0.002825635873916294</v>
       </c>
     </row>
     <row r="30">
@@ -1564,37 +1564,37 @@
         <v>2.923016835756108</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.258545854535426e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>0.007204967799003121</v>
+        <v>1.566278223279739e-07</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01945878435641015</v>
+        <v>3.678310171543002e-07</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02972848892643154</v>
+        <v>7.977225759683779e-07</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03710874565870419</v>
+        <v>2.097325947235477e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04217181762768553</v>
+        <v>5.645419377218525e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08391787641342145</v>
+        <v>1.370009252882198e-05</v>
       </c>
       <c r="I30" t="n">
-        <v>0.08203427396189895</v>
+        <v>2.940230086841735e-05</v>
       </c>
       <c r="J30" t="n">
-        <v>0.07942351523416601</v>
+        <v>5.707366126727493e-05</v>
       </c>
       <c r="K30" t="n">
-        <v>0.07632227602901497</v>
+        <v>0.0001031625366383992</v>
       </c>
       <c r="L30" t="n">
-        <v>0.07306028401880939</v>
+        <v>0.0001760605710882128</v>
       </c>
     </row>
     <row r="31">
@@ -1602,37 +1602,37 @@
         <v>2.930609121380968</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.186569914568713e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0006051961191863024</v>
+        <v>7.637207325182872e-08</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002019772635504351</v>
+        <v>2.410529645401365e-07</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003511482884441014</v>
+        <v>4.055853299625128e-07</v>
       </c>
       <c r="F31" t="n">
-        <v>0.004821350592302285</v>
+        <v>5.442605154630459e-07</v>
       </c>
       <c r="G31" t="n">
-        <v>0.005873812437784179</v>
+        <v>6.561914553995625e-07</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04556554336606419</v>
+        <v>7.460717631317847e-07</v>
       </c>
       <c r="I31" t="n">
-        <v>0.04779476356708465</v>
+        <v>8.189320950425505e-07</v>
       </c>
       <c r="J31" t="n">
-        <v>0.04921011468963786</v>
+        <v>8.790351227043127e-07</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04990160913872356</v>
+        <v>9.268649322859215e-07</v>
       </c>
       <c r="L31" t="n">
-        <v>0.05013511561205474</v>
+        <v>9.66014010010583e-07</v>
       </c>
     </row>
     <row r="32">
@@ -1640,37 +1640,37 @@
         <v>2.938162271078516</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.11882711407953e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>1.288217828086516e-05</v>
+        <v>5.512271409007639e-08</v>
       </c>
       <c r="D32" t="n">
-        <v>5.842790509612191e-05</v>
+        <v>2.496655885672712e-07</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0001191680194363478</v>
+        <v>5.057327819048934e-07</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0001818058035901954</v>
+        <v>7.600692216162149e-07</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0002390314291675771</v>
+        <v>9.878726455072083e-07</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00669011913982469</v>
+        <v>1.183755796668103e-06</v>
       </c>
       <c r="I32" t="n">
-        <v>0.007316986542881528</v>
+        <v>1.349872904053914e-06</v>
       </c>
       <c r="J32" t="n">
-        <v>0.007803610678864336</v>
+        <v>1.490616797212142e-06</v>
       </c>
       <c r="K32" t="n">
-        <v>0.00817419562849995</v>
+        <v>1.60619988575038e-06</v>
       </c>
       <c r="L32" t="n">
-        <v>0.008457948158253431</v>
+        <v>1.7023337498465e-06</v>
       </c>
     </row>
     <row r="33">
@@ -1678,37 +1678,37 @@
         <v>2.953153154402505</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>9.950309870532021e-06</v>
       </c>
       <c r="C33" t="n">
-        <v>7.506197038099735e-08</v>
+        <v>7.506197038099718e-08</v>
       </c>
       <c r="D33" t="n">
-        <v>4.75092056727305e-07</v>
+        <v>4.750920567273041e-07</v>
       </c>
       <c r="E33" t="n">
-        <v>1.152740549569229e-06</v>
+        <v>1.152740549569228e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>1.961701310866684e-06</v>
+        <v>1.961701310866682e-06</v>
       </c>
       <c r="G33" t="n">
-        <v>2.787412820989729e-06</v>
+        <v>2.787412820989728e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0002885651243526843</v>
+        <v>3.570188819630814e-06</v>
       </c>
       <c r="I33" t="n">
-        <v>0.000330482058756442</v>
+        <v>4.285307999487698e-06</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0003656821141409021</v>
+        <v>4.926917768528692e-06</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0003942535301849126</v>
+        <v>5.485517101277233e-06</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0004176136317986076</v>
+        <v>5.971432185635777e-06</v>
       </c>
     </row>
     <row r="34">
@@ -1716,37 +1716,37 @@
         <v>2.982686645163555</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>7.879693728658495e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>1.313832570621701e-10</v>
+        <v>4.885352251796312e-08</v>
       </c>
       <c r="D34" t="n">
-        <v>1.176171915627347e-09</v>
+        <v>6.539748663755563e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>3.409755110079505e-09</v>
+        <v>2.382341629629079e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>6.474596996786574e-09</v>
+        <v>5.015301155483321e-06</v>
       </c>
       <c r="G34" t="n">
-        <v>9.936498602445441e-09</v>
+        <v>7.921495686814736e-06</v>
       </c>
       <c r="H34" t="n">
-        <v>3.57018881963082e-06</v>
+        <v>1.099733197331868e-05</v>
       </c>
       <c r="I34" t="n">
-        <v>4.285307999487704e-06</v>
+        <v>1.415751042674629e-05</v>
       </c>
       <c r="J34" t="n">
-        <v>4.926917768528691e-06</v>
+        <v>1.728864022764932e-05</v>
       </c>
       <c r="K34" t="n">
-        <v>5.485517101277232e-06</v>
+        <v>2.02911656877691e-05</v>
       </c>
       <c r="L34" t="n">
-        <v>5.971432185635786e-06</v>
+        <v>2.312712958350358e-05</v>
       </c>
     </row>
     <row r="35">
@@ -1754,37 +1754,37 @@
         <v>3.040060017282322</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>4.964432127863863e-06</v>
       </c>
       <c r="C35" t="n">
-        <v>7.370107909314538e-14</v>
+        <v>1.104338339389974e-08</v>
       </c>
       <c r="D35" t="n">
-        <v>9.445877817284168e-13</v>
+        <v>2.300319050023592e-07</v>
       </c>
       <c r="E35" t="n">
-        <v>3.279796988995383e-12</v>
+        <v>1.489509974482596e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>6.951976779997687e-12</v>
+        <v>5.189302874519332e-06</v>
       </c>
       <c r="G35" t="n">
-        <v>1.152066337631262e-11</v>
+        <v>1.259557108983102e-05</v>
       </c>
       <c r="H35" t="n">
-        <v>1.34923179005262e-08</v>
+        <v>2.360217710223148e-05</v>
       </c>
       <c r="I35" t="n">
-        <v>1.69633160022042e-08</v>
+        <v>3.769017809770785e-05</v>
       </c>
       <c r="J35" t="n">
-        <v>2.026157658346163e-08</v>
+        <v>5.420738742179385e-05</v>
       </c>
       <c r="K35" t="n">
-        <v>2.328882042044975e-08</v>
+        <v>7.220670474548733e-05</v>
       </c>
       <c r="L35" t="n">
-        <v>2.604940090364865e-08</v>
+        <v>9.079598460683735e-05</v>
       </c>
     </row>
     <row r="36">
@@ -1792,37 +1792,37 @@
         <v>3.148724435250093</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2.004728821314226e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004470277595558606</v>
+        <v>8.681290084076823e-10</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01908727858479554</v>
+        <v>2.498330067480314e-08</v>
       </c>
       <c r="E36" t="n">
-        <v>1.078262409016038e-15</v>
+        <v>2.064426897965184e-07</v>
       </c>
       <c r="F36" t="n">
-        <v>2.556343538316248e-15</v>
+        <v>9.608512570307304e-07</v>
       </c>
       <c r="G36" t="n">
-        <v>4.57697915448545e-15</v>
+        <v>3.104880773129071e-06</v>
       </c>
       <c r="H36" t="n">
-        <v>1.657495554626316e-11</v>
+        <v>8.118762717823306e-06</v>
       </c>
       <c r="I36" t="n">
-        <v>2.181459219313779e-11</v>
+        <v>1.768569833044103e-05</v>
       </c>
       <c r="J36" t="n">
-        <v>2.70547216792046e-11</v>
+        <v>3.344042083415957e-05</v>
       </c>
       <c r="K36" t="n">
-        <v>3.208477209147221e-11</v>
+        <v>5.685171016836615e-05</v>
       </c>
       <c r="L36" t="n">
-        <v>3.685656866508e-11</v>
+        <v>8.929341346876063e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1830,37 +1830,37 @@
         <v>3.34601900311319</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>3.474024983118048e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0003653058737120093</v>
+        <v>1.99710498026636e-11</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002066558569491106</v>
+        <v>8.545380844841396e-10</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03967935517977773</v>
+        <v>8.940893988821585e-09</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05970150028434486</v>
+        <v>5.245600693524453e-08</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681432658090356</v>
+        <v>2.051326721628234e-07</v>
       </c>
       <c r="H37" t="n">
-        <v>6.976046846360894e-15</v>
+        <v>6.169795551745099e-07</v>
       </c>
       <c r="I37" t="n">
-        <v>9.60720593693166e-15</v>
+        <v>1.537594936760233e-06</v>
       </c>
       <c r="J37" t="n">
-        <v>1.236500522104619e-14</v>
+        <v>3.360367874906473e-06</v>
       </c>
       <c r="K37" t="n">
-        <v>1.512075175867007e-14</v>
+        <v>6.691601044620576e-06</v>
       </c>
       <c r="L37" t="n">
-        <v>1.782811911603469e-14</v>
+        <v>1.223150714353067e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1868,37 +1868,37 @@
         <v>3.682770440566225</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.280691134722457e-08</v>
       </c>
       <c r="C38" t="n">
-        <v>7.943831678316503e-06</v>
+        <v>1.63361709632319e-10</v>
       </c>
       <c r="D38" t="n">
-        <v>6.756437074063008e-05</v>
+        <v>4.807139491488895e-10</v>
       </c>
       <c r="E38" t="n">
-        <v>0.005130320916380143</v>
+        <v>8.672619871245536e-10</v>
       </c>
       <c r="F38" t="n">
-        <v>0.008656592244109019</v>
+        <v>1.572821698150103e-09</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01207287707485117</v>
+        <v>3.545209127115738e-09</v>
       </c>
       <c r="H38" t="n">
-        <v>0.09055493552844164</v>
+        <v>9.128348259972349e-09</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1011508578458776</v>
+        <v>2.268475236769136e-08</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1092125230993369</v>
+        <v>5.252911082665834e-08</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1149800808951961</v>
+        <v>1.143546519294176e-07</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1190498004814716</v>
+        <v>2.289973273808412e-07</v>
       </c>
     </row>
     <row r="39">
@@ -1906,37 +1906,37 @@
         <v>3.687559484245838</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1.218637921302711e-08</v>
       </c>
       <c r="C39" t="n">
-        <v>4.885352251796322e-08</v>
+        <v>1.049677130329653e-10</v>
       </c>
       <c r="D39" t="n">
-        <v>6.539748663755565e-07</v>
+        <v>4.556749162690167e-10</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0002037361334301943</v>
+        <v>8.941739299806475e-10</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0003864888513378015</v>
+        <v>1.321057907809408e-09</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0005767239450116809</v>
+        <v>1.704662633568153e-09</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0150458609791349</v>
+        <v>2.040606884698268e-09</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0175690493411488</v>
+        <v>2.333341327429551e-09</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01981362864936527</v>
+        <v>2.589934777178254e-09</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02176439657366087</v>
+        <v>2.808097064116574e-09</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02343826797292664</v>
+        <v>2.996914092414172e-09</v>
       </c>
     </row>
     <row r="40">
@@ -1944,37 +1944,37 @@
         <v>3.6923361210418</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.159652944958891e-08</v>
       </c>
       <c r="C40" t="n">
-        <v>9.333619728090633e-11</v>
+        <v>8.551738086106642e-11</v>
       </c>
       <c r="D40" t="n">
-        <v>1.974841066998978e-09</v>
+        <v>5.457856553851185e-10</v>
       </c>
       <c r="E40" t="n">
-        <v>2.38234162962908e-06</v>
+        <v>1.30234031364489e-09</v>
       </c>
       <c r="F40" t="n">
-        <v>5.015301155483323e-06</v>
+        <v>2.166153501605474e-09</v>
       </c>
       <c r="G40" t="n">
-        <v>7.921495686814742e-06</v>
+        <v>3.02363809697318e-09</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0007507954266005181</v>
+        <v>3.824794657284604e-09</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0009167363827812648</v>
+        <v>4.553148619341755e-09</v>
       </c>
       <c r="J40" t="n">
-        <v>0.001072269418572883</v>
+        <v>5.208639554882828e-09</v>
       </c>
       <c r="K40" t="n">
-        <v>0.001213994101747764</v>
+        <v>5.780729409656224e-09</v>
       </c>
       <c r="L40" t="n">
-        <v>0.001342100613774742</v>
+        <v>6.282882490546239e-09</v>
       </c>
     </row>
     <row r="41">
@@ -1982,37 +1982,37 @@
         <v>3.701852493338749</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.050276025045362e-08</v>
       </c>
       <c r="C41" t="n">
-        <v>5.847423394703285e-14</v>
+        <v>1.313832570621698e-10</v>
       </c>
       <c r="D41" t="n">
-        <v>1.956497236978826e-12</v>
+        <v>1.176171915627348e-09</v>
       </c>
       <c r="E41" t="n">
-        <v>8.631947215229271e-09</v>
+        <v>3.409755110079504e-09</v>
       </c>
       <c r="F41" t="n">
-        <v>1.976042596920388e-08</v>
+        <v>6.474596996786567e-09</v>
       </c>
       <c r="G41" t="n">
-        <v>3.347791038734694e-08</v>
+        <v>9.936498602445449e-09</v>
       </c>
       <c r="H41" t="n">
-        <v>1.099733197331869e-05</v>
+        <v>1.349231790052618e-08</v>
       </c>
       <c r="I41" t="n">
-        <v>1.415751042674631e-05</v>
+        <v>1.696331600220418e-08</v>
       </c>
       <c r="J41" t="n">
-        <v>1.728864022764934e-05</v>
+        <v>2.026157658346163e-08</v>
       </c>
       <c r="K41" t="n">
-        <v>2.029116568776912e-05</v>
+        <v>2.328882042044976e-08</v>
       </c>
       <c r="L41" t="n">
-        <v>2.312712958350361e-05</v>
+        <v>2.604940090364863e-08</v>
       </c>
     </row>
     <row r="42">
@@ -2020,34 +2020,34 @@
         <v>3.720739822795161</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>8.620370010201639e-09</v>
       </c>
       <c r="C42" t="n">
-        <v>8.545468327194794e-05</v>
+        <v>9.333619728090632e-11</v>
       </c>
       <c r="D42" t="n">
-        <v>6.621730803249378e-16</v>
+        <v>1.974841066998974e-09</v>
       </c>
       <c r="E42" t="n">
-        <v>1.017630272787297e-11</v>
+        <v>8.631947215229267e-09</v>
       </c>
       <c r="F42" t="n">
-        <v>2.508875926102671e-11</v>
+        <v>1.976042596920386e-08</v>
       </c>
       <c r="G42" t="n">
-        <v>4.639526152467072e-11</v>
+        <v>3.347791038734686e-08</v>
       </c>
       <c r="H42" t="n">
-        <v>4.968700347640716e-08</v>
+        <v>4.968700347640707e-08</v>
       </c>
       <c r="I42" t="n">
-        <v>6.744651944240335e-08</v>
+        <v>6.744651944240324e-08</v>
       </c>
       <c r="J42" t="n">
-        <v>8.603867406489264e-08</v>
+        <v>8.603867406489251e-08</v>
       </c>
       <c r="K42" t="n">
-        <v>1.047078009847616e-07</v>
+        <v>1.047078009847615e-07</v>
       </c>
       <c r="L42" t="n">
         <v>1.230809315951852e-07</v>
@@ -2058,37 +2058,37 @@
         <v>3.757949689481883</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>5.821444587861734e-09</v>
       </c>
       <c r="C43" t="n">
-        <v>1.820234271012335e-06</v>
+        <v>2.102655952918415e-11</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0006837890110842807</v>
+        <v>7.877758234391141e-10</v>
       </c>
       <c r="E43" t="n">
-        <v>4.015971212488067e-15</v>
+        <v>6.683833561928647e-09</v>
       </c>
       <c r="F43" t="n">
-        <v>1.095789841781953e-14</v>
+        <v>2.788833543839562e-08</v>
       </c>
       <c r="G43" t="n">
-        <v>2.213356118191937e-14</v>
+        <v>7.407385089403372e-08</v>
       </c>
       <c r="H43" t="n">
-        <v>7.353089903800311e-11</v>
+        <v>1.480047985307504e-07</v>
       </c>
       <c r="I43" t="n">
-        <v>1.051479466306429e-10</v>
+        <v>2.494799564826202e-07</v>
       </c>
       <c r="J43" t="n">
-        <v>1.400058341259169e-10</v>
+        <v>3.742288214487722e-07</v>
       </c>
       <c r="K43" t="n">
-        <v>1.765570519454711e-10</v>
+        <v>5.119453113525669e-07</v>
       </c>
       <c r="L43" t="n">
-        <v>2.139301360555961e-10</v>
+        <v>6.523772381341214e-07</v>
       </c>
     </row>
     <row r="44">
@@ -2096,37 +2096,37 @@
         <v>3.83023560871777</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.679554463538656e-09</v>
       </c>
       <c r="C44" t="n">
-        <v>1.104338339389974e-08</v>
+        <v>1.664451730740014e-12</v>
       </c>
       <c r="D44" t="n">
-        <v>2.234906025395548e-05</v>
+        <v>8.7635493971996e-11</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002538955371959632</v>
+        <v>9.737315786118606e-10</v>
       </c>
       <c r="F44" t="n">
-        <v>0.006152758950347805</v>
+        <v>5.674595671577573e-09</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01161454867196528</v>
+        <v>2.235112408187234e-08</v>
       </c>
       <c r="H44" t="n">
-        <v>3.746124362538471e-14</v>
+        <v>6.608208066256179e-08</v>
       </c>
       <c r="I44" t="n">
-        <v>5.641116581787474e-14</v>
+        <v>1.565537075132252e-07</v>
       </c>
       <c r="J44" t="n">
-        <v>7.835028903414399e-14</v>
+        <v>3.169931581674412e-07</v>
       </c>
       <c r="K44" t="n">
-        <v>1.023241782372008e-13</v>
+        <v>5.753435070612761e-07</v>
       </c>
       <c r="L44" t="n">
-        <v>1.277343626752618e-13</v>
+        <v>9.577981062018874e-07</v>
       </c>
     </row>
     <row r="45">
@@ -2134,37 +2134,37 @@
         <v>3.96714419628994</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>5.867119398833958e-10</v>
       </c>
       <c r="C45" t="n">
-        <v>2.102655952918419e-11</v>
+        <v>3.911196775506512e-14</v>
       </c>
       <c r="D45" t="n">
-        <v>2.300319050023596e-07</v>
+        <v>3.076090116790575e-12</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0001085428919640872</v>
+        <v>4.269429545343603e-11</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0003144579185300877</v>
+        <v>3.234302321229977e-10</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0006727304303984358</v>
+        <v>1.508746704463814e-09</v>
       </c>
       <c r="H45" t="n">
-        <v>0.01867079160698954</v>
+        <v>5.220806329726081e-09</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0267612500705527</v>
+        <v>1.447842968372851e-08</v>
       </c>
       <c r="J45" t="n">
-        <v>0.03522885167443873</v>
+        <v>3.460255941106612e-08</v>
       </c>
       <c r="K45" t="n">
-        <v>0.04371021012097211</v>
+        <v>7.464183062055299e-08</v>
       </c>
       <c r="L45" t="n">
-        <v>0.05198281983563036</v>
+        <v>1.457102703793297e-07</v>
       </c>
     </row>
     <row r="46">
@@ -2172,37 +2172,37 @@
         <v>4.215719775370566</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>3.108650379374568e-11</v>
       </c>
       <c r="C46" t="n">
-        <v>1.326820980909952e-14</v>
+        <v>2.581376246297112e-16</v>
       </c>
       <c r="D46" t="n">
-        <v>7.877758234391152e-10</v>
+        <v>3.35866195718497e-14</v>
       </c>
       <c r="E46" t="n">
-        <v>1.489509974482596e-06</v>
+        <v>5.819425799439641e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>5.189302874519334e-06</v>
+        <v>5.70054371008694e-12</v>
       </c>
       <c r="G46" t="n">
-        <v>1.259557108983103e-05</v>
+        <v>3.209859711200468e-11</v>
       </c>
       <c r="H46" t="n">
-        <v>0.001180139959549079</v>
+        <v>1.284634036986437e-10</v>
       </c>
       <c r="I46" t="n">
-        <v>0.001783297622249559</v>
+        <v>3.936223535383135e-10</v>
       </c>
       <c r="J46" t="n">
-        <v>0.002449228565145816</v>
+        <v>1.052800172942736e-09</v>
       </c>
       <c r="K46" t="n">
-        <v>0.00314545873916255</v>
+        <v>2.595937832914732e-09</v>
       </c>
       <c r="L46" t="n">
-        <v>0.00385077286103438</v>
+        <v>5.707230669761587e-09</v>
       </c>
     </row>
     <row r="47">
@@ -2210,37 +2210,37 @@
         <v>4.640000000000003</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1.085552786300414e-13</v>
       </c>
       <c r="C47" t="n">
-        <v>1.419140231557492e-07</v>
+        <v>5.828677730110779e-14</v>
       </c>
       <c r="D47" t="n">
-        <v>9.288460916008343e-13</v>
+        <v>2.36471244380209e-13</v>
       </c>
       <c r="E47" t="n">
-        <v>6.683833561928664e-09</v>
+        <v>4.680510397727522e-13</v>
       </c>
       <c r="F47" t="n">
-        <v>2.788833543839562e-08</v>
+        <v>7.25665915149911e-13</v>
       </c>
       <c r="G47" t="n">
-        <v>7.407385089403367e-08</v>
+        <v>1.064977168482615e-12</v>
       </c>
       <c r="H47" t="n">
-        <v>2.36021771022315e-05</v>
+        <v>1.725093039432194e-12</v>
       </c>
       <c r="I47" t="n">
-        <v>3.769017809770791e-05</v>
+        <v>3.221420449163588e-12</v>
       </c>
       <c r="J47" t="n">
-        <v>5.420738742179384e-05</v>
+        <v>7.022536857979514e-12</v>
       </c>
       <c r="K47" t="n">
-        <v>7.220670474548744e-05</v>
+        <v>1.683416576536447e-11</v>
       </c>
       <c r="L47" t="n">
-        <v>9.079598460683736e-05</v>
+        <v>3.847947422748038e-11</v>
       </c>
     </row>
     <row r="48">
@@ -2248,37 +2248,37 @@
         <v>4.643018868776187</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1.039299531972869e-13</v>
       </c>
       <c r="C48" t="n">
-        <v>8.681290084076845e-10</v>
+        <v>4.617002683411484e-14</v>
       </c>
       <c r="D48" t="n">
-        <v>3.850271558001644e-16</v>
+        <v>2.78285018644754e-13</v>
       </c>
       <c r="E48" t="n">
-        <v>1.011307722593502e-11</v>
+        <v>6.388343372132983e-13</v>
       </c>
       <c r="F48" t="n">
-        <v>4.971829536520049e-11</v>
+        <v>1.039977904976541e-12</v>
       </c>
       <c r="G48" t="n">
-        <v>1.426890381414355e-10</v>
+        <v>1.436512569111623e-12</v>
       </c>
       <c r="H48" t="n">
-        <v>1.480047985307505e-07</v>
+        <v>1.810427882719055e-12</v>
       </c>
       <c r="I48" t="n">
-        <v>2.494799564826206e-07</v>
+        <v>2.156206209394522e-12</v>
       </c>
       <c r="J48" t="n">
-        <v>3.742288214487723e-07</v>
+        <v>2.474519614188048e-12</v>
       </c>
       <c r="K48" t="n">
-        <v>5.119453113525673e-07</v>
+        <v>2.75842295435794e-12</v>
       </c>
       <c r="L48" t="n">
-        <v>6.523772381341222e-07</v>
+        <v>3.014049274081029e-12</v>
       </c>
     </row>
     <row r="49">
@@ -2286,37 +2286,37 @@
         <v>4.646033816940814</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>9.950243633162216e-14</v>
       </c>
       <c r="C49" t="n">
-        <v>1.664451730740014e-12</v>
+        <v>4.25674248066135e-14</v>
       </c>
       <c r="D49" t="n">
-        <v>2.393808100160822e-06</v>
+        <v>3.859788841513422e-13</v>
       </c>
       <c r="E49" t="n">
-        <v>5.394537860968835e-15</v>
+        <v>1.086908587229707e-12</v>
       </c>
       <c r="F49" t="n">
-        <v>3.014165446000958e-14</v>
+        <v>2.000758421411919e-12</v>
       </c>
       <c r="G49" t="n">
-        <v>9.437775873871842e-14</v>
+        <v>2.998085348041071e-12</v>
       </c>
       <c r="H49" t="n">
-        <v>3.043675859731624e-10</v>
+        <v>4.001253580270186e-12</v>
       </c>
       <c r="I49" t="n">
-        <v>5.391810822712754e-10</v>
+        <v>4.969700730638629e-12</v>
       </c>
       <c r="J49" t="n">
-        <v>8.346912972511861e-10</v>
+        <v>5.886824015726978e-12</v>
       </c>
       <c r="K49" t="n">
-        <v>1.151737741354275e-09</v>
+        <v>6.726035649779495e-12</v>
       </c>
       <c r="L49" t="n">
-        <v>1.471720119702197e-09</v>
+        <v>7.493463845385878e-12</v>
       </c>
     </row>
     <row r="50">
@@ -2324,37 +2324,37 @@
         <v>4.652052002187748</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>9.120721703781288e-14</v>
       </c>
       <c r="C50" t="n">
-        <v>1.061193670507216e-15</v>
+        <v>7.370107909314531e-14</v>
       </c>
       <c r="D50" t="n">
-        <v>2.498330067480321e-08</v>
+        <v>9.445877817284146e-13</v>
       </c>
       <c r="E50" t="n">
-        <v>1.474751258874017e-05</v>
+        <v>3.279796988995376e-12</v>
       </c>
       <c r="F50" t="n">
-        <v>5.560541112124911e-05</v>
+        <v>6.95197677999768e-12</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0001534612999755587</v>
+        <v>1.152066337631262e-11</v>
       </c>
       <c r="H50" t="n">
-        <v>2.145931276872392e-13</v>
+        <v>1.657495554626312e-11</v>
       </c>
       <c r="I50" t="n">
-        <v>3.924342255300238e-13</v>
+        <v>2.181459219313777e-11</v>
       </c>
       <c r="J50" t="n">
-        <v>6.119704261095743e-13</v>
+        <v>2.705472167920457e-11</v>
       </c>
       <c r="K50" t="n">
-        <v>8.575153625508052e-13</v>
+        <v>3.208477209147221e-11</v>
       </c>
       <c r="L50" t="n">
-        <v>1.138742002637794e-12</v>
+        <v>3.685656866507991e-11</v>
       </c>
     </row>
     <row r="51">
@@ -2362,37 +2362,37 @@
         <v>4.66404187996331</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>7.664040863024439e-14</v>
       </c>
       <c r="C51" t="n">
-        <v>1.997104980266364e-11</v>
+        <v>5.847423394703287e-14</v>
       </c>
       <c r="D51" t="n">
-        <v>8.76354939719962e-11</v>
+        <v>1.956497236978823e-12</v>
       </c>
       <c r="E51" t="n">
-        <v>2.064426897965187e-07</v>
+        <v>1.017630272787295e-11</v>
       </c>
       <c r="F51" t="n">
-        <v>9.608512570307309e-07</v>
+        <v>2.508875926102667e-11</v>
       </c>
       <c r="G51" t="n">
-        <v>3.104880773129074e-06</v>
+        <v>4.639526152467069e-11</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0003460976665345105</v>
+        <v>7.353089903800305e-11</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0006814713538225692</v>
+        <v>1.051479466306426e-10</v>
       </c>
       <c r="J51" t="n">
-        <v>0.001193577845038799</v>
+        <v>1.400058341259168e-10</v>
       </c>
       <c r="K51" t="n">
-        <v>0.001903253920278424</v>
+        <v>1.765570519454713e-10</v>
       </c>
       <c r="L51" t="n">
-        <v>0.002825635873916295</v>
+        <v>2.139301360555962e-10</v>
       </c>
     </row>
     <row r="52">
@@ -2400,37 +2400,37 @@
         <v>4.687838423921743</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>5.413298488135842e-14</v>
       </c>
       <c r="C52" t="n">
-        <v>3.91119677550652e-14</v>
+        <v>1.326820980909952e-14</v>
       </c>
       <c r="D52" t="n">
-        <v>1.079278898191189e-13</v>
+        <v>9.288460916008319e-13</v>
       </c>
       <c r="E52" t="n">
-        <v>9.737315786118612e-10</v>
+        <v>1.011307722593502e-11</v>
       </c>
       <c r="F52" t="n">
-        <v>5.674595671577581e-09</v>
+        <v>4.971829536520042e-11</v>
       </c>
       <c r="G52" t="n">
-        <v>2.235112408187236e-08</v>
+        <v>1.426890381414356e-10</v>
       </c>
       <c r="H52" t="n">
-        <v>8.118762717823315e-06</v>
+        <v>3.043675859731626e-10</v>
       </c>
       <c r="I52" t="n">
-        <v>1.768569833044105e-05</v>
+        <v>5.391810822712756e-10</v>
       </c>
       <c r="J52" t="n">
-        <v>3.344042083415961e-05</v>
+        <v>8.34691297251186e-10</v>
       </c>
       <c r="K52" t="n">
-        <v>5.685171016836622e-05</v>
+        <v>1.151737741354274e-09</v>
       </c>
       <c r="L52" t="n">
-        <v>8.929341346876071e-05</v>
+        <v>1.471720119702196e-09</v>
       </c>
     </row>
     <row r="53">
@@ -2438,37 +2438,37 @@
         <v>4.734719918224127</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>2.704160124504879e-14</v>
       </c>
       <c r="C53" t="n">
-        <v>2.51024162383409e-17</v>
+        <v>1.061193670507214e-15</v>
       </c>
       <c r="D53" t="n">
-        <v>4.67093771861842e-17</v>
+        <v>1.079278898191189e-13</v>
       </c>
       <c r="E53" t="n">
-        <v>1.583760760939524e-12</v>
+        <v>1.583760760939525e-12</v>
       </c>
       <c r="F53" t="n">
-        <v>1.19348676490206e-11</v>
+        <v>1.193486764902061e-11</v>
       </c>
       <c r="G53" t="n">
-        <v>5.642400788859783e-11</v>
+        <v>5.642400788859774e-11</v>
       </c>
       <c r="H53" t="n">
-        <v>6.608208066256191e-08</v>
+        <v>1.84955632319283e-10</v>
       </c>
       <c r="I53" t="n">
-        <v>1.565537075132253e-07</v>
+        <v>4.731242395712668e-10</v>
       </c>
       <c r="J53" t="n">
-        <v>3.169931581674412e-07</v>
+        <v>1.023778199220468e-09</v>
       </c>
       <c r="K53" t="n">
-        <v>5.753435070612772e-07</v>
+        <v>1.98546569509393e-09</v>
       </c>
       <c r="L53" t="n">
-        <v>9.577981062018881e-07</v>
+        <v>3.464631670747305e-09</v>
       </c>
     </row>
     <row r="54">
@@ -2476,37 +2476,37 @@
         <v>4.825794469480421</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>6.780388390022008e-15</v>
       </c>
       <c r="C54" t="n">
-        <v>2.581376246297113e-16</v>
+        <v>2.510241623834096e-17</v>
       </c>
       <c r="D54" t="n">
-        <v>8.545380844841411e-10</v>
+        <v>3.981053385627345e-15</v>
       </c>
       <c r="E54" t="n">
-        <v>8.772217040907555e-16</v>
+        <v>7.25912426143083e-14</v>
       </c>
       <c r="F54" t="n">
-        <v>9.121911615769154e-15</v>
+        <v>7.242649437349627e-13</v>
       </c>
       <c r="G54" t="n">
-        <v>5.006649979845882e-14</v>
+        <v>4.07881920957532e-12</v>
       </c>
       <c r="H54" t="n">
-        <v>1.84955632319283e-10</v>
+        <v>1.619916170080527e-11</v>
       </c>
       <c r="I54" t="n">
-        <v>4.731242395712674e-10</v>
+        <v>4.908593188328916e-11</v>
       </c>
       <c r="J54" t="n">
-        <v>1.023778199220469e-09</v>
+        <v>1.267141597919352e-10</v>
       </c>
       <c r="K54" t="n">
-        <v>1.985465695093931e-09</v>
+        <v>2.966256523823436e-10</v>
       </c>
       <c r="L54" t="n">
-        <v>3.464631670747309e-09</v>
+        <v>6.337179419750698e-10</v>
       </c>
     </row>
     <row r="55">
@@ -2514,37 +2514,37 @@
         <v>4.998288480873973</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>4.336515139516493e-16</v>
       </c>
       <c r="C55" t="n">
-        <v>1.348245892419028e-20</v>
+        <v>1.348245892419029e-20</v>
       </c>
       <c r="D55" t="n">
-        <v>3.076090116790575e-12</v>
+        <v>4.500962995692638e-17</v>
       </c>
       <c r="E55" t="n">
-        <v>8.940893988821603e-09</v>
+        <v>1.013587089511403e-15</v>
       </c>
       <c r="F55" t="n">
-        <v>5.245600693524461e-08</v>
+        <v>1.353385625812869e-14</v>
       </c>
       <c r="G55" t="n">
-        <v>2.051326721628235e-07</v>
+        <v>9.223696110146935e-14</v>
       </c>
       <c r="H55" t="n">
-        <v>1.810045469017425e-13</v>
+        <v>4.242913050466238e-13</v>
       </c>
       <c r="I55" t="n">
-        <v>5.045030316765451e-13</v>
+        <v>1.411918210502121e-12</v>
       </c>
       <c r="J55" t="n">
-        <v>1.1672032593609e-12</v>
+        <v>4.143406741130062e-12</v>
       </c>
       <c r="K55" t="n">
-        <v>2.355657353018035e-12</v>
+        <v>1.128007869899828e-11</v>
       </c>
       <c r="L55" t="n">
-        <v>4.204179409638865e-12</v>
+        <v>2.682609229625124e-11</v>
       </c>
     </row>
     <row r="56">
@@ -2552,37 +2552,37 @@
         <v>5.311474085447463</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1.886227617197699e-18</v>
       </c>
       <c r="C56" t="n">
-        <v>7.229561334301676e-18</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3.981053385627359e-15</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>4.269429545343611e-11</v>
+        <v>2.990664697659174e-18</v>
       </c>
       <c r="F56" t="n">
-        <v>3.234302321229978e-10</v>
+        <v>8.294662452153287e-17</v>
       </c>
       <c r="G56" t="n">
-        <v>1.508746704463814e-09</v>
+        <v>6.991235680687541e-16</v>
       </c>
       <c r="H56" t="n">
-        <v>6.169795551745106e-07</v>
+        <v>3.713184240111932e-15</v>
       </c>
       <c r="I56" t="n">
-        <v>1.537594936760233e-06</v>
+        <v>1.30893367834867e-14</v>
       </c>
       <c r="J56" t="n">
-        <v>3.360367874906472e-06</v>
+        <v>4.304300805737714e-14</v>
       </c>
       <c r="K56" t="n">
-        <v>6.691601044620575e-06</v>
+        <v>1.34170993400964e-13</v>
       </c>
       <c r="L56" t="n">
-        <v>1.223150714353069e-05</v>
+        <v>3.563869495979501e-13</v>
       </c>
     </row>
     <row r="57">
@@ -2590,37 +2590,37 @@
         <v>5.846033671512215</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>4.510357060657216e-23</v>
       </c>
       <c r="C57" t="n">
-        <v>6.756693473757965e-18</v>
+        <v>7.229561334301667e-18</v>
       </c>
       <c r="D57" t="n">
-        <v>3.358661957184973e-14</v>
+        <v>4.140428162285452e-17</v>
       </c>
       <c r="E57" t="n">
-        <v>7.259124261430826e-14</v>
+        <v>9.558513606958205e-17</v>
       </c>
       <c r="F57" t="n">
-        <v>7.242649437349622e-13</v>
+        <v>1.590985394719151e-16</v>
       </c>
       <c r="G57" t="n">
-        <v>4.078819209575329e-12</v>
+        <v>2.26070757594178e-16</v>
       </c>
       <c r="H57" t="n">
-        <v>5.220806329726094e-09</v>
+        <v>2.980461122870183e-16</v>
       </c>
       <c r="I57" t="n">
-        <v>1.447842968372851e-08</v>
+        <v>3.80762902868291e-16</v>
       </c>
       <c r="J57" t="n">
-        <v>3.460255941106612e-08</v>
+        <v>5.062673699104193e-16</v>
       </c>
       <c r="K57" t="n">
-        <v>7.464183062055318e-08</v>
+        <v>7.786076387409842e-16</v>
       </c>
       <c r="L57" t="n">
-        <v>1.457102703793298e-07</v>
+        <v>1.404864124029866e-15</v>
       </c>
     </row>
     <row r="58">
@@ -2628,37 +2628,37 @@
         <v>5.847936058132506</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>4.32933691125157e-23</v>
       </c>
       <c r="C58" t="n">
-        <v>6.997520663951541e-18</v>
+        <v>6.756693473757982e-18</v>
       </c>
       <c r="D58" t="n">
-        <v>4.500962995692639e-17</v>
+        <v>5.800140377166905e-17</v>
       </c>
       <c r="E58" t="n">
-        <v>4.270870991521489e-17</v>
+        <v>1.561629675583044e-16</v>
       </c>
       <c r="F58" t="n">
-        <v>5.908406020636977e-16</v>
+        <v>2.799637947731771e-16</v>
       </c>
       <c r="G58" t="n">
-        <v>4.05471434596144e-15</v>
+        <v>4.133310825100954e-16</v>
       </c>
       <c r="H58" t="n">
-        <v>1.619916170080528e-11</v>
+        <v>5.473278760106278e-16</v>
       </c>
       <c r="I58" t="n">
-        <v>4.908593188328929e-11</v>
+        <v>6.773945451793838e-16</v>
       </c>
       <c r="J58" t="n">
-        <v>1.267141597919355e-10</v>
+        <v>8.017492047231376e-16</v>
       </c>
       <c r="K58" t="n">
-        <v>2.966256523823434e-10</v>
+        <v>9.163502011330503e-16</v>
       </c>
       <c r="L58" t="n">
-        <v>6.337179419750696e-10</v>
+        <v>1.022115879516916e-15</v>
       </c>
     </row>
     <row r="59">
@@ -2666,37 +2666,37 @@
         <v>5.849837207830199</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>4.155601223641138e-23</v>
       </c>
       <c r="C59" t="n">
-        <v>1.370253037889275e-17</v>
+        <v>6.99752066395152e-18</v>
       </c>
       <c r="D59" t="n">
-        <v>4.140428162285448e-17</v>
+        <v>9.287596338143984e-17</v>
       </c>
       <c r="E59" t="n">
-        <v>5.819425799439638e-13</v>
+        <v>3.093233634112013e-16</v>
       </c>
       <c r="F59" t="n">
-        <v>5.700543710086949e-12</v>
+        <v>6.299470779836763e-16</v>
       </c>
       <c r="G59" t="n">
-        <v>3.209859711200466e-11</v>
+        <v>1.012192613449201e-15</v>
       </c>
       <c r="H59" t="n">
-        <v>1.833177945142227e-14</v>
+        <v>1.42577351873411e-15</v>
       </c>
       <c r="I59" t="n">
-        <v>5.780885510956236e-14</v>
+        <v>1.848268571579749e-15</v>
       </c>
       <c r="J59" t="n">
-        <v>1.611182442841433e-13</v>
+        <v>2.267093090820525e-15</v>
       </c>
       <c r="K59" t="n">
-        <v>4.352043029423762e-13</v>
+        <v>2.66621263213734e-15</v>
       </c>
       <c r="L59" t="n">
-        <v>1.040704309876986e-12</v>
+        <v>3.044133498891933e-15</v>
       </c>
     </row>
     <row r="60">
@@ -2704,37 +2704,37 @@
         <v>5.853635804487155</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>3.828819473305319e-23</v>
       </c>
       <c r="C60" t="n">
-        <v>1.214262804222178e-17</v>
+        <v>1.370253037889278e-17</v>
       </c>
       <c r="D60" t="n">
-        <v>5.800140377166911e-17</v>
+        <v>2.586208303978885e-16</v>
       </c>
       <c r="E60" t="n">
-        <v>1.013587089511401e-15</v>
+        <v>1.078262409016035e-15</v>
       </c>
       <c r="F60" t="n">
-        <v>1.35338562581287e-14</v>
+        <v>2.556343538316254e-15</v>
       </c>
       <c r="G60" t="n">
-        <v>9.223696110146939e-14</v>
+        <v>4.576979154485442e-15</v>
       </c>
       <c r="H60" t="n">
-        <v>1.284634036986438e-10</v>
+        <v>6.976046846360899e-15</v>
       </c>
       <c r="I60" t="n">
-        <v>3.936223535383138e-10</v>
+        <v>9.607205936931663e-15</v>
       </c>
       <c r="J60" t="n">
-        <v>1.052800172942737e-09</v>
+        <v>1.236500522104615e-14</v>
       </c>
       <c r="K60" t="n">
-        <v>2.595937832914734e-09</v>
+        <v>1.512075175867007e-14</v>
       </c>
       <c r="L60" t="n">
-        <v>5.707230669761598e-09</v>
+        <v>1.782811911603466e-14</v>
       </c>
     </row>
     <row r="61">
@@ -2742,37 +2742,37 @@
         <v>5.861218242761934</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>3.250507528325853e-23</v>
       </c>
       <c r="C61" t="n">
-        <v>2.683286277954332e-18</v>
+        <v>1.214262804222181e-17</v>
       </c>
       <c r="D61" t="n">
-        <v>9.287596338144027e-17</v>
+        <v>6.621730803249373e-16</v>
       </c>
       <c r="E61" t="n">
-        <v>2.99066469765917e-18</v>
+        <v>4.015971212488073e-15</v>
       </c>
       <c r="F61" t="n">
-        <v>8.294662452153281e-17</v>
+        <v>1.095789841781954e-14</v>
       </c>
       <c r="G61" t="n">
-        <v>9.95705930561265e-17</v>
+        <v>2.213356118191934e-14</v>
       </c>
       <c r="H61" t="n">
-        <v>4.242913050466234e-13</v>
+        <v>3.746124362538469e-14</v>
       </c>
       <c r="I61" t="n">
-        <v>1.411918210502123e-12</v>
+        <v>5.641116581787471e-14</v>
       </c>
       <c r="J61" t="n">
-        <v>4.143406741130058e-12</v>
+        <v>7.835028903414406e-14</v>
       </c>
       <c r="K61" t="n">
-        <v>1.128007869899828e-11</v>
+        <v>1.023241782372006e-13</v>
       </c>
       <c r="L61" t="n">
-        <v>2.682609229625122e-11</v>
+        <v>1.277343626752619e-13</v>
       </c>
     </row>
     <row r="62">
@@ -2780,37 +2780,37 @@
         <v>5.876324542157032</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>2.343260692550605e-23</v>
       </c>
       <c r="C62" t="n">
-        <v>2.709565709685159e-20</v>
+        <v>2.683286277954335e-18</v>
       </c>
       <c r="D62" t="n">
-        <v>2.586208303978892e-16</v>
+        <v>3.850271558001644e-16</v>
       </c>
       <c r="E62" t="n">
-        <v>9.558513606958225e-17</v>
+        <v>5.394537860968828e-15</v>
       </c>
       <c r="F62" t="n">
-        <v>1.590985394719151e-16</v>
+        <v>3.014165446000955e-14</v>
       </c>
       <c r="G62" t="n">
-        <v>6.99123568068753e-16</v>
+        <v>9.437775873871833e-14</v>
       </c>
       <c r="H62" t="n">
-        <v>5.351167125176954e-16</v>
+        <v>2.145931276872388e-13</v>
       </c>
       <c r="I62" t="n">
-        <v>1.90772181828231e-15</v>
+        <v>3.924342255300241e-13</v>
       </c>
       <c r="J62" t="n">
-        <v>6.131769609360571e-15</v>
+        <v>6.119704261095731e-13</v>
       </c>
       <c r="K62" t="n">
-        <v>1.840049838961851e-14</v>
+        <v>8.575153625508042e-13</v>
       </c>
       <c r="L62" t="n">
-        <v>4.750267190623964e-14</v>
+        <v>1.138742002637793e-12</v>
       </c>
     </row>
     <row r="63">
@@ -2818,37 +2818,37 @@
         <v>5.906306308805011</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1.218838529961611e-23</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>2.709565709685156e-20</v>
       </c>
       <c r="D63" t="n">
-        <v>1.392559526766884e-18</v>
+        <v>4.670937718618401e-17</v>
       </c>
       <c r="E63" t="n">
-        <v>1.561629675583044e-16</v>
+        <v>8.772217040907556e-16</v>
       </c>
       <c r="F63" t="n">
-        <v>2.79963794773177e-16</v>
+        <v>9.121911615769124e-15</v>
       </c>
       <c r="G63" t="n">
-        <v>2.260707575941789e-16</v>
+        <v>5.006649979845883e-14</v>
       </c>
       <c r="H63" t="n">
-        <v>3.713184240111934e-15</v>
+        <v>1.810045469017424e-13</v>
       </c>
       <c r="I63" t="n">
-        <v>1.308933678348669e-14</v>
+        <v>5.045030316765446e-13</v>
       </c>
       <c r="J63" t="n">
-        <v>4.304300805737718e-14</v>
+        <v>1.167203259360898e-12</v>
       </c>
       <c r="K63" t="n">
-        <v>1.341709934009643e-13</v>
+        <v>2.355657353018032e-12</v>
       </c>
       <c r="L63" t="n">
-        <v>3.563869495979509e-13</v>
+        <v>4.204179409638859e-12</v>
       </c>
     </row>
     <row r="64">
@@ -2856,37 +2856,37 @@
         <v>5.96537329032711</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>3.30931383149493e-24</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1.392559526766887e-18</v>
       </c>
       <c r="E64" t="n">
-        <v>3.093233634112013e-16</v>
+        <v>4.270870991521475e-17</v>
       </c>
       <c r="F64" t="n">
-        <v>6.299470779836747e-16</v>
+        <v>5.908406020636987e-16</v>
       </c>
       <c r="G64" t="n">
-        <v>4.133310825100956e-16</v>
+        <v>4.054714345961432e-15</v>
       </c>
       <c r="H64" t="n">
-        <v>2.980461122870184e-16</v>
+        <v>1.833177945142229e-14</v>
       </c>
       <c r="I64" t="n">
-        <v>1.451654017913025e-17</v>
+        <v>5.780885510956226e-14</v>
       </c>
       <c r="J64" t="n">
-        <v>6.432027586123687e-17</v>
+        <v>1.611182442841429e-13</v>
       </c>
       <c r="K64" t="n">
-        <v>2.363704334541398e-16</v>
+        <v>4.352043029423763e-13</v>
       </c>
       <c r="L64" t="n">
-        <v>6.923834870212537e-16</v>
+        <v>1.040704309876984e-12</v>
       </c>
     </row>
     <row r="65">
@@ -2894,7 +2894,7 @@
         <v>6.080120034564644</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>2.474172364609855e-25</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2903,28 +2903,28 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1.228460143017133e-19</v>
+        <v>1.228460143017136e-19</v>
       </c>
       <c r="F65" t="n">
         <v>1.093326653729407e-17</v>
       </c>
       <c r="G65" t="n">
-        <v>1.012192613449203e-15</v>
+        <v>9.957059305612618e-17</v>
       </c>
       <c r="H65" t="n">
-        <v>5.4732787601063e-16</v>
+        <v>5.351167125176947e-16</v>
       </c>
       <c r="I65" t="n">
-        <v>3.807629028682915e-16</v>
+        <v>1.907721818282303e-15</v>
       </c>
       <c r="J65" t="n">
-        <v>5.062673699104191e-16</v>
+        <v>6.131769609360586e-15</v>
       </c>
       <c r="K65" t="n">
-        <v>7.786076387409824e-16</v>
+        <v>1.840049838961852e-14</v>
       </c>
       <c r="L65" t="n">
-        <v>1.404864124029869e-15</v>
+        <v>4.750267190623969e-14</v>
       </c>
     </row>
     <row r="66">
@@ -2932,7 +2932,7 @@
         <v>6.297448870500187</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1.461347391724203e-27</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2941,36 +2941,36 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>2.934433967865885e-19</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>5.433005793427083e-18</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>2.114672548849426e-17</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>2.092462890839014e-18</v>
+        <v>2.092462890839009e-18</v>
       </c>
       <c r="I66" t="n">
-        <v>6.773945451793828e-16</v>
+        <v>1.451654017913019e-17</v>
       </c>
       <c r="J66" t="n">
-        <v>8.017492047231402e-16</v>
+        <v>6.432027586123663e-17</v>
       </c>
       <c r="K66" t="n">
-        <v>9.16350201133048e-16</v>
+        <v>2.363704334541403e-16</v>
       </c>
       <c r="L66" t="n">
-        <v>1.022115879516915e-15</v>
+        <v>6.923834870212518e-16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>7.375118968491677</v>
+        <v>6.692038006226379</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>6.289659009397085e-32</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2982,33 +2982,33 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1.23148889981039e-18</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1.43199084804622e-17</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>5.281346155870251e-17</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>8.92297968290086e-19</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>5.034535506515255e-18</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>1.050161040335569e-17</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1.64842181700152e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>7.3846722420836</v>
+        <v>7.36554088113245</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>2.473644335906982e-40</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -3026,27 +3026,27 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>6.146980337444944e-17</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1.00186459249229e-16</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.601872563495145e-16</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>2.346920868028675e-16</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>3.252809156329425e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>7.403704986677496</v>
+        <v>7.366739504567951</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>2.384003624575536e-40</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -3064,27 +3064,27 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>5.553304768812265e-18</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1.882975082585319e-16</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>4.594520827436055e-16</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>9.661964384018773e-16</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>1.796062349446823e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>7.441479645590322</v>
+        <v>7.367937738080394</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>2.29761879682223e-40</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -3105,54 +3105,890 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>2.270908231175758e-17</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>7.531243680076065e-17</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>2.330694082691933e-16</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>5.980453634142495e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
+        <v>7.370333036603518</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2.134146994431692e-40</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>7.375118968491677</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.841339725416698e-40</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8.922979682900851e-19</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5.034535506515263e-18</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.05016104033557e-17</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.648421817001524e-17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>7.3846722420836</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.370946596506569e-40</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.93443396786588e-19</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5.433005793427086e-18</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.114672548849418e-17</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5.28134615587026e-17</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.001864592492286e-16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.601872563495141e-16</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2.346920868028678e-16</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3.252809156329422e-16</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>7.403704986677496</v>
+      </c>
+      <c r="B74" t="n">
+        <v>7.604357743826235e-41</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.231488899810386e-18</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.43199084804622e-17</v>
+      </c>
+      <c r="H74" t="n">
+        <v>6.146980337444959e-17</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.882975082585313e-16</v>
+      </c>
+      <c r="J74" t="n">
+        <v>4.594520827436066e-16</v>
+      </c>
+      <c r="K74" t="n">
+        <v>9.661964384018765e-16</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.796062349446819e-15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>7.441479645590322</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2.34538524425418e-41</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>5.553304768812276e-18</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.270908231175755e-17</v>
+      </c>
+      <c r="J75" t="n">
+        <v>7.531243680076086e-17</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2.330694082691935e-16</v>
+      </c>
+      <c r="L75" t="n">
+        <v>5.980453634142507e-16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
         <v>7.515899378963765</v>
       </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>-8.920424248500615e-20</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1.214756184727549e-18</v>
-      </c>
-      <c r="K71" t="n">
-        <v>8.333296518985042e-18</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.779287537814263e-17</v>
+      <c r="B76" t="n">
+        <v>2.252835468843603e-42</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.214756184727544e-18</v>
+      </c>
+      <c r="K76" t="n">
+        <v>8.333296518985057e-18</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.779287537814254e-17</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>7.660471217435539</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.158512539363889e-44</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>7.934288392579878</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.28659492307574e-48</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>8.431439550741132</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4.307258161791971e-56</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>9.280000000000006</v>
+      </c>
+      <c r="B80" t="n">
+        <v>8.622062367761848e-71</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>9.280755146882662</v>
+      </c>
+      <c r="B81" t="n">
+        <v>8.349890054901376e-71</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>9.281510170897292</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8.086323464037271e-71</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>9.283019850522306</v>
+      </c>
+      <c r="B83" t="n">
+        <v>7.583925902316152e-71</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>9.286037737552373</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6.670971468138482e-71</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>9.292067633881627</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5.161967701634053e-71</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>9.304104004375496</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3.091805291121378e-71</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>9.328083759926621</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.110659784403758e-71</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>9.375676847843486</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.440784620190433e-72</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>9.469439836448254</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2.475113138446723e-74</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>9.651588938960842</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7.910482153990734e-78</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>9.996576961747945</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.088897585051864e-84</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>10.62294817089493</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5.933001050180819e-98</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>11.69206734302443</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5.395865346296687e-123</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/CED_focus_Sim.xlsx
+++ b/data/CED_focus_Sim.xlsx
@@ -503,34 +503,34 @@
         <v>0.1071396047968705</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1852054016283594</v>
+        <v>0.06439472768271359</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1188084591456268</v>
+        <v>0.04928936586783742</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08809555203574458</v>
+        <v>0.04064585279207933</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07040295059639677</v>
+        <v>0.03499775754391764</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05862341213308732</v>
+        <v>0.03095549610756333</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05001112374497393</v>
+        <v>0.02787625759971611</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04335183426440865</v>
+        <v>0.02542346432882806</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0379619720860643</v>
+        <v>0.02339594374917145</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0337303454378873</v>
+        <v>0.02175062242370037</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03025997510907661</v>
+        <v>0.02036597681841709</v>
       </c>
     </row>
     <row r="3">
@@ -541,34 +541,34 @@
         <v>0.1113559369394892</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1719222017804333</v>
+        <v>0.07597624109328188</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1256810218991106</v>
+        <v>0.06123750246897332</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09960695979092422</v>
+        <v>0.05215610639229525</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08364051667504423</v>
+        <v>0.04591875299888187</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07280137061125416</v>
+        <v>0.04129675796404596</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0648029996535453</v>
+        <v>0.03768527797272608</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05854292798918887</v>
+        <v>0.03475135993389464</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0533902535724897</v>
+        <v>0.03228970569730676</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04928503536311958</v>
+        <v>0.03025703561595902</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04585227695670725</v>
+        <v>0.02852346843934405</v>
       </c>
     </row>
     <row r="4">
@@ -579,34 +579,34 @@
         <v>0.1070322863517678</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05037400129946318</v>
+        <v>0.08049856464523275</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04034267433750023</v>
+        <v>0.06755044067952896</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02993013855789063</v>
+        <v>0.059008606861579</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02241195159471512</v>
+        <v>0.05287185461925598</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01715398658423914</v>
+        <v>0.04817990651424302</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01340206863336163</v>
+        <v>0.04442861377178371</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01062766237460378</v>
+        <v>0.04132654162204741</v>
       </c>
       <c r="J4" t="n">
-        <v>0.008487255435474532</v>
+        <v>0.03868836665556055</v>
       </c>
       <c r="K4" t="n">
-        <v>0.006936027638838702</v>
+        <v>0.03647623142384383</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005755384950720658</v>
+        <v>0.03456722874475744</v>
       </c>
     </row>
     <row r="5">
@@ -617,34 +617,34 @@
         <v>0.09989334709280633</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1815566265349877</v>
+        <v>0.08154411407835155</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1588195468507152</v>
+        <v>0.07081596770360811</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1415861916334119</v>
+        <v>0.06321622409561026</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1288777284260038</v>
+        <v>0.05750410708214988</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1191026551187092</v>
+        <v>0.05299976679851728</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1112956813348578</v>
+        <v>0.04931633507591075</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1048396865243938</v>
+        <v>0.04621717006008681</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09932363602267343</v>
+        <v>0.04354642988921532</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09468800085220212</v>
+        <v>0.04127400477354585</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09066288341056626</v>
+        <v>0.0392908278785057</v>
       </c>
     </row>
     <row r="6">
@@ -655,34 +655,34 @@
         <v>0.09192609475738937</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05471172210786596</v>
+        <v>0.08061926041769454</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05480193634630503</v>
+        <v>0.07217232633625166</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0479299956592444</v>
+        <v>0.06568140275553423</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04095741739765096</v>
+        <v>0.0605598898800011</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03506502741983735</v>
+        <v>0.0563886277574291</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03027907282691343</v>
+        <v>0.05289734464655664</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02635594165074283</v>
+        <v>0.04990752348837855</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02308274178829818</v>
+        <v>0.04729619621982727</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02042607471318732</v>
+        <v>0.04504187741727173</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01821250424762853</v>
+        <v>0.04305252557180698</v>
       </c>
     </row>
     <row r="7">
@@ -693,34 +693,34 @@
         <v>0.08396636681591547</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03684531940073012</v>
+        <v>0.07851993864373727</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04602467186386544</v>
+        <v>0.07225410455867946</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04460434847603904</v>
+        <v>0.06692042362394025</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04027970899917106</v>
+        <v>0.06247088213298472</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03564243802926764</v>
+        <v>0.05871596292209396</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03142962927101064</v>
+        <v>0.05549380804823484</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02774225077136945</v>
+        <v>0.05268257013915312</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02454838852592957</v>
+        <v>0.05019245432410429</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02183275489967899</v>
+        <v>0.04801070694471055</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01950678618428278</v>
+        <v>0.04606353500440995</v>
       </c>
     </row>
     <row r="8">
@@ -731,34 +731,34 @@
         <v>0.06933649909613061</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1467785323498897</v>
+        <v>0.07250021374566183</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1571213796190667</v>
+        <v>0.07005101095689015</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1564833182989991</v>
+        <v>0.06694821620661445</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1523320270411104</v>
+        <v>0.06390644287532421</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1474394271713618</v>
+        <v>0.06109431646341309</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1426169329467474</v>
+        <v>0.05853158474777888</v>
       </c>
       <c r="I8" t="n">
-        <v>0.138076134900202</v>
+        <v>0.05619698110821384</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1338835283660403</v>
+        <v>0.05406203960397574</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1300589583029183</v>
+        <v>0.05213022477281104</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1265718613580847</v>
+        <v>0.05036381328980808</v>
       </c>
     </row>
     <row r="9">
@@ -769,34 +769,34 @@
         <v>0.0628739154497563</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03740045984109313</v>
+        <v>0.06906636731871446</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04718936413994537</v>
+        <v>0.06821788096869787</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04736534973288176</v>
+        <v>0.06613334169678585</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04494856684001362</v>
+        <v>0.06377723504773096</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04203703550331708</v>
+        <v>0.06144999924831709</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03919190379166596</v>
+        <v>0.05924353606586989</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03657171566714412</v>
+        <v>0.05717886292877359</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03420708340623893</v>
+        <v>0.05525430650881036</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03210213638693168</v>
+        <v>0.05348042469659564</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03021824062596826</v>
+        <v>0.05183622349467807</v>
       </c>
     </row>
     <row r="10">
@@ -807,34 +807,34 @@
         <v>0.05699528915956404</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02391680226584338</v>
+        <v>0.06554195449575348</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03906697411536666</v>
+        <v>0.06609284432132824</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04445886978949537</v>
+        <v>0.06494550142533378</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04534501442132165</v>
+        <v>0.06324433410977011</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04430704246011268</v>
+        <v>0.06139410153919959</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04247320116418091</v>
+        <v>0.05954705645849299</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04036794277620456</v>
+        <v>0.05776095054856986</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03823599176330643</v>
+        <v>0.05605797973153805</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0361433379518526</v>
+        <v>0.05445500244693505</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03415946649814075</v>
+        <v>0.05294651137629355</v>
       </c>
     </row>
     <row r="11">
@@ -845,34 +845,34 @@
         <v>0.04686818075198427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02734001431021396</v>
+        <v>0.05853908199529122</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05763013901646195</v>
+        <v>0.06133533014421565</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07435522725634054</v>
+        <v>0.0618081365855071</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08188423735534543</v>
+        <v>0.06129837184313629</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08431448784180043</v>
+        <v>0.06035027463806693</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08391787641342147</v>
+        <v>0.05920515890424351</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08203427396189895</v>
+        <v>0.05797844700786673</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07942351523416601</v>
+        <v>0.05673131793354339</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07632227602901497</v>
+        <v>0.05549079416332888</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07306028401880937</v>
+        <v>0.05427819812587927</v>
       </c>
     </row>
     <row r="12">
@@ -883,34 +883,34 @@
         <v>0.03195132981715901</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04882453772034091</v>
+        <v>0.04578692966935127</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07154313933477724</v>
+        <v>0.05129399406997191</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09068094845589605</v>
+        <v>0.05405684985722096</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1038574330262573</v>
+        <v>0.0554030918722214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1119630750039944</v>
+        <v>0.05596188756799984</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1166898137840683</v>
+        <v>0.05605525324434814</v>
       </c>
       <c r="I12" t="n">
-        <v>0.119277649641478</v>
+        <v>0.05586133568173599</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1204921241725229</v>
+        <v>0.05548823871405438</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1205587238588858</v>
+        <v>0.05497436342553967</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1199035434928357</v>
+        <v>0.05437823999507881</v>
       </c>
     </row>
     <row r="13">
@@ -921,34 +921,34 @@
         <v>0.02909565899033385</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01048631884329868</v>
+        <v>0.04295318975638853</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01597092364748698</v>
+        <v>0.04885396517865031</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01823832689027475</v>
+        <v>0.05201781230030551</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01889775679005854</v>
+        <v>0.05372157357950413</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01887050623321372</v>
+        <v>0.05458920981884052</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01857726293023377</v>
+        <v>0.054948229264783</v>
       </c>
       <c r="I13" t="n">
-        <v>0.018179213001272</v>
+        <v>0.05498391115058553</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01774774168865982</v>
+        <v>0.0548107580365903</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01729420825874229</v>
+        <v>0.05446843210374677</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01685457826387705</v>
+        <v>0.05402167476526221</v>
       </c>
     </row>
     <row r="14">
@@ -959,34 +959,34 @@
         <v>0.02651926460953703</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00645747920168191</v>
+        <v>0.04026907335405697</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01303304756321103</v>
+        <v>0.04647590335227145</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01725033079419182</v>
+        <v>0.04998247648285276</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01954404727948071</v>
+        <v>0.05200471899803579</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02070317881260215</v>
+        <v>0.05315450045610563</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02122850068669103</v>
+        <v>0.05376058266758646</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0213907214684187</v>
+        <v>0.05401273664725235</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0213450288174725</v>
+        <v>0.05403013635155678</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02112076014195773</v>
+        <v>0.05385318119308877</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02080911660898803</v>
+        <v>0.05355174928615641</v>
       </c>
     </row>
     <row r="15">
@@ -997,34 +997,34 @@
         <v>0.02209030444371321</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007204967799003123</v>
+        <v>0.03534159048189384</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01945878435641016</v>
+        <v>0.04194045166994585</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02972848892643152</v>
+        <v>0.04597774879440861</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03710874565870419</v>
+        <v>0.04852887638209967</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04217181762768552</v>
+        <v>0.0501663515541818</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04556554336606419</v>
+        <v>0.05121136827796226</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04779476356708464</v>
+        <v>0.05185611306867734</v>
       </c>
       <c r="J15" t="n">
-        <v>0.04921011468963787</v>
+        <v>0.05222467396601595</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04990160913872354</v>
+        <v>0.05235756850841541</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05013511561205473</v>
+        <v>0.05233206963974725</v>
       </c>
     </row>
     <row r="16">
@@ -1035,34 +1035,34 @@
         <v>0.01548738713218903</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004470277595558605</v>
+        <v>0.02712181787854223</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01908727858479555</v>
+        <v>0.03386739243299009</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03967935517977774</v>
+        <v>0.0384736952324336</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05970150028434484</v>
+        <v>0.04171537248355925</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07681432658090356</v>
+        <v>0.04405378233040912</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09055493552844163</v>
+        <v>0.04576924756961965</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1011508578458776</v>
+        <v>0.04704041130891571</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1092125230993369</v>
+        <v>0.0479880819168825</v>
       </c>
       <c r="K16" t="n">
-        <v>0.114980080895196</v>
+        <v>0.04864895873345153</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1190498004814716</v>
+        <v>0.04910588765509397</v>
       </c>
     </row>
     <row r="17">
@@ -1073,34 +1073,34 @@
         <v>0.007893080516753592</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003945786430895461</v>
+        <v>0.01589660746202219</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007441287791339936</v>
+        <v>0.02166901719576978</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01406150594930414</v>
+        <v>0.02621900727102789</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02381589468146701</v>
+        <v>0.02983746168602298</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03514094624389791</v>
+        <v>0.03275698858452198</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04681851887457859</v>
+        <v>0.03514528004490678</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05816800549055732</v>
+        <v>0.03712313795001827</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06873034891228377</v>
+        <v>0.0387791737731604</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07829176175326849</v>
+        <v>0.04013466604311684</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08686809729590128</v>
+        <v>0.04126173957628995</v>
       </c>
     </row>
     <row r="18">
@@ -1111,34 +1111,34 @@
         <v>0.007276578703651538</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0008719519393399187</v>
+        <v>0.01487033242712997</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001573582863100397</v>
+        <v>0.0204722090113598</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00199584422467835</v>
+        <v>0.02495200401539964</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002229323260319631</v>
+        <v>0.02855637365861515</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002354053740753479</v>
+        <v>0.03149377370452854</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00241743449626642</v>
+        <v>0.03391843940661855</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00244654826885654</v>
+        <v>0.03594338375129925</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002458940735864622</v>
+        <v>0.03765236498062921</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002457516487880825</v>
+        <v>0.03906452541104844</v>
       </c>
       <c r="L18" t="n">
-        <v>0.002448090773030649</v>
+        <v>0.04024958533405122</v>
       </c>
     </row>
     <row r="19">
@@ -1149,34 +1149,34 @@
         <v>0.006712113805401937</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0005311693792117944</v>
+        <v>0.0139111382229613</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001301490485762642</v>
+        <v>0.01933891139488425</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001939556892032081</v>
+        <v>0.02374036264054647</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002392145422248646</v>
+        <v>0.02732145099697316</v>
       </c>
       <c r="G19" t="n">
-        <v>0.002697401186119726</v>
+        <v>0.03026778129226478</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002899496211460622</v>
+        <v>0.03272057524484198</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003032367434597534</v>
+        <v>0.03478516626345467</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00312097735582262</v>
+        <v>0.03654044833515665</v>
       </c>
       <c r="K19" t="n">
-        <v>0.003176285097574942</v>
+        <v>0.0380034410414592</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003209833658763013</v>
+        <v>0.03924134535787326</v>
       </c>
     </row>
     <row r="20">
@@ -1187,34 +1187,34 @@
         <v>0.00572063660197129</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0006051961191863025</v>
+        <v>0.0121770241142629</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00201977263550435</v>
+        <v>0.01725140377176303</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003511482884441015</v>
+        <v>0.02147681888532933</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004821350592302287</v>
+        <v>0.02498789001462062</v>
       </c>
       <c r="G20" t="n">
-        <v>0.005873812437784181</v>
+        <v>0.02792848368531586</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00669011913982469</v>
+        <v>0.03041529515055945</v>
       </c>
       <c r="I20" t="n">
-        <v>0.007316986542881525</v>
+        <v>0.03253878905484178</v>
       </c>
       <c r="J20" t="n">
-        <v>0.00780361067886434</v>
+        <v>0.03436823142674691</v>
       </c>
       <c r="K20" t="n">
-        <v>0.008174195628499956</v>
+        <v>0.03591648453272627</v>
       </c>
       <c r="L20" t="n">
-        <v>0.008457948158253433</v>
+        <v>0.03724547227360353</v>
       </c>
     </row>
     <row r="21">
@@ -1225,34 +1225,34 @@
         <v>0.004181049727467421</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0003653058737120094</v>
+        <v>0.00934052032432562</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002066558569491105</v>
+        <v>0.0137159829128489</v>
       </c>
       <c r="E21" t="n">
-        <v>0.005130320916380142</v>
+        <v>0.01754070475359111</v>
       </c>
       <c r="F21" t="n">
-        <v>0.008656592244109015</v>
+        <v>0.02084239972008588</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01207287707485118</v>
+        <v>0.02369694061186864</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0150458609791349</v>
+        <v>0.02617860491653069</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01756904934114881</v>
+        <v>0.02835084774361489</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01981362864936526</v>
+        <v>0.03026476730904597</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02176439657366087</v>
+        <v>0.03192551235065118</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02343826797292665</v>
+        <v>0.03338409218894633</v>
       </c>
     </row>
     <row r="22">
@@ -1263,34 +1263,34 @@
         <v>0.002281502019558357</v>
       </c>
       <c r="C22" t="n">
-        <v>8.545468327194784e-05</v>
+        <v>0.0055260722576239</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0006837890110842804</v>
+        <v>0.008661122181746138</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002538955371959631</v>
+        <v>0.01164223104001071</v>
       </c>
       <c r="F22" t="n">
-        <v>0.006152758950347807</v>
+        <v>0.0143892985780937</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01161454867196528</v>
+        <v>0.01689509351068457</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01867079160698953</v>
+        <v>0.01917545441661412</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02676125007055268</v>
+        <v>0.02125311504958323</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03522885167443873</v>
+        <v>0.02315000163476933</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04371021012097211</v>
+        <v>0.02485927185814018</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05198281983563037</v>
+        <v>0.02641169342284365</v>
       </c>
     </row>
     <row r="23">
@@ -1301,34 +1301,34 @@
         <v>0.0007260295496208387</v>
       </c>
       <c r="C23" t="n">
-        <v>5.06401215420538e-05</v>
+        <v>0.001985036157460674</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001090788310239984</v>
+        <v>0.003477091356615522</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0002615328373550178</v>
+        <v>0.005102837564228802</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0006395953470087301</v>
+        <v>0.006766871632156441</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001387355455658469</v>
+        <v>0.008420342618838225</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002600385853743296</v>
+        <v>0.01003719516392341</v>
       </c>
       <c r="I23" t="n">
-        <v>0.004375792289306677</v>
+        <v>0.01160427834086751</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006819231835448108</v>
+        <v>0.01311469064683948</v>
       </c>
       <c r="K23" t="n">
-        <v>0.009893338694725693</v>
+        <v>0.01455136693622093</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01351222839896367</v>
+        <v>0.01591903590848936</v>
       </c>
     </row>
     <row r="24">
@@ -1339,34 +1339,34 @@
         <v>0.0006775184608594209</v>
       </c>
       <c r="C24" t="n">
-        <v>1.612042551312832e-05</v>
+        <v>0.001864228791352751</v>
       </c>
       <c r="D24" t="n">
-        <v>3.776726990385372e-05</v>
+        <v>0.003286096452994109</v>
       </c>
       <c r="E24" t="n">
-        <v>5.487263960515566e-05</v>
+        <v>0.004847048282846968</v>
       </c>
       <c r="F24" t="n">
-        <v>6.705075970214286e-05</v>
+        <v>0.006454069573390776</v>
       </c>
       <c r="G24" t="n">
-        <v>7.560056309036923e-05</v>
+        <v>0.008058469597452336</v>
       </c>
       <c r="H24" t="n">
-        <v>8.166364642483444e-05</v>
+        <v>0.009633562904332977</v>
       </c>
       <c r="I24" t="n">
-        <v>8.605100666701365e-05</v>
+        <v>0.01116534708814625</v>
       </c>
       <c r="J24" t="n">
-        <v>8.932178904813492e-05</v>
+        <v>0.01264611967939027</v>
       </c>
       <c r="K24" t="n">
-        <v>9.15826148839478e-05</v>
+        <v>0.01405864648286249</v>
       </c>
       <c r="L24" t="n">
-        <v>9.320212564680267e-05</v>
+        <v>0.0154066643080824</v>
       </c>
     </row>
     <row r="25">
@@ -1377,34 +1377,34 @@
         <v>0.0006324063843497768</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0499619134888e-05</v>
+        <v>0.001751021213572633</v>
       </c>
       <c r="D25" t="n">
-        <v>3.434757516378943e-05</v>
+        <v>0.003105829599553815</v>
       </c>
       <c r="E25" t="n">
-        <v>5.936039910407549e-05</v>
+        <v>0.004604235803383933</v>
       </c>
       <c r="F25" t="n">
-        <v>8.068181863706869e-05</v>
+        <v>0.006155743315601338</v>
       </c>
       <c r="G25" t="n">
-        <v>9.761649280252898e-05</v>
+        <v>0.00771198642857348</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0001107513648317314</v>
+        <v>0.009245791568364395</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001209222499296781</v>
+        <v>0.01074241619347709</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001288690312093513</v>
+        <v>0.01219344262200186</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001347814171378963</v>
+        <v>0.01358150815103012</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000139267691398091</v>
+        <v>0.01490942114477667</v>
       </c>
     </row>
     <row r="26">
@@ -1415,34 +1415,34 @@
         <v>0.0005513955020720793</v>
       </c>
       <c r="C26" t="n">
-        <v>1.288217828086514e-05</v>
+        <v>0.001545466302945314</v>
       </c>
       <c r="D26" t="n">
-        <v>5.84279050961219e-05</v>
+        <v>0.002775069941656772</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0001191680194363477</v>
+        <v>0.004154949315501603</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0001818058035901952</v>
+        <v>0.005599930818427717</v>
       </c>
       <c r="G26" t="n">
-        <v>0.000239031429167577</v>
+        <v>0.007062720111767343</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000288565124352684</v>
+        <v>0.008515546278616075</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0003304820587564417</v>
+        <v>0.009942490912064283</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0003656821141409023</v>
+        <v>0.01133394336814485</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003942535301849126</v>
+        <v>0.01267239619391023</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004176136317986076</v>
+        <v>0.01395898182777994</v>
       </c>
     </row>
     <row r="27">
@@ -1453,34 +1453,34 @@
         <v>0.0004203502983769394</v>
       </c>
       <c r="C27" t="n">
-        <v>7.9438316783165e-06</v>
+        <v>0.001205942094982309</v>
       </c>
       <c r="D27" t="n">
-        <v>6.756437074062996e-05</v>
+        <v>0.002217620900448351</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000203736133430194</v>
+        <v>0.003385302616751641</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0003864888513378014</v>
+        <v>0.004635025086251552</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0005767239450116808</v>
+        <v>0.005922884996198366</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0007507954266005179</v>
+        <v>0.007221140708638058</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0009167363827812647</v>
+        <v>0.00851255003732857</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001072269418572883</v>
+        <v>0.009785936362658322</v>
       </c>
       <c r="K27" t="n">
-        <v>0.001213994101747764</v>
+        <v>0.01102388973408702</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001342100613774743</v>
+        <v>0.01222484886270014</v>
       </c>
     </row>
     <row r="28">
@@ -1491,34 +1491,34 @@
         <v>0.0002468253542146418</v>
       </c>
       <c r="C28" t="n">
-        <v>1.820234271012333e-06</v>
+        <v>0.000739159300950818</v>
       </c>
       <c r="D28" t="n">
-        <v>2.234906025395544e-05</v>
+        <v>0.001421942746507798</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0001085428919640871</v>
+        <v>0.002252585295076286</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0003144579185300874</v>
+        <v>0.003178770159595442</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0006727304303984359</v>
+        <v>0.004165799740440083</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001180139959549079</v>
+        <v>0.005189050492590783</v>
       </c>
       <c r="I28" t="n">
-        <v>0.001783297622249559</v>
+        <v>0.006231483491478523</v>
       </c>
       <c r="J28" t="n">
-        <v>0.002449228565145817</v>
+        <v>0.007281171590231176</v>
       </c>
       <c r="K28" t="n">
-        <v>0.003145458739162551</v>
+        <v>0.008322010501733762</v>
       </c>
       <c r="L28" t="n">
-        <v>0.003850772861034379</v>
+        <v>0.009349180202479913</v>
       </c>
     </row>
     <row r="29">
@@ -1529,34 +1529,34 @@
         <v>8.819604290166186e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>1.419140231557492e-07</v>
+        <v>0.0002848543067259218</v>
       </c>
       <c r="D29" t="n">
-        <v>2.393808100160819e-06</v>
+        <v>0.000594742579382087</v>
       </c>
       <c r="E29" t="n">
-        <v>1.474751258874016e-05</v>
+        <v>0.001008760300111398</v>
       </c>
       <c r="F29" t="n">
-        <v>5.560541112124905e-05</v>
+        <v>0.001505642104924059</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0001534612999755586</v>
+        <v>0.002068236403877533</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0003460976665345106</v>
+        <v>0.002681660980330576</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0006814713538225692</v>
+        <v>0.003334046257177623</v>
       </c>
       <c r="J29" t="n">
-        <v>0.001193577845038799</v>
+        <v>0.004016445390175423</v>
       </c>
       <c r="K29" t="n">
-        <v>0.001903253920278425</v>
+        <v>0.004717269163612686</v>
       </c>
       <c r="L29" t="n">
-        <v>0.002825635873916294</v>
+        <v>0.005430372345619018</v>
       </c>
     </row>
     <row r="30">
@@ -1567,34 +1567,34 @@
         <v>1.258545854535426e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>1.566278223279739e-07</v>
+        <v>4.64338057501513e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>3.678310171543002e-07</v>
+        <v>0.0001116512274862208</v>
       </c>
       <c r="E30" t="n">
-        <v>7.977225759683779e-07</v>
+        <v>0.0002133817934069837</v>
       </c>
       <c r="F30" t="n">
-        <v>2.097325947235477e-06</v>
+        <v>0.0003515297716541082</v>
       </c>
       <c r="G30" t="n">
-        <v>5.645419377218525e-06</v>
+        <v>0.0005248146534428868</v>
       </c>
       <c r="H30" t="n">
-        <v>1.370009252882198e-05</v>
+        <v>0.0007305604845464425</v>
       </c>
       <c r="I30" t="n">
-        <v>2.940230086841735e-05</v>
+        <v>0.0009659612280588174</v>
       </c>
       <c r="J30" t="n">
-        <v>5.707366126727493e-05</v>
+        <v>0.001228772311244367</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0001031625366383992</v>
+        <v>0.001515019779101759</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0001760605710882128</v>
+        <v>0.001821827124500477</v>
       </c>
     </row>
     <row r="31">
@@ -1605,34 +1605,34 @@
         <v>1.186569914568713e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>7.637207325182872e-08</v>
+        <v>4.39561943504373e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>2.410529645401365e-07</v>
+        <v>0.0001061247413698745</v>
       </c>
       <c r="E31" t="n">
-        <v>4.055853299625128e-07</v>
+        <v>0.0002035181991203435</v>
       </c>
       <c r="F31" t="n">
-        <v>5.442605154630459e-07</v>
+        <v>0.0003362361435266504</v>
       </c>
       <c r="G31" t="n">
-        <v>6.561914553995625e-07</v>
+        <v>0.0005031902688886555</v>
       </c>
       <c r="H31" t="n">
-        <v>7.460717631317847e-07</v>
+        <v>0.0007018957363429682</v>
       </c>
       <c r="I31" t="n">
-        <v>8.189320950425505e-07</v>
+        <v>0.0009297130849118798</v>
       </c>
       <c r="J31" t="n">
-        <v>8.790351227043127e-07</v>
+        <v>0.001184529542349807</v>
       </c>
       <c r="K31" t="n">
-        <v>9.268649322859215e-07</v>
+        <v>0.001462529692457686</v>
       </c>
       <c r="L31" t="n">
-        <v>9.66014010010583e-07</v>
+        <v>0.001760939709373268</v>
       </c>
     </row>
     <row r="32">
@@ -1643,34 +1643,34 @@
         <v>1.11882711407953e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>5.512271409007639e-08</v>
+        <v>4.16152306940165e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>2.496655885672712e-07</v>
+        <v>0.0001008809277963118</v>
       </c>
       <c r="E32" t="n">
-        <v>5.057327819048934e-07</v>
+        <v>0.0001941251174684666</v>
       </c>
       <c r="F32" t="n">
-        <v>7.600692216162149e-07</v>
+        <v>0.0003216278665440984</v>
       </c>
       <c r="G32" t="n">
-        <v>9.878726455072083e-07</v>
+        <v>0.0004824815758487519</v>
       </c>
       <c r="H32" t="n">
-        <v>1.183755796668103e-06</v>
+        <v>0.0006743838315748025</v>
       </c>
       <c r="I32" t="n">
-        <v>1.349872904053914e-06</v>
+        <v>0.0008948553720386445</v>
       </c>
       <c r="J32" t="n">
-        <v>1.490616797212142e-06</v>
+        <v>0.001141910479558284</v>
       </c>
       <c r="K32" t="n">
-        <v>1.60619988575038e-06</v>
+        <v>0.001411887631202945</v>
       </c>
       <c r="L32" t="n">
-        <v>1.7023337498465e-06</v>
+        <v>0.001702113797363096</v>
       </c>
     </row>
     <row r="33">
@@ -1681,34 +1681,34 @@
         <v>9.950309870532021e-06</v>
       </c>
       <c r="C33" t="n">
-        <v>7.506197038099718e-08</v>
+        <v>3.731258050324983e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>4.750920567273041e-07</v>
+        <v>9.118251481711949e-05</v>
       </c>
       <c r="E33" t="n">
-        <v>1.152740549569228e-06</v>
+        <v>0.0001766593203199192</v>
       </c>
       <c r="F33" t="n">
-        <v>1.961701310866682e-06</v>
+        <v>0.0002943428319926211</v>
       </c>
       <c r="G33" t="n">
-        <v>2.787412820989728e-06</v>
+        <v>0.0004436544015290358</v>
       </c>
       <c r="H33" t="n">
-        <v>3.570188819630814e-06</v>
+        <v>0.0006226315330589185</v>
       </c>
       <c r="I33" t="n">
-        <v>4.285307999487698e-06</v>
+        <v>0.0008290968304499344</v>
       </c>
       <c r="J33" t="n">
-        <v>4.926917768528692e-06</v>
+        <v>0.001061304802678624</v>
       </c>
       <c r="K33" t="n">
-        <v>5.485517101277233e-06</v>
+        <v>0.001315888072006626</v>
       </c>
       <c r="L33" t="n">
-        <v>5.971432185635777e-06</v>
+        <v>0.001590369341183523</v>
       </c>
     </row>
     <row r="34">
@@ -1719,34 +1719,34 @@
         <v>7.879693728658495e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>4.885352251796312e-08</v>
+        <v>3.003381723559365e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>6.539748663755563e-07</v>
+        <v>7.457372180745637e-05</v>
       </c>
       <c r="E34" t="n">
-        <v>2.382341629629079e-06</v>
+        <v>0.0001464327298968182</v>
       </c>
       <c r="F34" t="n">
-        <v>5.015301155483321e-06</v>
+        <v>0.0002467060332420148</v>
       </c>
       <c r="G34" t="n">
-        <v>7.921495686814736e-06</v>
+        <v>0.0003753563389381552</v>
       </c>
       <c r="H34" t="n">
-        <v>1.099733197331868e-05</v>
+        <v>0.000531009003544097</v>
       </c>
       <c r="I34" t="n">
-        <v>1.415751042674629e-05</v>
+        <v>0.0007120205068791602</v>
       </c>
       <c r="J34" t="n">
-        <v>1.728864022764932e-05</v>
+        <v>0.0009170729492086042</v>
       </c>
       <c r="K34" t="n">
-        <v>2.02911656877691e-05</v>
+        <v>0.001143334879020232</v>
       </c>
       <c r="L34" t="n">
-        <v>2.312712958350358e-05</v>
+        <v>0.001388696002946654</v>
       </c>
     </row>
     <row r="35">
@@ -1757,34 +1757,34 @@
         <v>4.964432127863863e-06</v>
       </c>
       <c r="C35" t="n">
-        <v>1.104338339389974e-08</v>
+        <v>1.955606521114283e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>2.300319050023592e-07</v>
+        <v>5.009564979405216e-05</v>
       </c>
       <c r="E35" t="n">
-        <v>1.489509974482596e-06</v>
+        <v>0.0001009744299011074</v>
       </c>
       <c r="F35" t="n">
-        <v>5.189302874519332e-06</v>
+        <v>0.0001738403198835568</v>
       </c>
       <c r="G35" t="n">
-        <v>1.259557108983102e-05</v>
+        <v>0.0002693659878271758</v>
       </c>
       <c r="H35" t="n">
-        <v>2.360217710223148e-05</v>
+        <v>0.0003870422654518309</v>
       </c>
       <c r="I35" t="n">
-        <v>3.769017809770785e-05</v>
+        <v>0.0005260483828870808</v>
       </c>
       <c r="J35" t="n">
-        <v>5.420738742179385e-05</v>
+        <v>0.0006857329895587148</v>
       </c>
       <c r="K35" t="n">
-        <v>7.220670474548733e-05</v>
+        <v>0.0008641458521775844</v>
       </c>
       <c r="L35" t="n">
-        <v>9.079598460683735e-05</v>
+        <v>0.001059809655022058</v>
       </c>
     </row>
     <row r="36">
@@ -1795,34 +1795,34 @@
         <v>2.004728821314226e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>8.681290084076823e-10</v>
+        <v>8.452807504833148e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>2.498330067480314e-08</v>
+        <v>2.299289161609849e-05</v>
       </c>
       <c r="E36" t="n">
-        <v>2.064426897965184e-07</v>
+        <v>4.871151085194908e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>9.608512570307304e-07</v>
+        <v>8.738167882511989e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>3.104880773129071e-06</v>
+        <v>0.0001401675454103765</v>
       </c>
       <c r="H36" t="n">
-        <v>8.118762717823306e-06</v>
+        <v>0.0002074325689587119</v>
       </c>
       <c r="I36" t="n">
-        <v>1.768569833044103e-05</v>
+        <v>0.0002892758134656859</v>
       </c>
       <c r="J36" t="n">
-        <v>3.344042083415957e-05</v>
+        <v>0.0003858055237970272</v>
       </c>
       <c r="K36" t="n">
-        <v>5.685171016836615e-05</v>
+        <v>0.0004962241121802681</v>
       </c>
       <c r="L36" t="n">
-        <v>8.929341346876063e-05</v>
+        <v>0.0006199407704683989</v>
       </c>
     </row>
     <row r="37">
@@ -1830,37 +1830,37 @@
         <v>3.34601900311319</v>
       </c>
       <c r="B37" t="n">
-        <v>3.474024983118048e-07</v>
+        <v>3.474024983118159e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>1.99710498026636e-11</v>
+        <v>1.698952507664519e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>8.545380844841396e-10</v>
+        <v>5.17349298237688e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>8.940893988821585e-09</v>
+        <v>1.200213815726305e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>5.245600693524453e-08</v>
+        <v>2.319350517088927e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>2.051326721628234e-07</v>
+        <v>3.960046851819013e-05</v>
       </c>
       <c r="H37" t="n">
-        <v>6.169795551745099e-07</v>
+        <v>6.181043951990553e-05</v>
       </c>
       <c r="I37" t="n">
-        <v>1.537594936760233e-06</v>
+        <v>9.031540880752809e-05</v>
       </c>
       <c r="J37" t="n">
-        <v>3.360367874906473e-06</v>
+        <v>0.0001255592443847416</v>
       </c>
       <c r="K37" t="n">
-        <v>6.691601044620576e-06</v>
+        <v>0.0001676174888457482</v>
       </c>
       <c r="L37" t="n">
-        <v>1.223150714353067e-05</v>
+        <v>0.0002166198951230813</v>
       </c>
     </row>
     <row r="38">
@@ -1868,37 +1868,37 @@
         <v>3.682770440566225</v>
       </c>
       <c r="B38" t="n">
-        <v>1.280691134722457e-08</v>
+        <v>1.280691134723804e-08</v>
       </c>
       <c r="C38" t="n">
-        <v>1.63361709632319e-10</v>
+        <v>8.963473732954866e-08</v>
       </c>
       <c r="D38" t="n">
-        <v>4.807139491488895e-10</v>
+        <v>3.355299771995157e-07</v>
       </c>
       <c r="E38" t="n">
-        <v>8.672619871245536e-10</v>
+        <v>9.077226224104899e-07</v>
       </c>
       <c r="F38" t="n">
-        <v>1.572821698150103e-09</v>
+        <v>1.984360720540076e-06</v>
       </c>
       <c r="G38" t="n">
-        <v>3.545209127115738e-09</v>
+        <v>3.753544389075428e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>9.128348259972349e-09</v>
+        <v>6.397439440512206e-06</v>
       </c>
       <c r="I38" t="n">
-        <v>2.268475236769136e-08</v>
+        <v>1.010292785655399e-05</v>
       </c>
       <c r="J38" t="n">
-        <v>5.252911082665834e-08</v>
+        <v>1.50484687405934e-05</v>
       </c>
       <c r="K38" t="n">
-        <v>1.143546519294176e-07</v>
+        <v>2.137962710674974e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>2.289973273808412e-07</v>
+        <v>2.925827088969616e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1906,37 +1906,37 @@
         <v>3.687559484245838</v>
       </c>
       <c r="B39" t="n">
-        <v>1.218637921302711e-08</v>
+        <v>1.218637921304035e-08</v>
       </c>
       <c r="C39" t="n">
-        <v>1.049677130329653e-10</v>
+        <v>8.583365306367589e-08</v>
       </c>
       <c r="D39" t="n">
-        <v>4.556749162690167e-10</v>
+        <v>3.222933296700226e-07</v>
       </c>
       <c r="E39" t="n">
-        <v>8.941739299806475e-10</v>
+        <v>8.737946427304713e-07</v>
       </c>
       <c r="F39" t="n">
-        <v>1.321057907809408e-09</v>
+        <v>1.913433440422511e-06</v>
       </c>
       <c r="G39" t="n">
-        <v>1.704662633568153e-09</v>
+        <v>3.624444174833263e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>2.040606884698268e-09</v>
+        <v>6.184861961173661e-06</v>
       </c>
       <c r="I39" t="n">
-        <v>2.333341327429551e-09</v>
+        <v>9.777658402751025e-06</v>
       </c>
       <c r="J39" t="n">
-        <v>2.589934777178254e-09</v>
+        <v>1.457775411555193e-05</v>
       </c>
       <c r="K39" t="n">
-        <v>2.808097064116574e-09</v>
+        <v>2.072867156591989e-05</v>
       </c>
       <c r="L39" t="n">
-        <v>2.996914092414172e-09</v>
+        <v>2.838998341878567e-05</v>
       </c>
     </row>
     <row r="40">
@@ -1944,37 +1944,37 @@
         <v>3.6923361210418</v>
       </c>
       <c r="B40" t="n">
-        <v>1.159652944958891e-08</v>
+        <v>1.159652944960218e-08</v>
       </c>
       <c r="C40" t="n">
-        <v>8.551738086106642e-11</v>
+        <v>8.220017213840039e-08</v>
       </c>
       <c r="D40" t="n">
-        <v>5.457856553851185e-10</v>
+        <v>3.096019216793599e-07</v>
       </c>
       <c r="E40" t="n">
-        <v>1.30234031364489e-09</v>
+        <v>8.411916551763712e-07</v>
       </c>
       <c r="F40" t="n">
-        <v>2.166153501605474e-09</v>
+        <v>1.845153977797957e-06</v>
       </c>
       <c r="G40" t="n">
-        <v>3.02363809697318e-09</v>
+        <v>3.499977930212847e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>3.824794657284604e-09</v>
+        <v>5.979650439026346e-06</v>
       </c>
       <c r="I40" t="n">
-        <v>4.553148619341755e-09</v>
+        <v>9.463299422817224e-06</v>
       </c>
       <c r="J40" t="n">
-        <v>5.208639554882828e-09</v>
+        <v>1.412236340126172e-05</v>
       </c>
       <c r="K40" t="n">
-        <v>5.780729409656224e-09</v>
+        <v>2.009832388237233e-05</v>
       </c>
       <c r="L40" t="n">
-        <v>6.282882490546239e-09</v>
+        <v>2.754846278893434e-05</v>
       </c>
     </row>
     <row r="41">
@@ -1982,37 +1982,37 @@
         <v>3.701852493338749</v>
       </c>
       <c r="B41" t="n">
-        <v>1.050276025045362e-08</v>
+        <v>1.050276025046683e-08</v>
       </c>
       <c r="C41" t="n">
-        <v>1.313832570621698e-10</v>
+        <v>7.540574433953156e-08</v>
       </c>
       <c r="D41" t="n">
-        <v>1.176171915627348e-09</v>
+        <v>2.857624449118443e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>3.409755110079504e-09</v>
+        <v>7.797476008328714e-07</v>
       </c>
       <c r="F41" t="n">
-        <v>6.474596996786567e-09</v>
+        <v>1.716131489484084e-06</v>
       </c>
       <c r="G41" t="n">
-        <v>9.936498602445449e-09</v>
+        <v>3.264262723151378e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>1.349231790052618e-08</v>
+        <v>5.590275177843619e-06</v>
       </c>
       <c r="I41" t="n">
-        <v>1.696331600220418e-08</v>
+        <v>8.86580800538133e-06</v>
       </c>
       <c r="J41" t="n">
-        <v>2.026157658346163e-08</v>
+        <v>1.325550386735809e-05</v>
       </c>
       <c r="K41" t="n">
-        <v>2.328882042044976e-08</v>
+        <v>1.889677326030011e-05</v>
       </c>
       <c r="L41" t="n">
-        <v>2.604940090364863e-08</v>
+        <v>2.594233617208803e-05</v>
       </c>
     </row>
     <row r="42">
@@ -2020,37 +2020,37 @@
         <v>3.720739822795161</v>
       </c>
       <c r="B42" t="n">
-        <v>8.620370010201639e-09</v>
+        <v>8.620370010214747e-09</v>
       </c>
       <c r="C42" t="n">
-        <v>9.333619728090632e-11</v>
+        <v>6.351439467338705e-08</v>
       </c>
       <c r="D42" t="n">
-        <v>1.974841066998974e-09</v>
+        <v>2.436656382194778e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>8.631947215229267e-09</v>
+        <v>6.7053730288566e-07</v>
       </c>
       <c r="F42" t="n">
-        <v>1.976042596920386e-08</v>
+        <v>1.485605166443483e-06</v>
       </c>
       <c r="G42" t="n">
-        <v>3.347791038734686e-08</v>
+        <v>2.841267948089093e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>4.968700347640707e-08</v>
+        <v>4.888896256524224e-06</v>
       </c>
       <c r="I42" t="n">
-        <v>6.744651944240324e-08</v>
+        <v>7.785933414311587e-06</v>
       </c>
       <c r="J42" t="n">
-        <v>8.603867406489251e-08</v>
+        <v>1.168409564073984e-05</v>
       </c>
       <c r="K42" t="n">
-        <v>1.047078009847615e-07</v>
+        <v>1.67127331372328e-05</v>
       </c>
       <c r="L42" t="n">
-        <v>1.230809315951852e-07</v>
+        <v>2.301555734130427e-05</v>
       </c>
     </row>
     <row r="43">
@@ -2058,37 +2058,37 @@
         <v>3.757949689481883</v>
       </c>
       <c r="B43" t="n">
-        <v>5.821444587861734e-09</v>
+        <v>5.82144458787464e-09</v>
       </c>
       <c r="C43" t="n">
-        <v>2.102655952918415e-11</v>
+        <v>4.522864648060092e-08</v>
       </c>
       <c r="D43" t="n">
-        <v>7.877758234391141e-10</v>
+        <v>1.777897837834056e-07</v>
       </c>
       <c r="E43" t="n">
-        <v>6.683833561928647e-09</v>
+        <v>4.974562773030096e-07</v>
       </c>
       <c r="F43" t="n">
-        <v>2.788833543839562e-08</v>
+        <v>1.116528762807721e-06</v>
       </c>
       <c r="G43" t="n">
-        <v>7.407385089403372e-08</v>
+        <v>2.158296382644714e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>1.480047985307504e-07</v>
+        <v>3.748120807043293e-06</v>
       </c>
       <c r="I43" t="n">
-        <v>2.494799564826202e-07</v>
+        <v>6.018051273598731e-06</v>
       </c>
       <c r="J43" t="n">
-        <v>3.742288214487722e-07</v>
+        <v>9.09652152850541e-06</v>
       </c>
       <c r="K43" t="n">
-        <v>5.119453113525669e-07</v>
+        <v>1.309732959118874e-05</v>
       </c>
       <c r="L43" t="n">
-        <v>6.523772381341214e-07</v>
+        <v>1.81468669386845e-05</v>
       </c>
     </row>
     <row r="44">
@@ -2096,37 +2096,37 @@
         <v>3.83023560871777</v>
       </c>
       <c r="B44" t="n">
-        <v>2.679554463538656e-09</v>
+        <v>2.679554463551003e-09</v>
       </c>
       <c r="C44" t="n">
-        <v>1.664451730740014e-12</v>
+        <v>2.327191470965346e-08</v>
       </c>
       <c r="D44" t="n">
-        <v>8.7635493971996e-11</v>
+        <v>9.598012064948879e-08</v>
       </c>
       <c r="E44" t="n">
-        <v>9.737315786118606e-10</v>
+        <v>2.7727987485474e-07</v>
       </c>
       <c r="F44" t="n">
-        <v>5.674595671577573e-09</v>
+        <v>6.379435080373516e-07</v>
       </c>
       <c r="G44" t="n">
-        <v>2.235112408187234e-08</v>
+        <v>1.258453895818297e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>6.608208066256179e-08</v>
+        <v>2.224175099921983e-06</v>
       </c>
       <c r="I44" t="n">
-        <v>1.565537075132252e-07</v>
+        <v>3.627066980891191e-06</v>
       </c>
       <c r="J44" t="n">
-        <v>3.169931581674412e-07</v>
+        <v>5.558296836733498e-06</v>
       </c>
       <c r="K44" t="n">
-        <v>5.753435070612761e-07</v>
+        <v>8.103989787514436e-06</v>
       </c>
       <c r="L44" t="n">
-        <v>9.577981062018874e-07</v>
+        <v>1.135981665215577e-05</v>
       </c>
     </row>
     <row r="45">
@@ -2134,37 +2134,37 @@
         <v>3.96714419628994</v>
       </c>
       <c r="B45" t="n">
-        <v>5.867119398833958e-10</v>
+        <v>5.867119398942555e-10</v>
       </c>
       <c r="C45" t="n">
-        <v>3.911196775506512e-14</v>
+        <v>6.520661602538762e-09</v>
       </c>
       <c r="D45" t="n">
-        <v>3.076090116790575e-12</v>
+        <v>2.951974426748646e-08</v>
       </c>
       <c r="E45" t="n">
-        <v>4.269429545343603e-11</v>
+        <v>9.046855549745358e-08</v>
       </c>
       <c r="F45" t="n">
-        <v>3.234302321229977e-10</v>
+        <v>2.177171470858099e-07</v>
       </c>
       <c r="G45" t="n">
-        <v>1.508746704463814e-09</v>
+        <v>4.455429240705364e-07</v>
       </c>
       <c r="H45" t="n">
-        <v>5.220806329726081e-09</v>
+        <v>8.129348720651467e-07</v>
       </c>
       <c r="I45" t="n">
-        <v>1.447842968372851e-08</v>
+        <v>1.36345531452186e-06</v>
       </c>
       <c r="J45" t="n">
-        <v>3.460255941106612e-08</v>
+        <v>2.142018615877562e-06</v>
       </c>
       <c r="K45" t="n">
-        <v>7.464183062055299e-08</v>
+        <v>3.195238398253919e-06</v>
       </c>
       <c r="L45" t="n">
-        <v>1.457102703793297e-07</v>
+        <v>4.574939029183388e-06</v>
       </c>
     </row>
     <row r="46">
@@ -2172,37 +2172,37 @@
         <v>4.215719775370566</v>
       </c>
       <c r="B46" t="n">
-        <v>3.108650379374568e-11</v>
+        <v>3.108650380124035e-11</v>
       </c>
       <c r="C46" t="n">
-        <v>2.581376246297112e-16</v>
+        <v>6.319348416891108e-10</v>
       </c>
       <c r="D46" t="n">
-        <v>3.35866195718497e-14</v>
+        <v>3.400290209196943e-09</v>
       </c>
       <c r="E46" t="n">
-        <v>5.819425799439641e-13</v>
+        <v>1.152749057372967e-08</v>
       </c>
       <c r="F46" t="n">
-        <v>5.70054371008694e-12</v>
+        <v>2.989856662282756e-08</v>
       </c>
       <c r="G46" t="n">
-        <v>3.209859711200468e-11</v>
+        <v>6.500853411146711e-08</v>
       </c>
       <c r="H46" t="n">
-        <v>1.284634036986437e-10</v>
+        <v>1.250254049030956e-07</v>
       </c>
       <c r="I46" t="n">
-        <v>3.936223535383135e-10</v>
+        <v>2.195690829673246e-07</v>
       </c>
       <c r="J46" t="n">
-        <v>1.052800172942736e-09</v>
+        <v>3.593328188399655e-07</v>
       </c>
       <c r="K46" t="n">
-        <v>2.595937832914732e-09</v>
+        <v>5.567785073062019e-07</v>
       </c>
       <c r="L46" t="n">
-        <v>5.707230669761587e-09</v>
+        <v>8.257463779801175e-07</v>
       </c>
     </row>
     <row r="47">
@@ -2210,37 +2210,37 @@
         <v>4.640000000000003</v>
       </c>
       <c r="B47" t="n">
-        <v>1.085552786300414e-13</v>
+        <v>1.085552816490956e-13</v>
       </c>
       <c r="C47" t="n">
-        <v>5.828677730110779e-14</v>
+        <v>1.206633910446618e-11</v>
       </c>
       <c r="D47" t="n">
-        <v>2.36471244380209e-13</v>
+        <v>8.836770595377979e-11</v>
       </c>
       <c r="E47" t="n">
-        <v>4.680510397727522e-13</v>
+        <v>3.521213855064408e-10</v>
       </c>
       <c r="F47" t="n">
-        <v>7.25665915149911e-13</v>
+        <v>1.022543143819784e-09</v>
       </c>
       <c r="G47" t="n">
-        <v>1.064977168482615e-12</v>
+        <v>2.427244701630205e-09</v>
       </c>
       <c r="H47" t="n">
-        <v>1.725093039432194e-12</v>
+        <v>5.023400529149192e-09</v>
       </c>
       <c r="I47" t="n">
-        <v>3.221420449163588e-12</v>
+        <v>9.387159576099645e-09</v>
       </c>
       <c r="J47" t="n">
-        <v>7.022536857979514e-12</v>
+        <v>1.623175418390038e-08</v>
       </c>
       <c r="K47" t="n">
-        <v>1.683416576536447e-11</v>
+        <v>2.649257291855607e-08</v>
       </c>
       <c r="L47" t="n">
-        <v>3.847947422748038e-11</v>
+        <v>4.120379491351364e-08</v>
       </c>
     </row>
     <row r="48">
@@ -2248,37 +2248,37 @@
         <v>4.643018868776187</v>
       </c>
       <c r="B48" t="n">
-        <v>1.039299531972869e-13</v>
+        <v>1.039299661270349e-13</v>
       </c>
       <c r="C48" t="n">
-        <v>4.617002683411484e-14</v>
+        <v>1.173778098274128e-11</v>
       </c>
       <c r="D48" t="n">
-        <v>2.78285018644754e-13</v>
+        <v>8.615507182905259e-11</v>
       </c>
       <c r="E48" t="n">
-        <v>6.388343372132983e-13</v>
+        <v>3.436775856556699e-10</v>
       </c>
       <c r="F48" t="n">
-        <v>1.039977904976541e-12</v>
+        <v>9.987437298265645e-10</v>
       </c>
       <c r="G48" t="n">
-        <v>1.436512569111623e-12</v>
+        <v>2.372031812057829e-09</v>
       </c>
       <c r="H48" t="n">
-        <v>1.810427882719055e-12</v>
+        <v>4.911254036833259e-09</v>
       </c>
       <c r="I48" t="n">
-        <v>2.156206209394522e-12</v>
+        <v>9.180862748424633e-09</v>
       </c>
       <c r="J48" t="n">
-        <v>2.474519614188048e-12</v>
+        <v>1.588002699032854e-08</v>
       </c>
       <c r="K48" t="n">
-        <v>2.75842295435794e-12</v>
+        <v>2.592627550079279e-08</v>
       </c>
       <c r="L48" t="n">
-        <v>3.014049274081029e-12</v>
+        <v>4.033404097828061e-08</v>
       </c>
     </row>
     <row r="49">
@@ -2286,37 +2286,37 @@
         <v>4.646033816940814</v>
       </c>
       <c r="B49" t="n">
-        <v>9.950243633162216e-14</v>
+        <v>9.950244925940199e-14</v>
       </c>
       <c r="C49" t="n">
-        <v>4.25674248066135e-14</v>
+        <v>1.141871669033487e-11</v>
       </c>
       <c r="D49" t="n">
-        <v>3.859788841513422e-13</v>
+        <v>8.400149055357226e-11</v>
       </c>
       <c r="E49" t="n">
-        <v>1.086908587229707e-12</v>
+        <v>3.354496750271011e-10</v>
       </c>
       <c r="F49" t="n">
-        <v>2.000758421411919e-12</v>
+        <v>9.755347298523597e-10</v>
       </c>
       <c r="G49" t="n">
-        <v>2.998085348041071e-12</v>
+        <v>2.318156760813432e-09</v>
       </c>
       <c r="H49" t="n">
-        <v>4.001253580270186e-12</v>
+        <v>4.801771922945275e-09</v>
       </c>
       <c r="I49" t="n">
-        <v>4.969700730638629e-12</v>
+        <v>8.97938563454089e-09</v>
       </c>
       <c r="J49" t="n">
-        <v>5.886824015726978e-12</v>
+        <v>1.553639392222033e-08</v>
       </c>
       <c r="K49" t="n">
-        <v>6.726035649779495e-12</v>
+        <v>2.537282125650605e-08</v>
       </c>
       <c r="L49" t="n">
-        <v>7.493463845385878e-12</v>
+        <v>3.948374774538281e-08</v>
       </c>
     </row>
     <row r="50">
@@ -2324,37 +2324,37 @@
         <v>4.652052002187748</v>
       </c>
       <c r="B50" t="n">
-        <v>9.120721703781288e-14</v>
+        <v>9.120722996085472e-14</v>
       </c>
       <c r="C50" t="n">
-        <v>7.370107909314531e-14</v>
+        <v>1.080791256214555e-11</v>
       </c>
       <c r="D50" t="n">
-        <v>9.445877817284146e-13</v>
+        <v>7.986478988128832e-11</v>
       </c>
       <c r="E50" t="n">
-        <v>3.279796988995376e-12</v>
+        <v>3.196181500862598e-10</v>
       </c>
       <c r="F50" t="n">
-        <v>6.95197677999768e-12</v>
+        <v>9.30825927106816e-10</v>
       </c>
       <c r="G50" t="n">
-        <v>1.152066337631262e-11</v>
+        <v>2.21428281017503e-09</v>
       </c>
       <c r="H50" t="n">
-        <v>1.657495554626312e-11</v>
+        <v>4.590532700684491e-09</v>
       </c>
       <c r="I50" t="n">
-        <v>2.181459219313777e-11</v>
+        <v>8.59041399753529e-09</v>
       </c>
       <c r="J50" t="n">
-        <v>2.705472167920457e-11</v>
+        <v>1.487262257108308e-08</v>
       </c>
       <c r="K50" t="n">
-        <v>3.208477209147221e-11</v>
+        <v>2.430321179565219e-08</v>
       </c>
       <c r="L50" t="n">
-        <v>3.685656866507991e-11</v>
+        <v>3.783970562556202e-08</v>
       </c>
     </row>
     <row r="51">
@@ -2362,37 +2362,37 @@
         <v>4.66404187996331</v>
       </c>
       <c r="B51" t="n">
-        <v>7.664040863024439e-14</v>
+        <v>7.664042154056578e-14</v>
       </c>
       <c r="C51" t="n">
-        <v>5.847423394703287e-14</v>
+        <v>9.688068964419583e-12</v>
       </c>
       <c r="D51" t="n">
-        <v>1.956497236978823e-12</v>
+        <v>7.222945091495677e-11</v>
       </c>
       <c r="E51" t="n">
-        <v>1.017630272787295e-11</v>
+        <v>2.902979291490285e-10</v>
       </c>
       <c r="F51" t="n">
-        <v>2.508875926102667e-11</v>
+        <v>8.478343888094532e-10</v>
       </c>
       <c r="G51" t="n">
-        <v>4.639526152467069e-11</v>
+        <v>2.021129380782964e-09</v>
       </c>
       <c r="H51" t="n">
-        <v>7.353089903800305e-11</v>
+        <v>4.197176237183493e-09</v>
       </c>
       <c r="I51" t="n">
-        <v>1.051479466306426e-10</v>
+        <v>7.865237856183306e-09</v>
       </c>
       <c r="J51" t="n">
-        <v>1.400058341259168e-10</v>
+        <v>1.363382670481e-08</v>
       </c>
       <c r="K51" t="n">
-        <v>1.765570519454713e-10</v>
+        <v>2.230500730431453e-08</v>
       </c>
       <c r="L51" t="n">
-        <v>2.139301360555962e-10</v>
+        <v>3.476556928663576e-08</v>
       </c>
     </row>
     <row r="52">
@@ -2400,37 +2400,37 @@
         <v>4.687838423921743</v>
       </c>
       <c r="B52" t="n">
-        <v>5.413298488135842e-14</v>
+        <v>5.413299775319456e-14</v>
       </c>
       <c r="C52" t="n">
-        <v>1.326820980909952e-14</v>
+        <v>7.801855192025644e-12</v>
       </c>
       <c r="D52" t="n">
-        <v>9.288460916008319e-13</v>
+        <v>5.919718132015405e-11</v>
       </c>
       <c r="E52" t="n">
-        <v>1.011307722593502e-11</v>
+        <v>2.399195314568024e-10</v>
       </c>
       <c r="F52" t="n">
-        <v>4.971829536520042e-11</v>
+        <v>7.045963277667498e-10</v>
       </c>
       <c r="G52" t="n">
-        <v>1.426890381414356e-10</v>
+        <v>1.686626909426643e-09</v>
       </c>
       <c r="H52" t="n">
-        <v>3.043675859731626e-10</v>
+        <v>3.514082073153167e-09</v>
       </c>
       <c r="I52" t="n">
-        <v>5.391810822712756e-10</v>
+        <v>6.603017904021791e-09</v>
       </c>
       <c r="J52" t="n">
-        <v>8.34691297251186e-10</v>
+        <v>1.147322135518566e-08</v>
       </c>
       <c r="K52" t="n">
-        <v>1.151737741354274e-09</v>
+        <v>1.881314311871915e-08</v>
       </c>
       <c r="L52" t="n">
-        <v>1.471720119702196e-09</v>
+        <v>2.938400568947238e-08</v>
       </c>
     </row>
     <row r="53">
@@ -2438,37 +2438,37 @@
         <v>4.734719918224127</v>
       </c>
       <c r="B53" t="n">
-        <v>2.704160124504879e-14</v>
+        <v>2.704161398815719e-14</v>
       </c>
       <c r="C53" t="n">
-        <v>1.061193670507214e-15</v>
+        <v>5.103633907886921e-12</v>
       </c>
       <c r="D53" t="n">
-        <v>1.079278898191189e-13</v>
+        <v>4.00665707516607e-11</v>
       </c>
       <c r="E53" t="n">
-        <v>1.583760760939525e-12</v>
+        <v>1.650160236725155e-10</v>
       </c>
       <c r="F53" t="n">
-        <v>1.193486764902061e-11</v>
+        <v>4.897952203079137e-10</v>
       </c>
       <c r="G53" t="n">
-        <v>5.642400788859774e-11</v>
+        <v>1.18176058637989e-09</v>
       </c>
       <c r="H53" t="n">
-        <v>1.84955632319283e-10</v>
+        <v>2.477697680508534e-09</v>
       </c>
       <c r="I53" t="n">
-        <v>4.731242395712668e-10</v>
+        <v>4.679683325986582e-09</v>
       </c>
       <c r="J53" t="n">
-        <v>1.023778199220468e-09</v>
+        <v>8.168300616056863e-09</v>
       </c>
       <c r="K53" t="n">
-        <v>1.98546569509393e-09</v>
+        <v>1.345232056237232e-08</v>
       </c>
       <c r="L53" t="n">
-        <v>3.464631670747305e-09</v>
+        <v>2.109443810321152e-08</v>
       </c>
     </row>
     <row r="54">
@@ -2476,37 +2476,37 @@
         <v>4.825794469480421</v>
       </c>
       <c r="B54" t="n">
-        <v>6.780388390022008e-15</v>
+        <v>6.780400687267761e-15</v>
       </c>
       <c r="C54" t="n">
-        <v>2.510241623834096e-17</v>
+        <v>2.254936753690437e-12</v>
       </c>
       <c r="D54" t="n">
-        <v>3.981053385627345e-15</v>
+        <v>1.886208395625866e-11</v>
       </c>
       <c r="E54" t="n">
-        <v>7.25912426143083e-14</v>
+        <v>8.001672606842502e-11</v>
       </c>
       <c r="F54" t="n">
-        <v>7.242649437349627e-13</v>
+        <v>2.422103527768311e-10</v>
       </c>
       <c r="G54" t="n">
-        <v>4.07881920957532e-12</v>
+        <v>5.93016193819627e-10</v>
       </c>
       <c r="H54" t="n">
-        <v>1.619916170080527e-11</v>
+        <v>1.257788870454269e-09</v>
       </c>
       <c r="I54" t="n">
-        <v>4.908593188328916e-11</v>
+        <v>2.398210686968289e-09</v>
       </c>
       <c r="J54" t="n">
-        <v>1.267141597919352e-10</v>
+        <v>4.221061349074542e-09</v>
       </c>
       <c r="K54" t="n">
-        <v>2.966256523823436e-10</v>
+        <v>7.007544728471516e-09</v>
       </c>
       <c r="L54" t="n">
-        <v>6.337179419750698e-10</v>
+        <v>1.106896824804086e-08</v>
       </c>
     </row>
     <row r="55">
@@ -2514,37 +2514,37 @@
         <v>4.998288480873973</v>
       </c>
       <c r="B55" t="n">
-        <v>4.336515139516493e-16</v>
+        <v>4.336624821371173e-16</v>
       </c>
       <c r="C55" t="n">
-        <v>1.348245892419029e-20</v>
+        <v>4.886591880873421e-13</v>
       </c>
       <c r="D55" t="n">
-        <v>4.500962995692638e-17</v>
+        <v>4.559056612905473e-12</v>
       </c>
       <c r="E55" t="n">
-        <v>1.013587089511403e-15</v>
+        <v>2.037410131767259e-11</v>
       </c>
       <c r="F55" t="n">
-        <v>1.353385625812869e-14</v>
+        <v>6.390666114235859e-11</v>
       </c>
       <c r="G55" t="n">
-        <v>9.223696110146935e-14</v>
+        <v>1.607179667559705e-10</v>
       </c>
       <c r="H55" t="n">
-        <v>4.242913050466238e-13</v>
+        <v>3.48148967009226e-10</v>
       </c>
       <c r="I55" t="n">
-        <v>1.411918210502121e-12</v>
+        <v>6.752882231187586e-10</v>
       </c>
       <c r="J55" t="n">
-        <v>4.143406741130062e-12</v>
+        <v>1.206473407977538e-09</v>
       </c>
       <c r="K55" t="n">
-        <v>1.128007869899828e-11</v>
+        <v>2.031924824462975e-09</v>
       </c>
       <c r="L55" t="n">
-        <v>2.682609229625124e-11</v>
+        <v>3.251798938805689e-09</v>
       </c>
     </row>
     <row r="56">
@@ -2552,37 +2552,37 @@
         <v>5.311474085447463</v>
       </c>
       <c r="B56" t="n">
-        <v>1.886227617197699e-18</v>
+        <v>1.89567134432371e-18</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>3.11692863775904e-14</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>3.579299193995869e-13</v>
       </c>
       <c r="E56" t="n">
-        <v>2.990664697659174e-18</v>
+        <v>1.779451572346634e-12</v>
       </c>
       <c r="F56" t="n">
-        <v>8.294662452153287e-17</v>
+        <v>6.014250506189432e-12</v>
       </c>
       <c r="G56" t="n">
-        <v>6.991235680687541e-16</v>
+        <v>1.597463816979484e-11</v>
       </c>
       <c r="H56" t="n">
-        <v>3.713184240111932e-15</v>
+        <v>3.606049859692138e-11</v>
       </c>
       <c r="I56" t="n">
-        <v>1.30893367834867e-14</v>
+        <v>7.22186389368218e-11</v>
       </c>
       <c r="J56" t="n">
-        <v>4.304300805737714e-14</v>
+        <v>1.324999372477049e-10</v>
       </c>
       <c r="K56" t="n">
-        <v>1.34170993400964e-13</v>
+        <v>2.28791608466388e-10</v>
       </c>
       <c r="L56" t="n">
-        <v>3.563869495979501e-13</v>
+        <v>3.743225710154262e-10</v>
       </c>
     </row>
     <row r="57">
@@ -2590,37 +2590,37 @@
         <v>5.846033671512215</v>
       </c>
       <c r="B57" t="n">
-        <v>4.510357060657216e-23</v>
+        <v>1.278642277706825e-20</v>
       </c>
       <c r="C57" t="n">
-        <v>7.229561334301667e-18</v>
+        <v>4.308481764514915e-16</v>
       </c>
       <c r="D57" t="n">
-        <v>4.140428162285452e-17</v>
+        <v>6.98028168650847e-15</v>
       </c>
       <c r="E57" t="n">
-        <v>9.558513606958205e-17</v>
+        <v>4.047683601309116e-14</v>
       </c>
       <c r="F57" t="n">
-        <v>1.590985394719151e-16</v>
+        <v>1.51683429350474e-13</v>
       </c>
       <c r="G57" t="n">
-        <v>2.26070757594178e-16</v>
+        <v>4.330881371421079e-13</v>
       </c>
       <c r="H57" t="n">
-        <v>2.980461122870183e-16</v>
+        <v>1.030777929113751e-12</v>
       </c>
       <c r="I57" t="n">
-        <v>3.80762902868291e-16</v>
+        <v>2.148592011497659e-12</v>
       </c>
       <c r="J57" t="n">
-        <v>5.062673699104193e-16</v>
+        <v>4.072417490550036e-12</v>
       </c>
       <c r="K57" t="n">
-        <v>7.786076387409842e-16</v>
+        <v>7.250366252921972e-12</v>
       </c>
       <c r="L57" t="n">
-        <v>1.404864124029866e-15</v>
+        <v>1.218833954255506e-11</v>
       </c>
     </row>
     <row r="58">
@@ -2628,37 +2628,37 @@
         <v>5.847936058132506</v>
       </c>
       <c r="B58" t="n">
-        <v>4.32933691125157e-23</v>
+        <v>1.278885315824692e-20</v>
       </c>
       <c r="C58" t="n">
-        <v>6.756693473757982e-18</v>
+        <v>4.244630966363707e-16</v>
       </c>
       <c r="D58" t="n">
-        <v>5.800140377166905e-17</v>
+        <v>6.881594618143872e-15</v>
       </c>
       <c r="E58" t="n">
-        <v>1.561629675583044e-16</v>
+        <v>3.991792812065434e-14</v>
       </c>
       <c r="F58" t="n">
-        <v>2.799637947731771e-16</v>
+        <v>1.496276149434023e-13</v>
       </c>
       <c r="G58" t="n">
-        <v>4.133310825100954e-16</v>
+        <v>4.273045118855295e-13</v>
       </c>
       <c r="H58" t="n">
-        <v>5.473278760106278e-16</v>
+        <v>1.017177397724509e-12</v>
       </c>
       <c r="I58" t="n">
-        <v>6.773945451793838e-16</v>
+        <v>2.120521654775772e-12</v>
       </c>
       <c r="J58" t="n">
-        <v>8.017492047231376e-16</v>
+        <v>4.019671589422276e-12</v>
       </c>
       <c r="K58" t="n">
-        <v>9.163502011330503e-16</v>
+        <v>7.157264293578198e-12</v>
       </c>
       <c r="L58" t="n">
-        <v>1.022115879516916e-15</v>
+        <v>1.203307497673698e-11</v>
       </c>
     </row>
     <row r="59">
@@ -2666,37 +2666,37 @@
         <v>5.849837207830199</v>
       </c>
       <c r="B59" t="n">
-        <v>4.155601223641138e-23</v>
+        <v>1.279118290950954e-20</v>
       </c>
       <c r="C59" t="n">
-        <v>6.99752066395152e-18</v>
+        <v>4.181736465368925e-16</v>
       </c>
       <c r="D59" t="n">
-        <v>9.287596338143984e-17</v>
+        <v>6.784302238581794e-15</v>
       </c>
       <c r="E59" t="n">
-        <v>3.093233634112013e-16</v>
+        <v>3.936671757756548e-14</v>
       </c>
       <c r="F59" t="n">
-        <v>6.299470779836763e-16</v>
+        <v>1.47599594630083e-13</v>
       </c>
       <c r="G59" t="n">
-        <v>1.012192613449201e-15</v>
+        <v>4.21598001225847e-13</v>
       </c>
       <c r="H59" t="n">
-        <v>1.42577351873411e-15</v>
+        <v>1.003756661059855e-12</v>
       </c>
       <c r="I59" t="n">
-        <v>1.848268571579749e-15</v>
+        <v>2.092818285519908e-12</v>
       </c>
       <c r="J59" t="n">
-        <v>2.267093090820525e-15</v>
+        <v>3.967610102443048e-12</v>
       </c>
       <c r="K59" t="n">
-        <v>2.66621263213734e-15</v>
+        <v>7.065361506558288e-12</v>
       </c>
       <c r="L59" t="n">
-        <v>3.044133498891933e-15</v>
+        <v>1.187979658309349e-11</v>
       </c>
     </row>
     <row r="60">
@@ -2704,37 +2704,37 @@
         <v>5.853635804487155</v>
       </c>
       <c r="B60" t="n">
-        <v>3.828819473305319e-23</v>
+        <v>1.279552769392164e-20</v>
       </c>
       <c r="C60" t="n">
-        <v>1.370253037889278e-17</v>
+        <v>4.058757507351541e-16</v>
       </c>
       <c r="D60" t="n">
-        <v>2.586208303978885e-16</v>
+        <v>6.593822497486306e-15</v>
       </c>
       <c r="E60" t="n">
-        <v>1.078262409016035e-15</v>
+        <v>3.828696773189037e-14</v>
       </c>
       <c r="F60" t="n">
-        <v>2.556343538316254e-15</v>
+        <v>1.436254533494352e-13</v>
       </c>
       <c r="G60" t="n">
-        <v>4.576979154485442e-15</v>
+        <v>4.1041227944356e-13</v>
       </c>
       <c r="H60" t="n">
-        <v>6.976046846360899e-15</v>
+        <v>9.774439978301637e-13</v>
       </c>
       <c r="I60" t="n">
-        <v>9.607205936931663e-15</v>
+        <v>2.038494089448421e-12</v>
       </c>
       <c r="J60" t="n">
-        <v>1.236500522104615e-14</v>
+        <v>3.865505549858188e-12</v>
       </c>
       <c r="K60" t="n">
-        <v>1.512075175867007e-14</v>
+        <v>6.885092895414465e-12</v>
       </c>
       <c r="L60" t="n">
-        <v>1.782811911603466e-14</v>
+        <v>1.157909869121151e-11</v>
       </c>
     </row>
     <row r="61">
@@ -2742,37 +2742,37 @@
         <v>5.861218242761934</v>
       </c>
       <c r="B61" t="n">
-        <v>3.250507528325853e-23</v>
+        <v>1.280287586844497e-20</v>
       </c>
       <c r="C61" t="n">
-        <v>1.214262804222181e-17</v>
+        <v>3.823641290706542e-16</v>
       </c>
       <c r="D61" t="n">
-        <v>6.621730803249373e-16</v>
+        <v>6.228745997489061e-15</v>
       </c>
       <c r="E61" t="n">
-        <v>4.015971212488073e-15</v>
+        <v>3.621528964992412e-14</v>
       </c>
       <c r="F61" t="n">
-        <v>1.095789841781954e-14</v>
+        <v>1.359946682039286e-13</v>
       </c>
       <c r="G61" t="n">
-        <v>2.213356118191934e-14</v>
+        <v>3.88922472387167e-13</v>
       </c>
       <c r="H61" t="n">
-        <v>3.746124362538469e-14</v>
+        <v>9.268705866227309e-13</v>
       </c>
       <c r="I61" t="n">
-        <v>5.641116581787471e-14</v>
+        <v>1.934044712613474e-12</v>
       </c>
       <c r="J61" t="n">
-        <v>7.835028903414406e-14</v>
+        <v>3.669132596690431e-12</v>
       </c>
       <c r="K61" t="n">
-        <v>1.023241782372006e-13</v>
+        <v>6.538290367752623e-12</v>
       </c>
       <c r="L61" t="n">
-        <v>1.277343626752619e-13</v>
+        <v>1.100045866302256e-11</v>
       </c>
     </row>
     <row r="62">
@@ -2780,37 +2780,37 @@
         <v>5.876324542157032</v>
       </c>
       <c r="B62" t="n">
-        <v>2.343260692550605e-23</v>
+        <v>1.281164382596236e-20</v>
       </c>
       <c r="C62" t="n">
-        <v>2.683286277954335e-18</v>
+        <v>3.393778205361159e-16</v>
       </c>
       <c r="D62" t="n">
-        <v>3.850271558001644e-16</v>
+        <v>5.558059502030435e-15</v>
       </c>
       <c r="E62" t="n">
-        <v>5.394537860968828e-15</v>
+        <v>3.240148803955644e-14</v>
       </c>
       <c r="F62" t="n">
-        <v>3.014165446000955e-14</v>
+        <v>1.219263009861306e-13</v>
       </c>
       <c r="G62" t="n">
-        <v>9.437775873871833e-14</v>
+        <v>3.492596249716091e-13</v>
       </c>
       <c r="H62" t="n">
-        <v>2.145931276872388e-13</v>
+        <v>8.334490636619071e-13</v>
       </c>
       <c r="I62" t="n">
-        <v>3.924342255300241e-13</v>
+        <v>1.740969383629404e-12</v>
       </c>
       <c r="J62" t="n">
-        <v>6.119704261095731e-13</v>
+        <v>3.305920175737338e-12</v>
       </c>
       <c r="K62" t="n">
-        <v>8.575153625508042e-13</v>
+        <v>5.896472696699303e-12</v>
       </c>
       <c r="L62" t="n">
-        <v>1.138742002637793e-12</v>
+        <v>9.92901453476707e-12</v>
       </c>
     </row>
     <row r="63">
@@ -2818,37 +2818,37 @@
         <v>5.906306308805011</v>
       </c>
       <c r="B63" t="n">
-        <v>1.218838529961611e-23</v>
+        <v>1.280222405915914e-20</v>
       </c>
       <c r="C63" t="n">
-        <v>2.709565709685156e-20</v>
+        <v>2.674275947099082e-16</v>
       </c>
       <c r="D63" t="n">
-        <v>4.670937718618401e-17</v>
+        <v>4.425380525596578e-15</v>
       </c>
       <c r="E63" t="n">
-        <v>8.772217040907556e-16</v>
+        <v>2.593536626181657e-14</v>
       </c>
       <c r="F63" t="n">
-        <v>9.121911615769124e-15</v>
+        <v>9.800676323103164e-14</v>
       </c>
       <c r="G63" t="n">
-        <v>5.006649979845883e-14</v>
+        <v>2.816797718747636e-13</v>
       </c>
       <c r="H63" t="n">
-        <v>1.810045469017424e-13</v>
+        <v>6.74004095102811e-13</v>
       </c>
       <c r="I63" t="n">
-        <v>5.045030316765446e-13</v>
+        <v>1.410997149661328e-12</v>
       </c>
       <c r="J63" t="n">
-        <v>1.167203259360898e-12</v>
+        <v>2.684451039768696e-12</v>
       </c>
       <c r="K63" t="n">
-        <v>2.355657353018032e-12</v>
+        <v>4.797039455892575e-12</v>
       </c>
       <c r="L63" t="n">
-        <v>4.204179409638859e-12</v>
+        <v>8.091675511283016e-12</v>
       </c>
     </row>
     <row r="64">
@@ -2856,37 +2856,37 @@
         <v>5.96537329032711</v>
       </c>
       <c r="B64" t="n">
-        <v>3.30931383149493e-24</v>
+        <v>1.266330303035901e-20</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1.6614036798302e-16</v>
       </c>
       <c r="D64" t="n">
-        <v>1.392559526766887e-18</v>
+        <v>2.805761153466957e-15</v>
       </c>
       <c r="E64" t="n">
-        <v>4.270870991521475e-17</v>
+        <v>1.662399012876786e-14</v>
       </c>
       <c r="F64" t="n">
-        <v>5.908406020636987e-16</v>
+        <v>6.338118295455729e-14</v>
       </c>
       <c r="G64" t="n">
-        <v>4.054714345961432e-15</v>
+        <v>1.834557417421253e-13</v>
       </c>
       <c r="H64" t="n">
-        <v>1.833177945142229e-14</v>
+        <v>4.415039194817034e-13</v>
       </c>
       <c r="I64" t="n">
-        <v>5.780885510956226e-14</v>
+        <v>9.285648784951913e-13</v>
       </c>
       <c r="J64" t="n">
-        <v>1.611182442841429e-13</v>
+        <v>1.773736802643736e-12</v>
       </c>
       <c r="K64" t="n">
-        <v>4.352043029423763e-13</v>
+        <v>3.182227076995662e-12</v>
       </c>
       <c r="L64" t="n">
-        <v>1.040704309876984e-12</v>
+        <v>5.387300445544836e-12</v>
       </c>
     </row>
     <row r="65">
@@ -2894,37 +2894,37 @@
         <v>6.080120034564644</v>
       </c>
       <c r="B65" t="n">
-        <v>2.474172364609855e-25</v>
+        <v>1.192086532556459e-20</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>6.428068650900718e-17</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1.135664509785734e-15</v>
       </c>
       <c r="E65" t="n">
-        <v>1.228460143017136e-19</v>
+        <v>6.904329257009595e-15</v>
       </c>
       <c r="F65" t="n">
-        <v>1.093326653729407e-17</v>
+        <v>2.688913367467053e-14</v>
       </c>
       <c r="G65" t="n">
-        <v>9.957059305612618e-17</v>
+        <v>7.914121841363868e-14</v>
       </c>
       <c r="H65" t="n">
-        <v>5.351167125176947e-16</v>
+        <v>1.930267422469555e-13</v>
       </c>
       <c r="I65" t="n">
-        <v>1.907721818282303e-15</v>
+        <v>4.103024851961616e-13</v>
       </c>
       <c r="J65" t="n">
-        <v>6.131769609360586e-15</v>
+        <v>7.908836182450494e-13</v>
       </c>
       <c r="K65" t="n">
-        <v>1.840049838961852e-14</v>
+        <v>1.431525875815598e-12</v>
       </c>
       <c r="L65" t="n">
-        <v>4.750267190623969e-14</v>
+        <v>2.442772839452186e-12</v>
       </c>
     </row>
     <row r="66">
@@ -2932,37 +2932,37 @@
         <v>6.297448870500187</v>
       </c>
       <c r="B66" t="n">
-        <v>1.461347391724203e-27</v>
+        <v>9.359308369074233e-21</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1.037318066302205e-17</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>2.125272245764877e-16</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1.399192734222379e-15</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>5.795887601050813e-15</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1.784509793321528e-14</v>
       </c>
       <c r="H66" t="n">
-        <v>2.092462890839009e-18</v>
+        <v>4.50265995883045e-14</v>
       </c>
       <c r="I66" t="n">
-        <v>1.451654017913019e-17</v>
+        <v>9.818042165101752e-14</v>
       </c>
       <c r="J66" t="n">
-        <v>6.432027586123663e-17</v>
+        <v>1.931989498383604e-13</v>
       </c>
       <c r="K66" t="n">
-        <v>2.363704334541403e-16</v>
+        <v>3.566240872061812e-13</v>
       </c>
       <c r="L66" t="n">
-        <v>6.923834870212518e-16</v>
+        <v>6.187795238662235e-13</v>
       </c>
     </row>
     <row r="67">
@@ -2970,37 +2970,37 @@
         <v>6.692038006226379</v>
       </c>
       <c r="B67" t="n">
-        <v>6.289659009397085e-32</v>
+        <v>6.369059446086664e-21</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>6.744129265380832e-19</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1.911275784798538e-17</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1.438299572013708e-16</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>6.530275543856202e-16</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2.137710778748496e-15</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>5.635006313664727e-15</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1.268129472150831e-14</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2.559049768146673e-14</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>4.838579389040886e-14</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>8.565060915746034e-14</v>
       </c>
     </row>
     <row r="68">
@@ -3008,37 +3008,37 @@
         <v>7.36554088113245</v>
       </c>
       <c r="B68" t="n">
-        <v>2.473644335906982e-40</v>
+        <v>1.306748518233988e-20</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1.49860210620115e-20</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1.557515049223563e-19</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1.186667060291114e-18</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>6.031347570964217e-18</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2.145897490740597e-17</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>6.008270218367898e-17</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1.412022175011241e-16</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>2.957850584403196e-16</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>5.805662944600942e-16</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1.062415696325987e-15</v>
       </c>
     </row>
     <row r="69">
@@ -3046,37 +3046,37 @@
         <v>7.366739504567951</v>
       </c>
       <c r="B69" t="n">
-        <v>2.384003624575536e-40</v>
+        <v>1.307239092180434e-20</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1.493871971982614e-20</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1.541573648535396e-19</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1.174142768918684e-18</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>5.972432217788999e-18</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2.126049017157828e-17</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>5.954652826247372e-17</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1.399711096404185e-16</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>2.932527377048399e-16</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>5.756769508080955e-16</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1.053587062675098e-15</v>
       </c>
     </row>
     <row r="70">
@@ -3084,37 +3084,37 @@
         <v>7.367937738080394</v>
       </c>
       <c r="B70" t="n">
-        <v>2.29761879682223e-40</v>
+        <v>1.307720953208334e-20</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1.48918895436115e-20</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1.525798834654161e-19</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1.161748600321277e-18</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>5.914122036962316e-18</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>2.106402569410715e-17</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>5.901577328858798e-17</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1.387523756444128e-16</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>2.907457389556469e-16</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>5.708362306926756e-16</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1.044845776364118e-15</v>
       </c>
     </row>
     <row r="71">
@@ -3122,37 +3122,37 @@
         <v>7.370333036603518</v>
       </c>
       <c r="B71" t="n">
-        <v>2.134146994431692e-40</v>
+        <v>1.308658514428828e-20</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1.479962091498463e-20</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1.49474234389405e-19</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1.137345502752766e-18</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>5.799293314534079e-18</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2.067707838682019e-17</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>5.797030787708504e-17</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1.363515463145616e-16</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2.858067231642581e-16</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>5.612987810530187e-16</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1.027621881101092e-15</v>
       </c>
     </row>
     <row r="72">
@@ -3160,37 +3160,37 @@
         <v>7.375118968491677</v>
       </c>
       <c r="B72" t="n">
-        <v>1.841339725416698e-40</v>
+        <v>1.31042885301461e-20</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1.462050106503498e-20</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1.434556400701557e-19</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1.09004503994062e-18</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>5.576638758807922e-18</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1.992656487845162e-17</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>5.594209790995549e-17</v>
       </c>
       <c r="I72" t="n">
-        <v>8.922979682900851e-19</v>
+        <v>1.316931241444058e-16</v>
       </c>
       <c r="J72" t="n">
-        <v>5.034535506515263e-18</v>
+        <v>2.762218501752851e-16</v>
       </c>
       <c r="K72" t="n">
-        <v>1.05016104033557e-17</v>
+        <v>5.427869035288338e-16</v>
       </c>
       <c r="L72" t="n">
-        <v>1.648421817001524e-17</v>
+        <v>9.941856589279284e-16</v>
       </c>
     </row>
     <row r="73">
@@ -3198,37 +3198,37 @@
         <v>7.3846722420836</v>
       </c>
       <c r="B73" t="n">
-        <v>1.370946596506569e-40</v>
+        <v>1.313549480192638e-20</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1.428277789587894e-20</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1.321541062826497e-19</v>
       </c>
       <c r="E73" t="n">
-        <v>2.93443396786588e-19</v>
+        <v>1.001194527136012e-18</v>
       </c>
       <c r="F73" t="n">
-        <v>5.433005793427086e-18</v>
+        <v>5.158076042398946e-18</v>
       </c>
       <c r="G73" t="n">
-        <v>2.114672548849418e-17</v>
+        <v>1.851484732405769e-17</v>
       </c>
       <c r="H73" t="n">
-        <v>5.28134615587026e-17</v>
+        <v>5.212528632183851e-17</v>
       </c>
       <c r="I73" t="n">
-        <v>1.001864592492286e-16</v>
+        <v>1.229235553816478e-16</v>
       </c>
       <c r="J73" t="n">
-        <v>1.601872563495141e-16</v>
+        <v>2.581723811648267e-16</v>
       </c>
       <c r="K73" t="n">
-        <v>2.346920868028678e-16</v>
+        <v>5.079151060411596e-16</v>
       </c>
       <c r="L73" t="n">
-        <v>3.252809156329422e-16</v>
+        <v>9.311803791338574e-16</v>
       </c>
     </row>
     <row r="74">
@@ -3236,37 +3236,37 @@
         <v>7.403704986677496</v>
       </c>
       <c r="B74" t="n">
-        <v>7.604357743826235e-41</v>
+        <v>1.31810653175331e-20</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1.368082324690738e-20</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1.122313137249996e-19</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>8.444618618900487e-19</v>
       </c>
       <c r="F74" t="n">
-        <v>1.231488899810386e-18</v>
+        <v>4.418486617413358e-18</v>
       </c>
       <c r="G74" t="n">
-        <v>1.43199084804622e-17</v>
+        <v>1.601715246349941e-17</v>
       </c>
       <c r="H74" t="n">
-        <v>6.146980337444959e-17</v>
+        <v>4.536581501089923e-17</v>
       </c>
       <c r="I74" t="n">
-        <v>1.882975082585313e-16</v>
+        <v>1.073815537466548e-16</v>
       </c>
       <c r="J74" t="n">
-        <v>4.594520827436066e-16</v>
+        <v>2.261628552078066e-16</v>
       </c>
       <c r="K74" t="n">
-        <v>9.661964384018765e-16</v>
+        <v>4.4602994958407e-16</v>
       </c>
       <c r="L74" t="n">
-        <v>1.796062349446819e-15</v>
+        <v>8.192974127806673e-16</v>
       </c>
     </row>
     <row r="75">
@@ -3274,37 +3274,37 @@
         <v>7.441479645590322</v>
       </c>
       <c r="B75" t="n">
-        <v>2.34538524425418e-41</v>
+        <v>1.320503344106081e-20</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1.271166843961019e-20</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>8.128098988164898e-20</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>6.007004486161797e-19</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>3.263557099319703e-18</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1.210491001567466e-17</v>
       </c>
       <c r="H75" t="n">
-        <v>5.553304768812276e-18</v>
+        <v>3.475482809963524e-17</v>
       </c>
       <c r="I75" t="n">
-        <v>2.270908231175755e-17</v>
+        <v>8.294440138339254e-17</v>
       </c>
       <c r="J75" t="n">
-        <v>7.531243680076086e-17</v>
+        <v>1.757618435743318e-16</v>
       </c>
       <c r="K75" t="n">
-        <v>2.330694082691935e-16</v>
+        <v>3.484476214979594e-16</v>
       </c>
       <c r="L75" t="n">
-        <v>5.980453634142507e-16</v>
+        <v>6.426466435855316e-16</v>
       </c>
     </row>
     <row r="76">
@@ -3312,37 +3312,37 @@
         <v>7.515899378963765</v>
       </c>
       <c r="B76" t="n">
-        <v>2.252835468843603e-42</v>
+        <v>1.299348098005838e-20</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1.136078221508675e-20</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>4.389620788333705e-20</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>3.059322463809392e-19</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1.849992513566044e-18</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>7.274628544708637e-18</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2.157566611845755e-17</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>5.246707705944212e-17</v>
       </c>
       <c r="J76" t="n">
-        <v>1.214756184727544e-18</v>
+        <v>1.12686285166263e-16</v>
       </c>
       <c r="K76" t="n">
-        <v>8.333296518985057e-18</v>
+        <v>2.259216626534838e-16</v>
       </c>
       <c r="L76" t="n">
-        <v>2.779287537814254e-17</v>
+        <v>4.202035567167914e-16</v>
       </c>
     </row>
     <row r="77">
@@ -3350,37 +3350,37 @@
         <v>7.660471217435539</v>
       </c>
       <c r="B77" t="n">
-        <v>2.158512539363889e-44</v>
+        <v>1.170283153106664e-20</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>9.490365692293879e-21</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1.605082494116185e-20</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>8.79734164293369e-20</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>7.468888356172516e-19</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>3.36662285129763e-18</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1.066826359944439e-17</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2.687537618706684e-17</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>5.913247505913543e-17</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>1.208823923057538e-16</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>2.280389105019357e-16</v>
       </c>
     </row>
     <row r="78">
@@ -3388,37 +3388,37 @@
         <v>7.934288392579878</v>
       </c>
       <c r="B78" t="n">
-        <v>2.28659492307574e-48</v>
+        <v>7.652810665972133e-21</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>6.061485290370123e-21</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>5.8700122356089e-21</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1.75920877362144e-20</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>2.438293452741111e-19</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1.247422017747332e-18</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>4.178108759780114e-18</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1.082382081915268e-17</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>2.428046172441384e-17</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>5.046130479273299e-17</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>9.638747865396413e-17</v>
       </c>
     </row>
     <row r="79">
@@ -3426,37 +3426,37 @@
         <v>8.431439550741132</v>
       </c>
       <c r="B79" t="n">
-        <v>4.307258161791971e-56</v>
+        <v>3.711983301874222e-21</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>2.935682594738705e-21</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>2.702723182296848e-21</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>3.455416095514517e-21</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>2.288327697043325e-20</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1.11777068919978e-19</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>3.776119312598004e-19</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>9.874711579531904e-19</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>2.238988072229536e-18</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>4.715196449382841e-18</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>9.116498109662688e-18</v>
       </c>
     </row>
     <row r="80">
@@ -3464,37 +3464,37 @@
         <v>9.280000000000006</v>
       </c>
       <c r="B80" t="n">
-        <v>8.622062367761848e-71</v>
+        <v>1.365361781810898e-20</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1.079815770574969e-20</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>9.940329900183739e-21</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>9.482557609844863e-21</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>9.207564485787064e-21</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>9.057718382900829e-21</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>9.056038377455634e-21</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>9.277108233263062e-21</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>9.885669874193102e-21</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1.12401122926177e-20</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1.377681824794627e-20</v>
       </c>
     </row>
     <row r="81">
@@ -3502,37 +3502,37 @@
         <v>9.280755146882662</v>
       </c>
       <c r="B81" t="n">
-        <v>8.349890054901376e-71</v>
+        <v>1.36574065697186e-20</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1.080115409380841e-20</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>9.943088249025751e-21</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>9.485185068333504e-21</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>9.210027907395609e-21</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>9.05973012335086e-21</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>9.056783645806531e-21</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>9.274965861578228e-21</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>9.877516958199977e-21</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1.121976347131815e-20</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>1.373433755694731e-20</v>
       </c>
     </row>
     <row r="82">
@@ -3540,37 +3540,37 @@
         <v>9.281510170897292</v>
       </c>
       <c r="B82" t="n">
-        <v>8.086323464037271e-71</v>
+        <v>1.366115620710648e-20</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1.080411954782888e-20</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>9.945818121293125e-21</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>9.487785394573779e-21</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>9.21246573051509e-21</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>9.061720171635425e-21</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>9.057517918302843e-21</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>9.27283672022062e-21</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>9.869427484240128e-21</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1.119957953872681e-20</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1.36922052881484e-20</v>
       </c>
     </row>
     <row r="83">
@@ -3578,37 +3578,37 @@
         <v>9.283019850522306</v>
       </c>
       <c r="B83" t="n">
-        <v>7.583925902316152e-71</v>
+        <v>1.366853808240397e-20</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1.080995760882402e-20</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>9.951192394741773e-21</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>9.492904609817361e-21</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>9.21726451852442e-21</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>9.065635020818065e-21</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>9.058952972049908e-21</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>9.268616851769481e-21</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>9.853435974575871e-21</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>1.115970019900667e-20</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1.360897400293545e-20</v>
       </c>
     </row>
     <row r="84">
@@ -3616,37 +3616,37 @@
         <v>9.286037737552373</v>
       </c>
       <c r="B84" t="n">
-        <v>6.670971468138482e-71</v>
+        <v>1.368283186069472e-20</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1.08212620465378e-20</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>9.961598784724513e-21</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>9.502817024197064e-21</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>9.226554240668961e-21</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>9.073202563384411e-21</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>9.061685654806641e-21</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>9.260321984761641e-21</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>9.822182817572792e-21</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1.108185331162089e-20</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1.34465616485227e-20</v>
       </c>
     </row>
     <row r="85">
@@ -3654,37 +3654,37 @@
         <v>9.292067633881627</v>
       </c>
       <c r="B85" t="n">
-        <v>5.161967701634053e-71</v>
+        <v>1.370953688167745e-20</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1.084238209193143e-20</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>9.981041010369264e-21</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>9.52133589512991e-21</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>9.243899176127446e-21</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>9.087280139122143e-21</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>9.066574615124697e-21</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>9.244243632671462e-21</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>9.762441580745838e-21</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1.093347811677835e-20</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1.313729459190277e-20</v>
       </c>
     </row>
     <row r="86">
@@ -3692,37 +3692,37 @@
         <v>9.304104004375496</v>
       </c>
       <c r="B86" t="n">
-        <v>3.091805291121378e-71</v>
+        <v>1.375540116660544e-20</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1.087865451352015e-20</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1.001443187634872e-20</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>9.553138542886735e-21</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>9.273630609338978e-21</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>9.111141093801914e-21</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>9.073848258449771e-21</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>9.213621427023696e-21</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>9.652857215183769e-21</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1.066352462764937e-20</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1.25761380308332e-20</v>
       </c>
     </row>
     <row r="87">
@@ -3730,37 +3730,37 @@
         <v>9.328083759926621</v>
       </c>
       <c r="B87" t="n">
-        <v>1.110659784403758e-71</v>
+        <v>1.3816909754159e-20</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1.092729945418761e-20</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1.005921236309998e-20</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>9.595774820287868e-21</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>9.313164528002996e-21</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>9.141278586302213e-21</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>9.077012422731774e-21</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>9.154923774326746e-21</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>9.465050074986793e-21</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1.021319948784616e-20</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1.164878972343064e-20</v>
       </c>
     </row>
     <row r="88">
@@ -3768,37 +3768,37 @@
         <v>9.375676847843486</v>
       </c>
       <c r="B88" t="n">
-        <v>1.440784620190433e-72</v>
+        <v>1.382011755396291e-20</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1.09298363882536e-20</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>1.006154775790663e-20</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>9.597895911018703e-21</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>9.312792020387198e-21</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>9.129490310886346e-21</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>9.029981667777569e-21</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>9.025737686149754e-21</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>9.163391963091199e-21</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>9.559707435607907e-21</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1.035487742090382e-20</v>
       </c>
     </row>
     <row r="89">
@@ -3806,37 +3806,37 @@
         <v>9.469439836448254</v>
       </c>
       <c r="B89" t="n">
-        <v>2.475113138446723e-74</v>
+        <v>1.337577686980144e-20</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1.057842324291896e-20</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>9.738051593920237e-21</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>9.289216136028663e-21</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>9.011208829691511e-21</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>8.824081390440291e-21</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>8.69758665999503e-21</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>8.622974751809941e-21</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>8.607873980179285e-21</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>8.688047795198532e-21</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>8.904279391098972e-21</v>
       </c>
     </row>
     <row r="90">
@@ -3844,37 +3844,37 @@
         <v>9.651588938960842</v>
       </c>
       <c r="B90" t="n">
-        <v>7.910482153990734e-78</v>
+        <v>1.114195132979063e-20</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>8.811770565987215e-21</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>8.111745430757232e-21</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>7.737835790587742e-21</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>7.505523717093382e-21</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>7.346190555922863e-21</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>7.230027196844136e-21</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>7.142604826616979e-21</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>7.076670704970227e-21</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>7.033794378693381e-21</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>7.013175398683081e-21</v>
       </c>
     </row>
     <row r="91">
@@ -3882,37 +3882,37 @@
         <v>9.996576961747945</v>
       </c>
       <c r="B91" t="n">
-        <v>1.088897585051864e-84</v>
+        <v>5.661072661128233e-21</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>4.47713977298284e-21</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>4.121466602471168e-21</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>3.931486314130949e-21</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>3.813407407876915e-21</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>3.732242100840171e-21</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>3.672558253773773e-21</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>3.626581970925812e-21</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>3.589771141946883e-21</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>3.561123657152102e-21</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>3.53800452318647e-21</v>
       </c>
     </row>
     <row r="92">
@@ -3920,37 +3920,37 @@
         <v>10.62294817089493</v>
       </c>
       <c r="B92" t="n">
-        <v>5.933001050180819e-98</v>
+        <v>1.826887482072126e-21</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1.444819930136614e-21</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1.330040470162825e-21</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1.268731832622399e-21</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1.230626362781598e-21</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1.204432655385014e-21</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1.185169449123761e-21</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1.170326257411152e-21</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1.158433768617646e-21</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1.14916102428245e-21</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1.141648234986369e-21</v>
       </c>
     </row>
     <row r="93">
@@ -3958,37 +3958,37 @@
         <v>11.69206734302443</v>
       </c>
       <c r="B93" t="n">
-        <v>5.395865346296687e-123</v>
+        <v>1.297789851263688e-21</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1.026375548924354e-21</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>9.448381692283945e-22</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>9.012855539874468e-22</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>8.742160751432548e-22</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>8.556085100867399e-22</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>8.419242553142059e-22</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>8.313799037162135e-22</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>8.22931681129301e-22</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>8.163444799971356e-22</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>8.110075201527394e-22</v>
       </c>
     </row>
   </sheetData>
